--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,11 +277,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>深圳电商沙龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓磊《产品经理课程》知识消化；看《电商产品经理宝典》；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>出差、去深圳、购礼物、产品知识进阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晓磊《产品经理课程》知识消化；看《电商产品经理宝典》；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,31 +726,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1235,28 +1239,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1275,25 +1279,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="20"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1309,54 +1313,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="20"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1374,27 +1378,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="20"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1413,25 +1417,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1441,332 +1445,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="20"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="20"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="20"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="20"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="20"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="20"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="20"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="20"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="20"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1815,6 +1819,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
     <mergeCell ref="W20:X21"/>
     <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="U18:V19"/>
@@ -1831,90 +1919,6 @@
     <mergeCell ref="U20:V21"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5095,7 +5099,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J10" sqref="J10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5245,7 +5249,7 @@
         <v>43233</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -5303,7 +5307,7 @@
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -5354,7 +5358,9 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="J11" s="29"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="星期日期和周">{0,1,2,3,4,5,6} + {0;1;2;3;4;5}*7</definedName>
     <definedName name="周开始日期">一月!$E$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,13 +286,17 @@
   </si>
   <si>
     <t>出差、去深圳、购礼物、产品知识进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习axure；开始编写电商后台方案、原型；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
@@ -726,31 +730,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,28 +1243,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1279,25 +1283,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1313,54 +1317,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="19"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="19"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1378,27 +1382,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1417,25 +1421,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1445,332 +1449,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="19"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1819,6 +1823,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="W2:X3"/>
@@ -1835,90 +1923,6 @@
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5346,7 +5350,9 @@
         <f ca="1"/>
         <v>43247</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,19 +277,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深圳电商沙龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>晓磊《产品经理课程》知识消化；看《电商产品经理宝典》；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出差、去深圳、购礼物、产品知识进阶</t>
+    <t>买礼物，去深圳泡妹子；产品知识进阶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复习axure；开始编写电商后台方案、原型；</t>
+    <t>复习axure；《采购与供应链管理》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,31 +726,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,28 +1239,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1283,25 +1279,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="20"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1317,54 +1313,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="20"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1382,27 +1378,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="20"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1421,25 +1417,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1449,332 +1445,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="20"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="20"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="20"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="20"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="20"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="20"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="20"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="20"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="20"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1823,6 +1819,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
     <mergeCell ref="W20:X21"/>
     <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="U18:V19"/>
@@ -1839,90 +1919,6 @@
     <mergeCell ref="U20:V21"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5253,7 +5249,7 @@
         <v>43233</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -5302,7 +5298,7 @@
         <v>43240</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -5351,7 +5347,7 @@
         <v>43247</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -5364,9 +5360,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="J11" s="29"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="星期日期和周">{0,1,2,3,4,5,6} + {0;1;2;3;4;5}*7</definedName>
     <definedName name="周开始日期">一月!$E$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,14 +285,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复习axure；《采购与供应链管理》</t>
+    <t>规划电商建设方案（后台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习axure；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
@@ -726,31 +730,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,28 +1243,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1279,25 +1283,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1313,54 +1317,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="19"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="19"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1378,27 +1382,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1417,25 +1421,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1445,332 +1449,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="19"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1819,6 +1823,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="W2:X3"/>
@@ -1835,90 +1923,6 @@
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4344,7 +4348,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5098,8 +5102,8 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:M11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5309,7 +5313,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="16"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="J9" s="29"/>
@@ -5347,16 +5351,16 @@
         <v>43247</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -5395,10 +5399,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -5408,10 +5414,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -5500,7 +5506,9 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -285,11 +285,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规划电商建设方案（后台）</t>
+    <t>复习axure；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复习axure；</t>
+    <t>规划电商建设方案（后台）；开始学习商业模式；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,31 +730,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,28 +1243,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1283,25 +1283,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="20"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1317,54 +1317,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="20"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1382,27 +1382,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="20"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1421,25 +1421,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1449,332 +1449,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="20"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="20"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="20"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="20"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="20"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="20"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="20"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="20"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="20"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1823,6 +1823,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
     <mergeCell ref="W20:X21"/>
     <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="U18:V19"/>
@@ -1839,90 +1923,6 @@
     <mergeCell ref="U20:V21"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5102,8 +5102,8 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5351,7 +5351,7 @@
         <v>43247</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -5400,7 +5400,7 @@
         <v>43254</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -730,31 +730,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,28 +1243,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1283,25 +1283,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1317,54 +1317,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="19"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="19"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1382,27 +1382,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1421,25 +1421,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1449,332 +1449,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="19"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1823,6 +1823,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="W2:X3"/>
@@ -1839,90 +1923,6 @@
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5103,7 +5103,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:M13"/>
+      <selection activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5363,7 +5363,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="4"/>
       <c r="J11" s="29"/>
       <c r="K11" s="30"/>
@@ -5504,10 +5504,10 @@
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="J8" sqref="J8:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5517,7 +5517,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -5533,7 +5533,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>40</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -5571,8 +5571,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+1</f>
         <v>43248</v>
@@ -5601,8 +5607,14 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5610,8 +5622,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+8</f>
         <v>43255</v>
@@ -5640,8 +5656,12 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5649,8 +5669,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+15</f>
         <v>43262</v>
@@ -5679,8 +5703,12 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5688,8 +5716,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+22</f>
         <v>43269</v>
@@ -5718,8 +5750,12 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5727,8 +5763,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+29</f>
         <v>43276</v>
@@ -5757,8 +5797,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5766,8 +5810,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+36</f>
         <v>43283</v>
@@ -5797,7 +5845,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5807,6 +5855,14 @@
       <c r="H15" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
     <cfRule type="expression" dxfId="13" priority="2">

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="总战略" sheetId="1" r:id="rId1"/>
@@ -730,31 +730,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,28 +1243,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1283,25 +1283,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="20"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1317,54 +1317,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="20"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1382,27 +1382,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="20"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1421,25 +1421,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1449,332 +1449,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="20"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="20"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="20"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="20"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="20"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="20"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="20"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="20"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="20"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1823,6 +1823,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
     <mergeCell ref="W20:X21"/>
     <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="U18:V19"/>
@@ -1839,90 +1923,6 @@
     <mergeCell ref="U20:V21"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5102,7 +5102,7 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
@@ -5506,8 +5506,8 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:M9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5856,12 +5856,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J12:M13"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M5"/>
     <mergeCell ref="J6:M7"/>
     <mergeCell ref="J8:M9"/>
     <mergeCell ref="J10:M11"/>
-    <mergeCell ref="J12:M13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>规划电商建设方案（后台）；开始学习商业模式；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axure强化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,31 +734,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,28 +1247,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1283,25 +1287,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1317,54 +1321,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="19"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="19"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1382,27 +1386,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1421,25 +1425,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1449,332 +1453,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="19"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1823,6 +1827,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="W2:X3"/>
@@ -1839,90 +1927,6 @@
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5608,7 +5612,7 @@
         <v>43254</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,14 @@
   </si>
   <si>
     <t>Axure强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过“三节课”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过“三节课”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,31 +742,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1247,28 +1255,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1287,25 +1295,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="20"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1321,54 +1329,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="20"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1386,27 +1394,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="20"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1425,25 +1433,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1453,332 +1461,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="20"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="20"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="20"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="20"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="20"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="20"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="20"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="20"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="20"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1827,6 +1835,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
     <mergeCell ref="W20:X21"/>
     <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="U18:V19"/>
@@ -1843,90 +1935,6 @@
     <mergeCell ref="U20:V21"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5511,7 +5519,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6:M7"/>
+      <selection activeCell="J8" sqref="J8:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5660,7 +5668,9 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="26" t="s">
+        <v>74</v>
+      </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
@@ -5707,7 +5717,9 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
       <c r="M8" s="28"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认识妹纸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一起看了个电影，看完好累</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,11 +293,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过“三节课”</t>
+    <t>“三节课”产品经理P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过“三节课”</t>
+    <t>“三节课”产品经理P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品运营P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识薇薇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,31 +746,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1255,28 +1259,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1295,25 +1299,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1329,54 +1333,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="19"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="19"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1394,27 +1398,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1433,25 +1437,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1461,332 +1465,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="19"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1835,6 +1839,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="W2:X3"/>
@@ -1851,90 +1939,6 @@
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4359,7 +4363,7 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4703,8 +4707,8 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5008,7 +5012,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="29"/>
@@ -5052,7 +5056,7 @@
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5216,7 +5220,7 @@
         <v>43226</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
@@ -5265,7 +5269,7 @@
         <v>43233</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -5314,7 +5318,7 @@
         <v>43240</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -5363,7 +5367,7 @@
         <v>43247</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
@@ -5412,7 +5416,7 @@
         <v>43254</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
@@ -5519,7 +5523,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:M9"/>
+      <selection activeCell="J12" sqref="J12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5620,7 +5624,7 @@
         <v>43254</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
@@ -5669,7 +5673,7 @@
         <v>43261</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
@@ -5718,7 +5722,7 @@
         <v>43268</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="27"/>
       <c r="L8" s="27"/>
@@ -5766,7 +5770,9 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>75</v>
+      </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>
       <c r="M10" s="28"/>
@@ -5918,7 +5924,9 @@
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -301,11 +301,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“三节课”产品运营P1</t>
+    <t>认识薇薇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认识薇薇</t>
+    <t>“三节课”产品运营P1；“产品经理P2”；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,31 +746,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,28 +1259,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="19"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1299,25 +1299,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="20"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="19"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="20"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1333,54 +1333,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="20"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="19"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="17"/>
+      <c r="W4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="20"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="20"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1398,27 +1398,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="20"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="20"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1437,25 +1437,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="19"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="20"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1465,332 +1465,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="20"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="19"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="20"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="19"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="20"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="20"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="19"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="20"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="19"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="20"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="20"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="19"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="20"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="20"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="20"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="19"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="20"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="20"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="20"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="19"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="20"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="19"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="20"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="20"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="19"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="20"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="20"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="20"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="20"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="19"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="20"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="19"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="25"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="20"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1839,6 +1839,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
     <mergeCell ref="W20:X21"/>
     <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="U18:V19"/>
@@ -1855,90 +1939,6 @@
     <mergeCell ref="U20:V21"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5012,7 +5012,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="4"/>
       <c r="J13" s="29"/>
@@ -5522,8 +5522,8 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:M13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5771,7 +5771,7 @@
         <v>43275</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K10" s="27"/>
       <c r="L10" s="27"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -306,6 +306,10 @@
   </si>
   <si>
     <t>“三节课”产品运营P1；“产品经理P2”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品经理P2；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,31 +750,31 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1259,28 +1263,28 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1299,25 +1303,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="21"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="21"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="19"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1333,54 +1337,54 @@
         <v>17</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="20"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17" t="s">
+      <c r="V4" s="18"/>
+      <c r="W4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="19"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="19"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="21"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="19"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="20"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1398,27 +1402,27 @@
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="20"/>
       <c r="Q6" s="21"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="19"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1437,25 +1441,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="20"/>
       <c r="Q7" s="21"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="19"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1465,332 +1469,332 @@
         <v>21</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="19"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="20"/>
       <c r="Q8" s="21"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="19"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="21"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="21"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="21"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="19"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="20"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="25"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="19"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="21"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="19"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="21"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="19"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="21"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="21"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="19"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="19"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G18" s="21"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="19"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="19"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
       <c r="G20" s="21"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="21"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="20"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="20"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -1839,6 +1843,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="W2:X3"/>
@@ -1855,90 +1943,6 @@
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1952,9 +1956,11 @@
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1963,7 +1969,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -1979,7 +1985,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>46</v>
       </c>
@@ -1988,7 +1994,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -2017,8 +2023,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+1</f>
         <v>43311</v>
@@ -2047,8 +2059,12 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2056,8 +2072,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+8</f>
         <v>43318</v>
@@ -2086,8 +2106,12 @@
         <f ca="1"/>
         <v>43324</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2095,8 +2119,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+15</f>
         <v>43325</v>
@@ -2125,8 +2153,12 @@
         <f ca="1"/>
         <v>43331</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2134,8 +2166,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+22</f>
         <v>43332</v>
@@ -2164,8 +2200,12 @@
         <f ca="1"/>
         <v>43338</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2173,8 +2213,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+29</f>
         <v>43339</v>
@@ -2203,8 +2247,12 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2212,8 +2260,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+36</f>
         <v>43346</v>
@@ -2242,8 +2294,12 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2251,8 +2307,21 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -2290,9 +2359,11 @@
     <tabColor theme="3" tint="0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2301,7 +2372,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -2317,7 +2388,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>49</v>
       </c>
@@ -2326,7 +2397,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -2355,8 +2426,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+1</f>
         <v>43339</v>
@@ -2385,8 +2462,12 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2394,8 +2475,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+8</f>
         <v>43346</v>
@@ -2424,8 +2509,12 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2433,8 +2522,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+15</f>
         <v>43353</v>
@@ -2463,8 +2556,12 @@
         <f ca="1"/>
         <v>43359</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2472,8 +2569,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+22</f>
         <v>43360</v>
@@ -2502,8 +2603,12 @@
         <f ca="1"/>
         <v>43366</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2511,8 +2616,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+29</f>
         <v>43367</v>
@@ -2541,8 +2650,12 @@
         <f ca="1"/>
         <v>43373</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2550,8 +2663,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+36</f>
         <v>43374</v>
@@ -2580,8 +2697,12 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2589,8 +2710,21 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
     <cfRule type="expression" dxfId="7" priority="2">
@@ -2628,9 +2762,11 @@
     <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2639,7 +2775,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -2655,7 +2791,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>52</v>
       </c>
@@ -2664,7 +2800,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -2693,8 +2829,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+1</f>
         <v>43374</v>
@@ -2723,8 +2865,12 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2732,8 +2878,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+8</f>
         <v>43381</v>
@@ -2762,8 +2912,12 @@
         <f ca="1"/>
         <v>43387</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2771,8 +2925,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+15</f>
         <v>43388</v>
@@ -2801,8 +2959,12 @@
         <f ca="1"/>
         <v>43394</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2810,8 +2972,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+22</f>
         <v>43395</v>
@@ -2840,8 +3006,12 @@
         <f ca="1"/>
         <v>43401</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2849,8 +3019,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+29</f>
         <v>43402</v>
@@ -2879,8 +3053,12 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2888,8 +3066,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+36</f>
         <v>43409</v>
@@ -2918,8 +3100,12 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2927,8 +3113,21 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
     <cfRule type="expression" dxfId="5" priority="2">
@@ -2966,9 +3165,11 @@
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2977,7 +3178,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -2993,7 +3194,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
@@ -3002,7 +3203,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -3031,8 +3232,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+1</f>
         <v>43402</v>
@@ -3061,8 +3268,12 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3070,8 +3281,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+8</f>
         <v>43409</v>
@@ -3100,8 +3315,12 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3109,8 +3328,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+15</f>
         <v>43416</v>
@@ -3139,8 +3362,12 @@
         <f ca="1"/>
         <v>43422</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3148,8 +3375,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+22</f>
         <v>43423</v>
@@ -3178,8 +3409,12 @@
         <f ca="1"/>
         <v>43429</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3187,8 +3422,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+29</f>
         <v>43430</v>
@@ -3217,8 +3456,12 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3226,8 +3469,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+36</f>
         <v>43437</v>
@@ -3256,8 +3503,12 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3265,8 +3516,21 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
     <cfRule type="expression" dxfId="3" priority="2">
@@ -3304,10 +3568,10 @@
     <tabColor theme="9" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3317,7 +3581,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -3333,7 +3597,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>58</v>
       </c>
@@ -3342,7 +3606,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -3371,8 +3635,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+1</f>
         <v>43430</v>
@@ -3401,8 +3671,12 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3410,8 +3684,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+8</f>
         <v>43437</v>
@@ -3440,8 +3718,12 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -3449,8 +3731,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+15</f>
         <v>43444</v>
@@ -3479,8 +3765,12 @@
         <f ca="1"/>
         <v>43450</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3488,8 +3778,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+22</f>
         <v>43451</v>
@@ -3518,8 +3812,12 @@
         <f ca="1"/>
         <v>43457</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3527,8 +3825,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+29</f>
         <v>43458</v>
@@ -3557,8 +3859,12 @@
         <f ca="1"/>
         <v>43464</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -3566,8 +3872,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+36</f>
         <v>43465</v>
@@ -3596,8 +3906,12 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3605,8 +3919,21 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -5522,7 +5849,7 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10:M11"/>
     </sheetView>
   </sheetViews>
@@ -5819,7 +6146,9 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="26" t="s">
+        <v>77</v>
+      </c>
       <c r="K12" s="27"/>
       <c r="L12" s="27"/>
       <c r="M12" s="28"/>
@@ -5922,10 +6251,10 @@
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5935,7 +6264,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -5951,7 +6280,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
@@ -5960,7 +6289,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -5989,8 +6318,14 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+1</f>
         <v>43276</v>
@@ -6019,8 +6354,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6028,8 +6367,12 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+8</f>
         <v>43283</v>
@@ -6058,8 +6401,12 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6067,8 +6414,12 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+15</f>
         <v>43290</v>
@@ -6097,8 +6448,12 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6106,8 +6461,12 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+22</f>
         <v>43297</v>
@@ -6136,8 +6495,12 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6145,8 +6508,12 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+29</f>
         <v>43304</v>
@@ -6175,8 +6542,12 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6184,8 +6555,12 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+36</f>
         <v>43311</v>
@@ -6214,8 +6589,12 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6223,8 +6602,21 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="J14:M15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
     <cfRule type="expression" dxfId="11" priority="2">

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -8,19 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="总战略" sheetId="1" r:id="rId1"/>
-    <sheet name="年计划" sheetId="2" r:id="rId2"/>
-    <sheet name="一月" sheetId="6" r:id="rId3"/>
-    <sheet name="二月" sheetId="7" r:id="rId4"/>
-    <sheet name="三月" sheetId="8" r:id="rId5"/>
-    <sheet name="四月" sheetId="9" r:id="rId6"/>
-    <sheet name="五月" sheetId="10" r:id="rId7"/>
-    <sheet name="六月" sheetId="11" r:id="rId8"/>
-    <sheet name="七月" sheetId="12" r:id="rId9"/>
-    <sheet name="八月" sheetId="13" r:id="rId10"/>
-    <sheet name="九月" sheetId="14" r:id="rId11"/>
-    <sheet name="十月" sheetId="15" r:id="rId12"/>
-    <sheet name="十一月" sheetId="16" r:id="rId13"/>
-    <sheet name="十二月" sheetId="17" r:id="rId14"/>
+    <sheet name="一月" sheetId="6" r:id="rId2"/>
+    <sheet name="二月" sheetId="7" r:id="rId3"/>
+    <sheet name="三月" sheetId="8" r:id="rId4"/>
+    <sheet name="四月" sheetId="9" r:id="rId5"/>
+    <sheet name="五月" sheetId="10" r:id="rId6"/>
+    <sheet name="六月" sheetId="11" r:id="rId7"/>
+    <sheet name="七月" sheetId="12" r:id="rId8"/>
+    <sheet name="八月" sheetId="13" r:id="rId9"/>
+    <sheet name="九月" sheetId="14" r:id="rId10"/>
+    <sheet name="十月" sheetId="15" r:id="rId11"/>
+    <sheet name="十一月" sheetId="16" r:id="rId12"/>
+    <sheet name="十二月" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="CalendarYear">一月!$C$2</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +309,10 @@
   </si>
   <si>
     <t>“三节课”产品经理P2；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理产品工作方法论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1224,7 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="U4" sqref="U4:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1953,409 +1956,6 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:M15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="11">
-        <f ca="1">CalendarYear</f>
-        <v>2018</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="str">
-        <f>周开始日期</f>
-        <v>一</v>
-      </c>
-      <c r="C3" s="6" t="str">
-        <f t="shared" ref="C3:H3" ca="1" si="0">LEFT(TEXT(C4,"aaa"),1)</f>
-        <v>二</v>
-      </c>
-      <c r="D3" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>三</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>四</v>
-      </c>
-      <c r="F3" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>五</v>
-      </c>
-      <c r="G3" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>六</v>
-      </c>
-      <c r="H3" s="6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>日</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
-        <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+1</f>
-        <v>43311</v>
-      </c>
-      <c r="C4" s="14">
-        <f ca="1"/>
-        <v>43312</v>
-      </c>
-      <c r="D4" s="14">
-        <f ca="1"/>
-        <v>43313</v>
-      </c>
-      <c r="E4" s="14">
-        <f ca="1"/>
-        <v>43314</v>
-      </c>
-      <c r="F4" s="14">
-        <f ca="1"/>
-        <v>43315</v>
-      </c>
-      <c r="G4" s="14">
-        <f ca="1"/>
-        <v>43316</v>
-      </c>
-      <c r="H4" s="14">
-        <f ca="1"/>
-        <v>43317</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-    </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
-        <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+8</f>
-        <v>43318</v>
-      </c>
-      <c r="C6" s="14">
-        <f ca="1"/>
-        <v>43319</v>
-      </c>
-      <c r="D6" s="14">
-        <f ca="1"/>
-        <v>43320</v>
-      </c>
-      <c r="E6" s="14">
-        <f ca="1"/>
-        <v>43321</v>
-      </c>
-      <c r="F6" s="14">
-        <f ca="1"/>
-        <v>43322</v>
-      </c>
-      <c r="G6" s="14">
-        <f ca="1"/>
-        <v>43323</v>
-      </c>
-      <c r="H6" s="14">
-        <f ca="1"/>
-        <v>43324</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
-    </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-    </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
-        <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+15</f>
-        <v>43325</v>
-      </c>
-      <c r="C8" s="14">
-        <f ca="1"/>
-        <v>43326</v>
-      </c>
-      <c r="D8" s="14">
-        <f ca="1"/>
-        <v>43327</v>
-      </c>
-      <c r="E8" s="14">
-        <f ca="1"/>
-        <v>43328</v>
-      </c>
-      <c r="F8" s="14">
-        <f ca="1"/>
-        <v>43329</v>
-      </c>
-      <c r="G8" s="14">
-        <f ca="1"/>
-        <v>43330</v>
-      </c>
-      <c r="H8" s="14">
-        <f ca="1"/>
-        <v>43331</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
-    </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
-        <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+22</f>
-        <v>43332</v>
-      </c>
-      <c r="C10" s="14">
-        <f ca="1"/>
-        <v>43333</v>
-      </c>
-      <c r="D10" s="14">
-        <f ca="1"/>
-        <v>43334</v>
-      </c>
-      <c r="E10" s="14">
-        <f ca="1"/>
-        <v>43335</v>
-      </c>
-      <c r="F10" s="14">
-        <f ca="1"/>
-        <v>43336</v>
-      </c>
-      <c r="G10" s="14">
-        <f ca="1"/>
-        <v>43337</v>
-      </c>
-      <c r="H10" s="14">
-        <f ca="1"/>
-        <v>43338</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-    </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+29</f>
-        <v>43339</v>
-      </c>
-      <c r="C12" s="14">
-        <f ca="1"/>
-        <v>43340</v>
-      </c>
-      <c r="D12" s="14">
-        <f ca="1"/>
-        <v>43341</v>
-      </c>
-      <c r="E12" s="14">
-        <f ca="1"/>
-        <v>43342</v>
-      </c>
-      <c r="F12" s="14">
-        <f ca="1"/>
-        <v>43343</v>
-      </c>
-      <c r="G12" s="14">
-        <f ca="1"/>
-        <v>43344</v>
-      </c>
-      <c r="H12" s="14">
-        <f ca="1"/>
-        <v>43345</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
-    </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="31"/>
-    </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+36</f>
-        <v>43346</v>
-      </c>
-      <c r="C14" s="14">
-        <f ca="1"/>
-        <v>43347</v>
-      </c>
-      <c r="D14" s="14">
-        <f ca="1"/>
-        <v>43348</v>
-      </c>
-      <c r="E14" s="14">
-        <f ca="1"/>
-        <v>43349</v>
-      </c>
-      <c r="F14" s="14">
-        <f ca="1"/>
-        <v>43350</v>
-      </c>
-      <c r="G14" s="14">
-        <f ca="1"/>
-        <v>43351</v>
-      </c>
-      <c r="H14" s="14">
-        <f ca="1"/>
-        <v>43352</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
-    </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="J14:M15"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="J6:M7"/>
-    <mergeCell ref="J8:M9"/>
-    <mergeCell ref="J10:M11"/>
-    <mergeCell ref="J12:M13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:G4">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>DAY(B4)&gt;8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:H15">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的八月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D1" location="九月!A1" tooltip="转到下月的导航链接" display="九月 -&gt;"/>
-    <hyperlink ref="C1" location="七月!A1" tooltip="转到上月的导航链接" display="&lt;- 七月"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2756,7 +2356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -3159,7 +2759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -3562,7 +3162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -3967,21 +3567,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4345,7 +3930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -4682,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
@@ -5026,7 +4611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -5437,7 +5022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -5841,7 +5426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -5849,7 +5434,7 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10:M11"/>
     </sheetView>
   </sheetViews>
@@ -6245,7 +5830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -6253,8 +5838,8 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6401,7 +5986,9 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="26" t="s">
+        <v>78</v>
+      </c>
       <c r="K6" s="27"/>
       <c r="L6" s="27"/>
       <c r="M6" s="28"/>
@@ -6609,13 +6196,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="J14:M15"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M5"/>
     <mergeCell ref="J6:M7"/>
     <mergeCell ref="J8:M9"/>
     <mergeCell ref="J10:M11"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="J14:M15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:G4">
@@ -6646,4 +6233,407 @@
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:M15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="11">
+        <f ca="1">CalendarYear</f>
+        <v>2018</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="str">
+        <f>周开始日期</f>
+        <v>一</v>
+      </c>
+      <c r="C3" s="6" t="str">
+        <f t="shared" ref="C3:H3" ca="1" si="0">LEFT(TEXT(C4,"aaa"),1)</f>
+        <v>二</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>三</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>四</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>五</v>
+      </c>
+      <c r="G3" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>六</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>日</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14">
+        <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+1</f>
+        <v>43311</v>
+      </c>
+      <c r="C4" s="14">
+        <f ca="1"/>
+        <v>43312</v>
+      </c>
+      <c r="D4" s="14">
+        <f ca="1"/>
+        <v>43313</v>
+      </c>
+      <c r="E4" s="14">
+        <f ca="1"/>
+        <v>43314</v>
+      </c>
+      <c r="F4" s="14">
+        <f ca="1"/>
+        <v>43315</v>
+      </c>
+      <c r="G4" s="14">
+        <f ca="1"/>
+        <v>43316</v>
+      </c>
+      <c r="H4" s="14">
+        <f ca="1"/>
+        <v>43317</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14">
+        <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+8</f>
+        <v>43318</v>
+      </c>
+      <c r="C6" s="14">
+        <f ca="1"/>
+        <v>43319</v>
+      </c>
+      <c r="D6" s="14">
+        <f ca="1"/>
+        <v>43320</v>
+      </c>
+      <c r="E6" s="14">
+        <f ca="1"/>
+        <v>43321</v>
+      </c>
+      <c r="F6" s="14">
+        <f ca="1"/>
+        <v>43322</v>
+      </c>
+      <c r="G6" s="14">
+        <f ca="1"/>
+        <v>43323</v>
+      </c>
+      <c r="H6" s="14">
+        <f ca="1"/>
+        <v>43324</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14">
+        <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+15</f>
+        <v>43325</v>
+      </c>
+      <c r="C8" s="14">
+        <f ca="1"/>
+        <v>43326</v>
+      </c>
+      <c r="D8" s="14">
+        <f ca="1"/>
+        <v>43327</v>
+      </c>
+      <c r="E8" s="14">
+        <f ca="1"/>
+        <v>43328</v>
+      </c>
+      <c r="F8" s="14">
+        <f ca="1"/>
+        <v>43329</v>
+      </c>
+      <c r="G8" s="14">
+        <f ca="1"/>
+        <v>43330</v>
+      </c>
+      <c r="H8" s="14">
+        <f ca="1"/>
+        <v>43331</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14">
+        <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+22</f>
+        <v>43332</v>
+      </c>
+      <c r="C10" s="14">
+        <f ca="1"/>
+        <v>43333</v>
+      </c>
+      <c r="D10" s="14">
+        <f ca="1"/>
+        <v>43334</v>
+      </c>
+      <c r="E10" s="14">
+        <f ca="1"/>
+        <v>43335</v>
+      </c>
+      <c r="F10" s="14">
+        <f ca="1"/>
+        <v>43336</v>
+      </c>
+      <c r="G10" s="14">
+        <f ca="1"/>
+        <v>43337</v>
+      </c>
+      <c r="H10" s="14">
+        <f ca="1"/>
+        <v>43338</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14">
+        <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+29</f>
+        <v>43339</v>
+      </c>
+      <c r="C12" s="14">
+        <f ca="1"/>
+        <v>43340</v>
+      </c>
+      <c r="D12" s="14">
+        <f ca="1"/>
+        <v>43341</v>
+      </c>
+      <c r="E12" s="14">
+        <f ca="1"/>
+        <v>43342</v>
+      </c>
+      <c r="F12" s="14">
+        <f ca="1"/>
+        <v>43343</v>
+      </c>
+      <c r="G12" s="14">
+        <f ca="1"/>
+        <v>43344</v>
+      </c>
+      <c r="H12" s="14">
+        <f ca="1"/>
+        <v>43345</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14">
+        <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+36</f>
+        <v>43346</v>
+      </c>
+      <c r="C14" s="14">
+        <f ca="1"/>
+        <v>43347</v>
+      </c>
+      <c r="D14" s="14">
+        <f ca="1"/>
+        <v>43348</v>
+      </c>
+      <c r="E14" s="14">
+        <f ca="1"/>
+        <v>43349</v>
+      </c>
+      <c r="F14" s="14">
+        <f ca="1"/>
+        <v>43350</v>
+      </c>
+      <c r="G14" s="14">
+        <f ca="1"/>
+        <v>43351</v>
+      </c>
+      <c r="H14" s="14">
+        <f ca="1"/>
+        <v>43352</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J14:M15"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="J6:M7"/>
+    <mergeCell ref="J8:M9"/>
+    <mergeCell ref="J10:M11"/>
+    <mergeCell ref="J12:M13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B4:G4">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>DAY(B4)&gt;8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:H15">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的八月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D1" location="九月!A1" tooltip="转到下月的导航链接" display="九月 -&gt;"/>
+    <hyperlink ref="C1" location="七月!A1" tooltip="转到上月的导航链接" display="&lt;- 七月"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="总战略" sheetId="1" r:id="rId1"/>
+    <sheet name="总计划" sheetId="1" r:id="rId1"/>
     <sheet name="1月" sheetId="6" r:id="rId2"/>
     <sheet name="2月" sheetId="7" r:id="rId3"/>
     <sheet name="3月" sheetId="8" r:id="rId4"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="119">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谈判</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,7 +81,377 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谈判</t>
+    <t>健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月 -&gt;</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>周开始日期：</t>
+  </si>
+  <si>
+    <t>输入年份：</t>
+  </si>
+  <si>
+    <t>通过在“周开始日期”单元格 E2 中选择“日”或“一”，可将星期日或星期一作为日历的开始日期</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 一月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 二月</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>五月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 三月</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>六月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 四月</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 五月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 六月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 七月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>十月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 八月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 九月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 十月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>一月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 十一月</t>
+  </si>
+  <si>
+    <t>办健身卡，体重56.5kg</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检体重57kg</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>周计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）完成“设备系统2.0”；2）尽量重新开始锻炼；3）读一本书；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）熟悉HIS；2）移动查房；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起看了个电影，看完好累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读《优势谈判》、《谈判是什么》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓磊《产品经理课程》知识消化；看《电商产品经理宝典》；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买礼物，去深圳泡妹子；产品知识进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习axure；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划电商建设方案（后台）；开始学习商业模式；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axure强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品经理P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品经理P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识薇薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品运营P1；“产品经理P2”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理产品工作方法论：《三节课P1、P2》、《启示录》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>分点突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>《三节课》P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理产品经理工作阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,385 +459,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作</t>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>用户分析、需求挖掘、产品调研、功能/流程、原型/PRD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>健身</t>
+    <t>用户分析整理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读书学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>二月 -&gt;</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>周开始日期：</t>
-  </si>
-  <si>
-    <t>输入年份：</t>
-  </si>
-  <si>
-    <t>通过在“周开始日期”单元格 E2 中选择“日”或“一”，可将星期日或星期一作为日历的开始日期</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 一月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 二月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 三月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 四月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 五月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 六月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 七月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 八月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 九月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 十月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>一月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 十一月</t>
-  </si>
-  <si>
-    <t>办健身卡，体重56.5kg</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>体检体重57kg</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>周计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）完成“设备系统2.0”；2）尽量重新开始锻炼；3）读一本书；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1）熟悉HIS；2）移动查房；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一起看了个电影，看完好累</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读《优势谈判》、《谈判是什么》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晓磊《产品经理课程》知识消化；看《电商产品经理宝典》；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买礼物，去深圳泡妹子；产品知识进阶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复习axure；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划电商建设方案（后台）；开始学习商业模式；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Axure强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“三节课”产品经理P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“三节课”产品经理P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认识薇薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“三节课”产品运营P1；“产品经理P2”；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理产品工作方法论：《三节课P1、P2》、《启示录》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>分点突破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>《三节课》P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理产品经理工作阶段</t>
+    <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +481,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +633,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -941,7 +959,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,31 +1028,33 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1481,7 +1501,7 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:V5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1504,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1512,7 +1532,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
@@ -1521,34 +1541,34 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="30"/>
+        <v>14</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -1557,35 +1577,35 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>9</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="31"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>9</v>
@@ -1594,61 +1614,61 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="31"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="31"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
@@ -1657,36 +1677,36 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>7</v>
@@ -1695,366 +1715,366 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="31"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="31"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="32"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="31"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G10" s="32"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="31"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="32"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="33"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="33"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="30"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="37"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="31"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="32"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G14" s="32"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="31"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="32"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="31"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="32"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G16" s="32"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="31"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="31"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="G18" s="32"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="31"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="31"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="G20" s="32"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="31"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="36"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="33"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
@@ -2103,6 +2123,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="S2:T3"/>
+    <mergeCell ref="U2:V3"/>
+    <mergeCell ref="W2:X3"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="U4:V5"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="M2:N3"/>
+    <mergeCell ref="O2:P3"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
     <mergeCell ref="W20:X21"/>
     <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="U18:V19"/>
@@ -2119,90 +2223,6 @@
     <mergeCell ref="U20:V21"/>
     <mergeCell ref="I18:J19"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="S2:T3"/>
-    <mergeCell ref="U2:V3"/>
-    <mergeCell ref="W2:X3"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="U4:V5"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="M2:N3"/>
-    <mergeCell ref="O2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q4:R5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2235,25 +2255,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2261,7 +2281,7 @@
         <v>43344</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2274,7 +2294,7 @@
         <v>43345</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -2287,7 +2307,7 @@
         <v>43346</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2300,7 +2320,7 @@
         <v>43347</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2313,7 +2333,7 @@
         <v>43348</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -2326,7 +2346,7 @@
         <v>43349</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -2339,7 +2359,7 @@
         <v>43350</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -2352,7 +2372,7 @@
         <v>43351</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -2365,7 +2385,7 @@
         <v>43352</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -2378,7 +2398,7 @@
         <v>43353</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -2391,7 +2411,7 @@
         <v>43354</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2404,7 +2424,7 @@
         <v>43355</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -2417,7 +2437,7 @@
         <v>43356</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -2430,7 +2450,7 @@
         <v>43357</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -2443,7 +2463,7 @@
         <v>43358</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -2456,7 +2476,7 @@
         <v>43359</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2469,7 +2489,7 @@
         <v>43360</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -2482,7 +2502,7 @@
         <v>43361</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2495,7 +2515,7 @@
         <v>43362</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2508,7 +2528,7 @@
         <v>43363</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -2521,7 +2541,7 @@
         <v>43364</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -2534,7 +2554,7 @@
         <v>43365</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -2547,7 +2567,7 @@
         <v>43366</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -2560,7 +2580,7 @@
         <v>43367</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -2573,7 +2593,7 @@
         <v>43368</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -2586,7 +2606,7 @@
         <v>43369</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -2599,7 +2619,7 @@
         <v>43370</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2612,7 +2632,7 @@
         <v>43371</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -2625,7 +2645,7 @@
         <v>43372</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -2638,7 +2658,7 @@
         <v>43373</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2683,25 +2703,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>112</v>
-      </c>
       <c r="F1" s="26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2709,7 +2729,7 @@
         <v>43374</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -2722,7 +2742,7 @@
         <v>43375</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2735,7 +2755,7 @@
         <v>43376</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -2748,7 +2768,7 @@
         <v>43377</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -2761,7 +2781,7 @@
         <v>43378</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -2774,7 +2794,7 @@
         <v>43379</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -2787,7 +2807,7 @@
         <v>43380</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -2800,7 +2820,7 @@
         <v>43381</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -2813,7 +2833,7 @@
         <v>43382</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -2826,7 +2846,7 @@
         <v>43383</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -2839,7 +2859,7 @@
         <v>43384</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -2852,7 +2872,7 @@
         <v>43385</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -2865,7 +2885,7 @@
         <v>43386</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2878,7 +2898,7 @@
         <v>43387</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -2891,7 +2911,7 @@
         <v>43388</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2904,7 +2924,7 @@
         <v>43389</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2917,7 +2937,7 @@
         <v>43390</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -2930,7 +2950,7 @@
         <v>43391</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -2943,7 +2963,7 @@
         <v>43392</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -2956,7 +2976,7 @@
         <v>43393</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -2969,7 +2989,7 @@
         <v>43394</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -2982,7 +3002,7 @@
         <v>43395</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -2995,7 +3015,7 @@
         <v>43396</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -3008,7 +3028,7 @@
         <v>43397</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -3021,7 +3041,7 @@
         <v>43398</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -3034,7 +3054,7 @@
         <v>43399</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -3047,7 +3067,7 @@
         <v>43400</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
@@ -3060,7 +3080,7 @@
         <v>43401</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -3073,7 +3093,7 @@
         <v>43402</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -3086,7 +3106,7 @@
         <v>43403</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -3099,7 +3119,7 @@
         <v>43404</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -3144,25 +3164,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3170,7 +3190,7 @@
         <v>43405</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -3183,7 +3203,7 @@
         <v>43406</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -3196,7 +3216,7 @@
         <v>43407</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
@@ -3209,7 +3229,7 @@
         <v>43408</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -3222,7 +3242,7 @@
         <v>43409</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3235,7 +3255,7 @@
         <v>43410</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3248,7 +3268,7 @@
         <v>43411</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3261,7 +3281,7 @@
         <v>43412</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -3274,7 +3294,7 @@
         <v>43413</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3287,7 +3307,7 @@
         <v>43414</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -3300,7 +3320,7 @@
         <v>43415</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -3313,7 +3333,7 @@
         <v>43416</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -3326,7 +3346,7 @@
         <v>43417</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3339,7 +3359,7 @@
         <v>43418</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -3352,7 +3372,7 @@
         <v>43419</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -3365,7 +3385,7 @@
         <v>43420</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -3378,7 +3398,7 @@
         <v>43421</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
@@ -3391,7 +3411,7 @@
         <v>43422</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -3404,7 +3424,7 @@
         <v>43423</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -3417,7 +3437,7 @@
         <v>43424</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -3430,7 +3450,7 @@
         <v>43425</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -3443,7 +3463,7 @@
         <v>43426</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -3456,7 +3476,7 @@
         <v>43427</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -3469,7 +3489,7 @@
         <v>43428</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -3482,7 +3502,7 @@
         <v>43429</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -3495,7 +3515,7 @@
         <v>43430</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -3508,7 +3528,7 @@
         <v>43431</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -3521,7 +3541,7 @@
         <v>43432</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -3534,7 +3554,7 @@
         <v>43433</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -3547,7 +3567,7 @@
         <v>43434</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -3592,25 +3612,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3618,7 +3638,7 @@
         <v>43435</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -3631,7 +3651,7 @@
         <v>43436</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -3644,7 +3664,7 @@
         <v>43437</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -3657,7 +3677,7 @@
         <v>43438</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -3670,7 +3690,7 @@
         <v>43439</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3683,7 +3703,7 @@
         <v>43440</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -3696,7 +3716,7 @@
         <v>43441</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -3709,7 +3729,7 @@
         <v>43442</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -3722,7 +3742,7 @@
         <v>43443</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -3735,7 +3755,7 @@
         <v>43444</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3748,7 +3768,7 @@
         <v>43445</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3761,7 +3781,7 @@
         <v>43446</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -3774,7 +3794,7 @@
         <v>43447</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -3787,7 +3807,7 @@
         <v>43448</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -3800,7 +3820,7 @@
         <v>43449</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -3813,7 +3833,7 @@
         <v>43450</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -3826,7 +3846,7 @@
         <v>43451</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -3839,7 +3859,7 @@
         <v>43452</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -3852,7 +3872,7 @@
         <v>43453</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -3865,7 +3885,7 @@
         <v>43454</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -3878,7 +3898,7 @@
         <v>43455</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -3891,7 +3911,7 @@
         <v>43456</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -3904,7 +3924,7 @@
         <v>43457</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -3917,7 +3937,7 @@
         <v>43458</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -3930,7 +3950,7 @@
         <v>43459</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -3943,7 +3963,7 @@
         <v>43460</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -3956,7 +3976,7 @@
         <v>43461</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -3969,7 +3989,7 @@
         <v>43462</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -3982,7 +4002,7 @@
         <v>43463</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -3995,7 +4015,7 @@
         <v>43464</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -4008,7 +4028,7 @@
         <v>43465</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -4053,10 +4073,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -4065,7 +4085,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -4101,12 +4121,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -4137,10 +4157,10 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -4150,10 +4170,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -4184,10 +4204,10 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -4197,10 +4217,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -4231,10 +4251,10 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -4244,10 +4264,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -4278,10 +4298,10 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -4291,10 +4311,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -4325,10 +4345,10 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -4338,10 +4358,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="15"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -4372,10 +4392,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
@@ -4385,10 +4405,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4456,10 +4476,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -4468,7 +4488,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -4504,12 +4524,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -4540,10 +4560,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -4553,10 +4573,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -4587,10 +4607,10 @@
         <f ca="1"/>
         <v>43324</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -4600,10 +4620,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -4634,10 +4654,10 @@
         <f ca="1"/>
         <v>43331</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -4647,10 +4667,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -4681,10 +4701,10 @@
         <f ca="1"/>
         <v>43338</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -4694,10 +4714,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -4728,10 +4748,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -4741,10 +4761,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -4775,10 +4795,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
@@ -4788,10 +4808,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4859,10 +4879,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -4871,7 +4891,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -4907,12 +4927,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -4943,10 +4963,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -4956,10 +4976,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -4990,10 +5010,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -5003,10 +5023,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -5037,10 +5057,10 @@
         <f ca="1"/>
         <v>43359</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -5050,10 +5070,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -5084,10 +5104,10 @@
         <f ca="1"/>
         <v>43366</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -5097,10 +5117,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -5131,10 +5151,10 @@
         <f ca="1"/>
         <v>43373</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -5144,10 +5164,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -5178,10 +5198,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
@@ -5191,10 +5211,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5262,10 +5282,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -5274,7 +5294,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5310,12 +5330,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -5346,10 +5366,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -5359,10 +5379,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -5393,10 +5413,10 @@
         <f ca="1"/>
         <v>43387</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -5406,10 +5426,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -5440,10 +5460,10 @@
         <f ca="1"/>
         <v>43394</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -5453,10 +5473,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -5487,10 +5507,10 @@
         <f ca="1"/>
         <v>43401</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -5500,10 +5520,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -5534,10 +5554,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -5547,10 +5567,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -5581,10 +5601,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
@@ -5594,10 +5614,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5665,10 +5685,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -5677,7 +5697,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -5713,12 +5733,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -5749,10 +5769,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -5762,10 +5782,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -5796,10 +5816,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -5809,10 +5829,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -5843,10 +5863,10 @@
         <f ca="1"/>
         <v>43422</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -5856,10 +5876,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -5890,10 +5910,10 @@
         <f ca="1"/>
         <v>43429</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -5903,10 +5923,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -5937,10 +5957,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -5950,10 +5970,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -5984,10 +6004,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
@@ -5997,10 +6017,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6068,10 +6088,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -6080,7 +6100,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -6116,12 +6136,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -6152,10 +6172,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -6165,10 +6185,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -6199,10 +6219,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -6212,10 +6232,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -6246,10 +6266,10 @@
         <f ca="1"/>
         <v>43450</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -6259,10 +6279,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -6293,10 +6313,10 @@
         <f ca="1"/>
         <v>43457</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -6306,10 +6326,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -6340,10 +6360,10 @@
         <f ca="1"/>
         <v>43464</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -6353,10 +6373,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -6387,10 +6407,10 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
@@ -6400,10 +6420,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6467,7 +6487,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -6478,17 +6498,17 @@
     </row>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="12">
         <f ca="1">YEAR(TODAY())</f>
         <v>2018</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -6497,7 +6517,7 @@
         <v>2018</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="9"/>
@@ -6505,7 +6525,7 @@
     </row>
     <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -6836,16 +6856,16 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="10"/>
     </row>
     <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -7173,10 +7193,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7185,7 +7205,7 @@
     </row>
     <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -7299,7 +7319,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7377,7 +7397,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="16"/>
@@ -7517,10 +7537,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7529,7 +7549,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -7565,12 +7585,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -7601,10 +7621,10 @@
         <f ca="1"/>
         <v>43191</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
@@ -7614,10 +7634,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="16"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -7648,10 +7668,10 @@
         <f ca="1"/>
         <v>43198</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -7661,10 +7681,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -7695,10 +7715,10 @@
         <f ca="1"/>
         <v>43205</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -7708,10 +7728,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -7742,12 +7762,12 @@
         <f ca="1"/>
         <v>43212</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16"/>
@@ -7757,10 +7777,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -7791,12 +7811,12 @@
         <f ca="1"/>
         <v>43219</v>
       </c>
-      <c r="J12" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -7805,13 +7825,13 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -7842,14 +7862,14 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7857,10 +7877,10 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7928,10 +7948,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -7940,7 +7960,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -7976,12 +7996,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -8012,12 +8032,12 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -8027,10 +8047,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -8061,12 +8081,12 @@
         <f ca="1"/>
         <v>43233</v>
       </c>
-      <c r="J6" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -8076,10 +8096,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -8110,12 +8130,12 @@
         <f ca="1"/>
         <v>43240</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -8125,10 +8145,10 @@
       <c r="F9" s="16"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -8159,12 +8179,12 @@
         <f ca="1"/>
         <v>43247</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16"/>
@@ -8174,10 +8194,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="16"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -8208,12 +8228,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J12" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -8223,10 +8243,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -8315,7 +8335,7 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:M13"/>
     </sheetView>
   </sheetViews>
@@ -8332,10 +8352,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -8344,7 +8364,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -8380,12 +8400,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
@@ -8416,12 +8436,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J4" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
@@ -8431,10 +8451,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
@@ -8465,12 +8485,12 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-      <c r="J6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="41"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
@@ -8480,10 +8500,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="44"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
@@ -8514,12 +8534,12 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-      <c r="J8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="41"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
@@ -8529,10 +8549,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
@@ -8563,12 +8583,12 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-      <c r="J10" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
@@ -8578,10 +8598,10 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
@@ -8612,12 +8632,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J12" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
@@ -8627,10 +8647,10 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
@@ -8719,9 +8739,9 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8736,25 +8756,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8762,7 +8782,7 @@
         <v>43282</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -8775,10 +8795,10 @@
         <v>43283</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -8790,7 +8810,7 @@
         <v>43284</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -8803,7 +8823,7 @@
         <v>43285</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -8816,7 +8836,7 @@
         <v>43286</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -8829,7 +8849,7 @@
         <v>43287</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -8842,13 +8862,13 @@
         <v>43288</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="22"/>
     </row>
@@ -8857,16 +8877,18 @@
         <v>43289</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8874,12 +8896,14 @@
         <v>43290</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8887,25 +8911,31 @@
         <v>43291</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>43292</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8913,9 +8943,11 @@
         <v>43293</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -8926,7 +8958,7 @@
         <v>43294</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -8939,7 +8971,7 @@
         <v>43295</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -8952,7 +8984,7 @@
         <v>43296</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
@@ -8965,7 +8997,7 @@
         <v>43297</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -8978,7 +9010,7 @@
         <v>43298</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -8991,7 +9023,7 @@
         <v>43299</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -9004,7 +9036,7 @@
         <v>43300</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -9017,7 +9049,7 @@
         <v>43301</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -9030,7 +9062,7 @@
         <v>43302</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
@@ -9043,7 +9075,7 @@
         <v>43303</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
@@ -9056,7 +9088,7 @@
         <v>43304</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -9069,7 +9101,7 @@
         <v>43305</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -9082,7 +9114,7 @@
         <v>43306</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -9095,7 +9127,7 @@
         <v>43307</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -9108,7 +9140,7 @@
         <v>43308</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -9121,7 +9153,7 @@
         <v>43309</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -9134,7 +9166,7 @@
         <v>43310</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
@@ -9147,7 +9179,7 @@
         <v>43311</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -9160,7 +9192,7 @@
         <v>43312</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -9190,7 +9222,7 @@
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9205,25 +9237,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9231,7 +9263,7 @@
         <v>43313</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -9244,7 +9276,7 @@
         <v>43314</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -9257,7 +9289,7 @@
         <v>43315</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -9270,7 +9302,7 @@
         <v>43316</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -9283,7 +9315,7 @@
         <v>43317</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -9296,7 +9328,7 @@
         <v>43318</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -9309,7 +9341,7 @@
         <v>43319</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -9322,7 +9354,7 @@
         <v>43320</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -9335,7 +9367,7 @@
         <v>43321</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -9348,7 +9380,7 @@
         <v>43322</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -9361,7 +9393,7 @@
         <v>43323</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
@@ -9374,7 +9406,7 @@
         <v>43324</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
@@ -9387,7 +9419,7 @@
         <v>43325</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -9400,7 +9432,7 @@
         <v>43326</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -9413,7 +9445,7 @@
         <v>43327</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -9426,7 +9458,7 @@
         <v>43328</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -9439,7 +9471,7 @@
         <v>43329</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -9452,7 +9484,7 @@
         <v>43330</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
@@ -9465,7 +9497,7 @@
         <v>43331</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -9478,7 +9510,7 @@
         <v>43332</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
@@ -9491,7 +9523,7 @@
         <v>43333</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
@@ -9504,7 +9536,7 @@
         <v>43334</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -9517,7 +9549,7 @@
         <v>43335</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -9530,7 +9562,7 @@
         <v>43336</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -9543,7 +9575,7 @@
         <v>43337</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -9556,7 +9588,7 @@
         <v>43338</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -9569,7 +9601,7 @@
         <v>43339</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -9582,7 +9614,7 @@
         <v>43340</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -9595,7 +9627,7 @@
         <v>43341</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -9608,7 +9640,7 @@
         <v>43342</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -9621,7 +9653,7 @@
         <v>43343</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD8948-DEE9-4475-9C29-38CA1B409618}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="848" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <definedName name="星期日期和周">{0,1,2,3,4,5,6} + {0;1;2;3;4;5}*7</definedName>
     <definedName name="周开始日期">'1月'!$E$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="121">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,13 +472,21 @@
   </si>
   <si>
     <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机配环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sogou，Chrome，virtualenv、virtualenvwrapper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
@@ -1089,17 +1098,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="标题 1 2" xfId="4"/>
-    <cellStyle name="标题 2 2" xfId="7"/>
-    <cellStyle name="标题 3 2" xfId="3"/>
-    <cellStyle name="标题 5" xfId="5"/>
+    <cellStyle name="标题 1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="标题 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="标题 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="标题 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="解释性文本 2" xfId="10"/>
-    <cellStyle name="年" xfId="8"/>
-    <cellStyle name="日历详细信息" xfId="2"/>
-    <cellStyle name="条目字段" xfId="9"/>
+    <cellStyle name="解释性文本 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="年" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="日历详细信息" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="条目字段" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
@@ -1497,23 +1506,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="7" max="26" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="7" max="26" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1566,7 +1575,7 @@
       <c r="Y2" s="36"/>
       <c r="Z2" s="37"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1612,7 @@
       <c r="Y3" s="30"/>
       <c r="Z3" s="32"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1641,7 +1650,7 @@
       <c r="Y4" s="30"/>
       <c r="Z4" s="32"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>8</v>
       </c>
@@ -1666,7 +1675,7 @@
       <c r="Y5" s="30"/>
       <c r="Z5" s="32"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1713,7 @@
       <c r="Y6" s="30"/>
       <c r="Z6" s="32"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1750,7 @@
       <c r="Y7" s="30"/>
       <c r="Z7" s="32"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1769,7 +1778,7 @@
       <c r="Y8" s="30"/>
       <c r="Z8" s="32"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>6</v>
       </c>
@@ -1794,7 +1803,7 @@
       <c r="Y9" s="30"/>
       <c r="Z9" s="32"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G10" s="34"/>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -1816,7 +1825,7 @@
       <c r="Y10" s="30"/>
       <c r="Z10" s="32"/>
     </row>
-    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>5</v>
       </c>
@@ -1841,7 +1850,7 @@
       <c r="Y11" s="31"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G12" s="38"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -1863,7 +1872,7 @@
       <c r="Y12" s="36"/>
       <c r="Z12" s="37"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>4</v>
       </c>
@@ -1888,7 +1897,7 @@
       <c r="Y13" s="30"/>
       <c r="Z13" s="32"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G14" s="34"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
@@ -1910,7 +1919,7 @@
       <c r="Y14" s="30"/>
       <c r="Z14" s="32"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>3</v>
       </c>
@@ -1935,7 +1944,7 @@
       <c r="Y15" s="30"/>
       <c r="Z15" s="32"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G16" s="34"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
@@ -1957,7 +1966,7 @@
       <c r="Y16" s="30"/>
       <c r="Z16" s="32"/>
     </row>
-    <row r="17" spans="6:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>2</v>
       </c>
@@ -1982,7 +1991,7 @@
       <c r="Y17" s="30"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="6:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G18" s="34"/>
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
@@ -2004,7 +2013,7 @@
       <c r="Y18" s="30"/>
       <c r="Z18" s="32"/>
     </row>
-    <row r="19" spans="6:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>1</v>
       </c>
@@ -2029,7 +2038,7 @@
       <c r="Y19" s="30"/>
       <c r="Z19" s="32"/>
     </row>
-    <row r="20" spans="6:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G20" s="34"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -2051,7 +2060,7 @@
       <c r="Y20" s="30"/>
       <c r="Z20" s="32"/>
     </row>
-    <row r="21" spans="6:27" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:27" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F21">
         <v>0</v>
       </c>
@@ -2076,7 +2085,7 @@
       <c r="Y21" s="31"/>
       <c r="Z21" s="33"/>
     </row>
-    <row r="22" spans="6:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
       <c r="G22" s="2">
         <v>0</v>
@@ -2231,7 +2240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
@@ -2243,17 +2252,17 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>109</v>
       </c>
@@ -2276,7 +2285,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25">
         <v>43344</v>
       </c>
@@ -2289,7 +2298,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25">
         <v>43345</v>
       </c>
@@ -2302,7 +2311,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>43346</v>
       </c>
@@ -2315,7 +2324,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>43347</v>
       </c>
@@ -2328,7 +2337,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>43348</v>
       </c>
@@ -2341,7 +2350,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>43349</v>
       </c>
@@ -2354,7 +2363,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>43350</v>
       </c>
@@ -2367,7 +2376,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>43351</v>
       </c>
@@ -2380,7 +2389,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>43352</v>
       </c>
@@ -2393,7 +2402,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>43353</v>
       </c>
@@ -2406,7 +2415,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>43354</v>
       </c>
@@ -2419,7 +2428,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>43355</v>
       </c>
@@ -2432,7 +2441,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>43356</v>
       </c>
@@ -2445,7 +2454,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>43357</v>
       </c>
@@ -2458,7 +2467,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25">
         <v>43358</v>
       </c>
@@ -2471,7 +2480,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25">
         <v>43359</v>
       </c>
@@ -2484,7 +2493,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>43360</v>
       </c>
@@ -2497,7 +2506,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>43361</v>
       </c>
@@ -2510,7 +2519,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>43362</v>
       </c>
@@ -2523,7 +2532,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>43363</v>
       </c>
@@ -2536,7 +2545,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>43364</v>
       </c>
@@ -2549,7 +2558,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25">
         <v>43365</v>
       </c>
@@ -2562,7 +2571,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25">
         <v>43366</v>
       </c>
@@ -2575,7 +2584,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>43367</v>
       </c>
@@ -2588,7 +2597,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>43368</v>
       </c>
@@ -2601,7 +2610,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>43369</v>
       </c>
@@ -2614,7 +2623,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>43370</v>
       </c>
@@ -2627,7 +2636,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>43371</v>
       </c>
@@ -2640,7 +2649,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25">
         <v>43372</v>
       </c>
@@ -2653,7 +2662,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25">
         <v>43373</v>
       </c>
@@ -2669,7 +2678,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2679,7 +2688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -2691,17 +2700,17 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>104</v>
       </c>
@@ -2724,7 +2733,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>43374</v>
       </c>
@@ -2737,7 +2746,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>43375</v>
       </c>
@@ -2750,7 +2759,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>43376</v>
       </c>
@@ -2763,7 +2772,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>43377</v>
       </c>
@@ -2776,7 +2785,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>43378</v>
       </c>
@@ -2789,7 +2798,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="25">
         <v>43379</v>
       </c>
@@ -2802,7 +2811,7 @@
       <c r="F7" s="23"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>43380</v>
       </c>
@@ -2815,7 +2824,7 @@
       <c r="F8" s="23"/>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>43381</v>
       </c>
@@ -2828,7 +2837,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>43382</v>
       </c>
@@ -2841,7 +2850,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>43383</v>
       </c>
@@ -2854,7 +2863,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>43384</v>
       </c>
@@ -2867,7 +2876,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>43385</v>
       </c>
@@ -2880,7 +2889,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25">
         <v>43386</v>
       </c>
@@ -2893,7 +2902,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25">
         <v>43387</v>
       </c>
@@ -2906,7 +2915,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>43388</v>
       </c>
@@ -2919,7 +2928,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>43389</v>
       </c>
@@ -2932,7 +2941,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>43390</v>
       </c>
@@ -2945,7 +2954,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>43391</v>
       </c>
@@ -2958,7 +2967,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>43392</v>
       </c>
@@ -2971,7 +2980,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25">
         <v>43393</v>
       </c>
@@ -2984,7 +2993,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25">
         <v>43394</v>
       </c>
@@ -2997,7 +3006,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>43395</v>
       </c>
@@ -3010,7 +3019,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>43396</v>
       </c>
@@ -3023,7 +3032,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>43397</v>
       </c>
@@ -3036,7 +3045,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>43398</v>
       </c>
@@ -3049,7 +3058,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>43399</v>
       </c>
@@ -3062,7 +3071,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25">
         <v>43400</v>
       </c>
@@ -3075,7 +3084,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="22"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25">
         <v>43401</v>
       </c>
@@ -3088,7 +3097,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>43402</v>
       </c>
@@ -3101,7 +3110,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
         <v>43403</v>
       </c>
@@ -3114,7 +3123,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>43404</v>
       </c>
@@ -3130,7 +3139,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3140,7 +3149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
   </sheetPr>
@@ -3152,17 +3161,17 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>96</v>
       </c>
@@ -3185,7 +3194,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>43405</v>
       </c>
@@ -3198,7 +3207,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>43406</v>
       </c>
@@ -3211,7 +3220,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="25">
         <v>43407</v>
       </c>
@@ -3224,7 +3233,7 @@
       <c r="F4" s="23"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25">
         <v>43408</v>
       </c>
@@ -3237,7 +3246,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>43409</v>
       </c>
@@ -3250,7 +3259,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>43410</v>
       </c>
@@ -3263,7 +3272,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>43411</v>
       </c>
@@ -3276,7 +3285,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>43412</v>
       </c>
@@ -3289,7 +3298,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>43413</v>
       </c>
@@ -3302,7 +3311,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25">
         <v>43414</v>
       </c>
@@ -3315,7 +3324,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25">
         <v>43415</v>
       </c>
@@ -3328,7 +3337,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>43416</v>
       </c>
@@ -3341,7 +3350,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>43417</v>
       </c>
@@ -3354,7 +3363,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>43418</v>
       </c>
@@ -3367,7 +3376,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>43419</v>
       </c>
@@ -3380,7 +3389,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>43420</v>
       </c>
@@ -3393,7 +3402,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25">
         <v>43421</v>
       </c>
@@ -3406,7 +3415,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25">
         <v>43422</v>
       </c>
@@ -3419,7 +3428,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>43423</v>
       </c>
@@ -3432,7 +3441,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>43424</v>
       </c>
@@ -3445,7 +3454,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>43425</v>
       </c>
@@ -3458,7 +3467,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>43426</v>
       </c>
@@ -3471,7 +3480,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>43427</v>
       </c>
@@ -3484,7 +3493,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25">
         <v>43428</v>
       </c>
@@ -3497,7 +3506,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25">
         <v>43429</v>
       </c>
@@ -3510,7 +3519,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>43430</v>
       </c>
@@ -3523,7 +3532,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>43431</v>
       </c>
@@ -3536,7 +3545,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>43432</v>
       </c>
@@ -3549,7 +3558,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>43433</v>
       </c>
@@ -3562,7 +3571,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
         <v>43434</v>
       </c>
@@ -3578,7 +3587,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F31" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3588,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -3600,17 +3609,17 @@
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>104</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25">
         <v>43435</v>
       </c>
@@ -3646,7 +3655,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25">
         <v>43436</v>
       </c>
@@ -3659,7 +3668,7 @@
       <c r="F3" s="23"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>43437</v>
       </c>
@@ -3672,7 +3681,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>43438</v>
       </c>
@@ -3685,7 +3694,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>43439</v>
       </c>
@@ -3698,7 +3707,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>43440</v>
       </c>
@@ -3711,7 +3720,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>43441</v>
       </c>
@@ -3724,7 +3733,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>43442</v>
       </c>
@@ -3737,7 +3746,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="25">
         <v>43443</v>
       </c>
@@ -3750,7 +3759,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>43444</v>
       </c>
@@ -3763,7 +3772,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>43445</v>
       </c>
@@ -3776,7 +3785,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>43446</v>
       </c>
@@ -3789,7 +3798,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>43447</v>
       </c>
@@ -3802,7 +3811,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>43448</v>
       </c>
@@ -3815,7 +3824,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25">
         <v>43449</v>
       </c>
@@ -3828,7 +3837,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25">
         <v>43450</v>
       </c>
@@ -3841,7 +3850,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>43451</v>
       </c>
@@ -3854,7 +3863,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>43452</v>
       </c>
@@ -3867,7 +3876,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>43453</v>
       </c>
@@ -3880,7 +3889,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>43454</v>
       </c>
@@ -3893,7 +3902,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>43455</v>
       </c>
@@ -3906,7 +3915,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25">
         <v>43456</v>
       </c>
@@ -3919,7 +3928,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25">
         <v>43457</v>
       </c>
@@ -3932,7 +3941,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>43458</v>
       </c>
@@ -3945,7 +3954,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>43459</v>
       </c>
@@ -3958,7 +3967,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>43460</v>
       </c>
@@ -3971,7 +3980,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>43461</v>
       </c>
@@ -3984,7 +3993,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>43462</v>
       </c>
@@ -3997,7 +4006,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25">
         <v>43463</v>
       </c>
@@ -4010,7 +4019,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25">
         <v>43464</v>
       </c>
@@ -4023,7 +4032,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>43465</v>
       </c>
@@ -4039,7 +4048,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4049,7 +4058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4060,14 +4069,14 @@
       <selection activeCell="J6" sqref="J6:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -4083,7 +4092,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
@@ -4092,7 +4101,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -4128,7 +4137,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+1</f>
         <v>43276</v>
@@ -4162,7 +4171,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4175,7 +4184,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+8</f>
         <v>43283</v>
@@ -4209,7 +4218,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4222,7 +4231,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+15</f>
         <v>43290</v>
@@ -4256,7 +4265,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4269,7 +4278,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+22</f>
         <v>43297</v>
@@ -4303,7 +4312,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4316,7 +4325,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+29</f>
         <v>43304</v>
@@ -4350,7 +4359,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4363,7 +4372,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,7,1)-WEEKDAY(DATE(CalendarYear,7,1),(周开始日期="一")+1)+36</f>
         <v>43311</v>
@@ -4397,7 +4406,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4432,18 +4441,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的七月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0D00-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0D00-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的七月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0D00-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0D00-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0D00-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0D00-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0D00-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0D00-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="八月!A1" tooltip="转到下月的导航链接" display="八月 -&gt;"/>
-    <hyperlink ref="C1" location="六月!A1" tooltip="转到上月的导航链接" display="&lt;- 六月"/>
+    <hyperlink ref="D1" location="八月!A1" tooltip="转到下月的导航链接" display="八月 -&gt;" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="C1" location="六月!A1" tooltip="转到上月的导航链接" display="&lt;- 六月" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4452,7 +4461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4463,14 +4472,14 @@
       <selection activeCell="J3" sqref="J3:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -4486,7 +4495,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>45</v>
       </c>
@@ -4495,7 +4504,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -4531,7 +4540,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+1</f>
         <v>43311</v>
@@ -4565,7 +4574,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4578,7 +4587,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+8</f>
         <v>43318</v>
@@ -4612,7 +4621,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -4625,7 +4634,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+15</f>
         <v>43325</v>
@@ -4659,7 +4668,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -4672,7 +4681,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+22</f>
         <v>43332</v>
@@ -4706,7 +4715,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4719,7 +4728,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+29</f>
         <v>43339</v>
@@ -4753,7 +4762,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4766,7 +4775,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,8,1)-WEEKDAY(DATE(CalendarYear,8,1),(周开始日期="一")+1)+36</f>
         <v>43346</v>
@@ -4800,7 +4809,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4835,18 +4844,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的八月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0E00-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0E00-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的八月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0E00-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0E00-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0E00-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0E00-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0E00-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0E00-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="九月!A1" tooltip="转到下月的导航链接" display="九月 -&gt;"/>
-    <hyperlink ref="C1" location="七月!A1" tooltip="转到上月的导航链接" display="&lt;- 七月"/>
+    <hyperlink ref="D1" location="九月!A1" tooltip="转到下月的导航链接" display="九月 -&gt;" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="C1" location="七月!A1" tooltip="转到上月的导航链接" display="&lt;- 七月" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4855,7 +4864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4866,14 +4875,14 @@
       <selection activeCell="J3" sqref="J3:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -4889,7 +4898,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>48</v>
       </c>
@@ -4898,7 +4907,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -4934,7 +4943,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+1</f>
         <v>43339</v>
@@ -4968,7 +4977,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4981,7 +4990,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+8</f>
         <v>43346</v>
@@ -5015,7 +5024,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5028,7 +5037,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+15</f>
         <v>43353</v>
@@ -5062,7 +5071,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5075,7 +5084,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+22</f>
         <v>43360</v>
@@ -5109,7 +5118,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5122,7 +5131,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+29</f>
         <v>43367</v>
@@ -5156,7 +5165,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5169,7 +5178,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,9,1)-WEEKDAY(DATE(CalendarYear,9,1),(周开始日期="一")+1)+36</f>
         <v>43374</v>
@@ -5203,7 +5212,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5238,18 +5247,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的九月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0F00-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0F00-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的九月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0F00-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0F00-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0F00-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0F00-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0F00-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0F00-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="十月!A1" tooltip="转到下月的导航链接" display="十月 -&gt;"/>
-    <hyperlink ref="C1" location="八月!A1" tooltip="转到上月的导航链接" display="&lt;- 八月"/>
+    <hyperlink ref="D1" location="十月!A1" tooltip="转到下月的导航链接" display="十月 -&gt;" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="C1" location="八月!A1" tooltip="转到上月的导航链接" display="&lt;- 八月" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5258,7 +5267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5269,14 +5278,14 @@
       <selection activeCell="J3" sqref="J3:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -5292,7 +5301,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>51</v>
       </c>
@@ -5301,7 +5310,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -5337,7 +5346,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+1</f>
         <v>43374</v>
@@ -5371,7 +5380,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5384,7 +5393,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+8</f>
         <v>43381</v>
@@ -5418,7 +5427,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5431,7 +5440,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+15</f>
         <v>43388</v>
@@ -5465,7 +5474,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5478,7 +5487,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+22</f>
         <v>43395</v>
@@ -5512,7 +5521,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5525,7 +5534,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+29</f>
         <v>43402</v>
@@ -5559,7 +5568,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5572,7 +5581,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,10,1)-WEEKDAY(DATE(CalendarYear,10,1),(周开始日期="一")+1)+36</f>
         <v>43409</v>
@@ -5606,7 +5615,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -5641,18 +5650,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的十月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-1000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-1000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的十月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-1000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-1000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-1000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-1000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-1000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-1000-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="十一月!A1" tooltip="转到下月的导航链接" display="十一月 -&gt;"/>
-    <hyperlink ref="C1" location="九月!A1" tooltip="转到上月的导航链接" display="&lt;- 九月"/>
+    <hyperlink ref="D1" location="十一月!A1" tooltip="转到下月的导航链接" display="十一月 -&gt;" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="C1" location="九月!A1" tooltip="转到上月的导航链接" display="&lt;- 九月" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5661,7 +5670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5672,14 +5681,14 @@
       <selection activeCell="J3" sqref="J3:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -5695,7 +5704,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
@@ -5704,7 +5713,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -5740,7 +5749,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+1</f>
         <v>43402</v>
@@ -5774,7 +5783,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5787,7 +5796,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+8</f>
         <v>43409</v>
@@ -5821,7 +5830,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -5834,7 +5843,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+15</f>
         <v>43416</v>
@@ -5868,7 +5877,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -5881,7 +5890,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+22</f>
         <v>43423</v>
@@ -5915,7 +5924,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -5928,7 +5937,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+29</f>
         <v>43430</v>
@@ -5962,7 +5971,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -5975,7 +5984,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,11,1)-WEEKDAY(DATE(CalendarYear,11,1),(周开始日期="一")+1)+36</f>
         <v>43437</v>
@@ -6009,7 +6018,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6044,18 +6053,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的十一月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的十一月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-1100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-1100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-1100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-1100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-1100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-1100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-1100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-1100-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="十二月!A1" tooltip="转到下月的导航链接" display="十二月 -&gt;"/>
-    <hyperlink ref="C1" location="十月!A1" tooltip="转到上月的导航链接" display="&lt;- 十月"/>
+    <hyperlink ref="D1" location="十二月!A1" tooltip="转到下月的导航链接" display="十二月 -&gt;" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="C1" location="十月!A1" tooltip="转到上月的导航链接" display="&lt;- 十月" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6064,7 +6073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6075,14 +6084,14 @@
       <selection activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -6098,7 +6107,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>57</v>
       </c>
@@ -6107,7 +6116,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -6143,7 +6152,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+1</f>
         <v>43430</v>
@@ -6177,7 +6186,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6190,7 +6199,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+8</f>
         <v>43437</v>
@@ -6224,7 +6233,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6237,7 +6246,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+15</f>
         <v>43444</v>
@@ -6271,7 +6280,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6284,7 +6293,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+22</f>
         <v>43451</v>
@@ -6318,7 +6327,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6331,7 +6340,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+29</f>
         <v>43458</v>
@@ -6365,7 +6374,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6378,7 +6387,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,12,1)-WEEKDAY(DATE(CalendarYear,12,1),(周开始日期="一")+1)+36</f>
         <v>43465</v>
@@ -6412,7 +6421,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="41"/>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6447,18 +6456,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的十二月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="返回“一月”工作表的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的十二月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-1200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="返回“一月”工作表的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-1200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-1200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-1200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-1200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-1200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-1200-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-1200-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C1" location="十一月!A1" tooltip="转到上月的导航链接" display="&lt;- 十一月"/>
-    <hyperlink ref="D1" location="一月!A1" tooltip="返回一月的导航链接" display="一月 -&gt;"/>
+    <hyperlink ref="C1" location="十一月!A1" tooltip="转到上月的导航链接" display="&lt;- 十一月" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="D1" location="一月!A1" tooltip="返回一月的导航链接" display="一月 -&gt;" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6467,7 +6476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6478,14 +6487,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>26</v>
       </c>
@@ -6496,7 +6505,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>25</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B3" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -6523,7 +6532,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
@@ -6532,7 +6541,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -6562,7 +6571,7 @@
         <v>日</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(周开始日期="一")+1)+1</f>
         <v>43101</v>
@@ -6592,7 +6601,7 @@
         <v>43107</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6601,7 +6610,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(周开始日期="一")+1)+8</f>
         <v>43108</v>
@@ -6631,7 +6640,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -6640,7 +6649,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(周开始日期="一")+1)+15</f>
         <v>43115</v>
@@ -6670,7 +6679,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -6679,7 +6688,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(周开始日期="一")+1)+22</f>
         <v>43122</v>
@@ -6709,7 +6718,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -6718,7 +6727,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(周开始日期="一")+1)+29</f>
         <v>43129</v>
@@ -6748,7 +6757,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -6757,7 +6766,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <f t="array" aca="1" ref="B16:H16" ca="1">星期日期和周+DATE(CalendarYear,1,1)-WEEKDAY(DATE(CalendarYear,1,1),(周开始日期="一")+1)+36</f>
         <v>43136</v>
@@ -6787,7 +6796,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -6810,20 +6819,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 7、9、11、13、15 和 17 行中输入每日备注" sqref="B7"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 6、8、10、12、14 和 16 行包括月份日期，含上月和下月日期（如适用）" sqref="B6"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="含显示一年中每个月的工作表的 12 个月日历工作簿。在 C2 中键入日历年，并在 E2 中选择一周的开始日期。使用 D3 中的导航链接导航到下个月" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在 C2 中输入的年份自动确定" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C5:H5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在 E2 单元格中选择一周的新开始日期" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="输入此日历的年份" sqref="C2"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日历不能使用此值。" error="从列表的条目中选择一天。选择“取消”，然后按 ALT+向下箭头键从下拉列表中选择" prompt="从下拉列表中选择一周的开始日期。按 Alt+向下箭头键打开下拉列表，然后按 Enter 选择其中一项" sqref="E2">
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 7、9、11、13、15 和 17 行中输入每日备注" sqref="B7" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 6、8、10、12、14 和 16 行包括月份日期，含上月和下月日期（如适用）" sqref="B6" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="含显示一年中每个月的工作表的 12 个月日历工作簿。在 C2 中键入日历年，并在 E2 中选择一周的开始日期。使用 D3 中的导航链接导航到下个月" sqref="A1" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D3" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在 C2 中输入的年份自动确定" sqref="B3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C5:H5" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在 E2 单元格中选择一周的新开始日期" sqref="B5" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="输入此日历的年份" sqref="C2" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="日历不能使用此值。" error="从列表的条目中选择一天。选择“取消”，然后按 ALT+向下箭头键从下拉列表中选择" prompt="从下拉列表中选择一周的开始日期。按 Alt+向下箭头键打开下拉列表，然后按 Enter 选择其中一项" sqref="E2" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"一,日"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D3" location="二月!A1" tooltip="转到下月的导航链接" display="二月 -&gt;"/>
+    <hyperlink ref="D3" location="二月!A1" tooltip="转到下月的导航链接" display="二月 -&gt;" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
@@ -6832,7 +6841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6843,14 +6852,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -6863,7 +6872,7 @@
       </c>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
@@ -6872,7 +6881,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -6902,7 +6911,7 @@
         <v>日</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(周开始日期="一")+1)+1</f>
         <v>43129</v>
@@ -6932,7 +6941,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6941,7 +6950,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(周开始日期="一")+1)+8</f>
         <v>43136</v>
@@ -6971,7 +6980,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -6980,7 +6989,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(周开始日期="一")+1)+15</f>
         <v>43143</v>
@@ -7010,7 +7019,7 @@
         <v>43149</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7019,7 +7028,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(周开始日期="一")+1)+22</f>
         <v>43150</v>
@@ -7049,7 +7058,7 @@
         <v>43156</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -7058,7 +7067,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(周开始日期="一")+1)+29</f>
         <v>43157</v>
@@ -7088,7 +7097,7 @@
         <v>43163</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7097,7 +7106,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,2,1)-WEEKDAY(DATE(CalendarYear,2,1),(周开始日期="一")+1)+36</f>
         <v>43164</v>
@@ -7127,7 +7136,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7149,18 +7158,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对此工作表中的二月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对此工作表中的二月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0200-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0200-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0200-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0200-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="三月!A1" tooltip="转到下月的导航链接" display="三月 -&gt;"/>
-    <hyperlink ref="C1" location="一月!A1" tooltip="转到上月的导航链接" display="&lt;- 一月"/>
+    <hyperlink ref="D1" location="三月!A1" tooltip="转到下月的导航链接" display="三月 -&gt;" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C1" location="一月!A1" tooltip="转到上月的导航链接" display="&lt;- 一月" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7169,7 +7178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7180,14 +7189,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -7203,7 +7212,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
@@ -7212,7 +7221,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -7242,7 +7251,7 @@
         <v>日</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(周开始日期="一")+1)+1</f>
         <v>43157</v>
@@ -7272,7 +7281,7 @@
         <v>43163</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7281,7 +7290,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(周开始日期="一")+1)+8</f>
         <v>43164</v>
@@ -7311,7 +7320,7 @@
         <v>43170</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -7322,7 +7331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(周开始日期="一")+1)+15</f>
         <v>43171</v>
@@ -7352,7 +7361,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -7361,7 +7370,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(周开始日期="一")+1)+22</f>
         <v>43178</v>
@@ -7391,7 +7400,7 @@
         <v>43184</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4"/>
@@ -7402,7 +7411,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(周开始日期="一")+1)+29</f>
         <v>43185</v>
@@ -7432,7 +7441,7 @@
         <v>43191</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -7441,7 +7450,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,3,1)-WEEKDAY(DATE(CalendarYear,3,1),(周开始日期="一")+1)+36</f>
         <v>43192</v>
@@ -7471,7 +7480,7 @@
         <v>43198</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -7493,18 +7502,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对此工作表中的三月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对此工作表中的三月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0300-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0300-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0300-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0300-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0300-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="四月!A1" tooltip="转到下月的导航链接" display="四月 -&gt;"/>
-    <hyperlink ref="C1" location="二月!A1" tooltip="转到上月的导航链接" display="&lt;- 二月"/>
+    <hyperlink ref="D1" location="四月!A1" tooltip="转到下月的导航链接" display="四月 -&gt;" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C1" location="二月!A1" tooltip="转到上月的导航链接" display="&lt;- 二月" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7513,7 +7522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7524,14 +7533,14 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -7547,7 +7556,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
@@ -7556,7 +7565,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -7592,7 +7601,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(周开始日期="一")+1)+1</f>
         <v>43185</v>
@@ -7626,7 +7635,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -7639,7 +7648,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(周开始日期="一")+1)+8</f>
         <v>43192</v>
@@ -7673,7 +7682,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="16"/>
       <c r="D7" s="4"/>
@@ -7686,7 +7695,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(周开始日期="一")+1)+15</f>
         <v>43199</v>
@@ -7720,7 +7729,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7733,7 +7742,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(周开始日期="一")+1)+22</f>
         <v>43206</v>
@@ -7769,7 +7778,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
       <c r="C11" s="4"/>
       <c r="D11" s="16"/>
@@ -7782,7 +7791,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(周开始日期="一")+1)+29</f>
         <v>43213</v>
@@ -7818,7 +7827,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -7833,7 +7842,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,4,1)-WEEKDAY(DATE(CalendarYear,4,1),(周开始日期="一")+1)+36</f>
         <v>43220</v>
@@ -7867,7 +7876,7 @@
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>65</v>
       </c>
@@ -7904,18 +7913,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对此工作表中的四月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="对此工作表中的四月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0400-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0400-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0400-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0400-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0400-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0400-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="五月!A1" tooltip="转到下月的导航链接" display="五月 -&gt;"/>
-    <hyperlink ref="C1" location="三月!A1" tooltip="转到上月的导航链接" display="&lt;- 三月"/>
+    <hyperlink ref="D1" location="五月!A1" tooltip="转到下月的导航链接" display="五月 -&gt;" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C1" location="三月!A1" tooltip="转到上月的导航链接" display="&lt;- 三月" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7924,7 +7933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7935,14 +7944,14 @@
       <selection activeCell="J4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -7958,7 +7967,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
@@ -7967,7 +7976,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -8003,7 +8012,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(周开始日期="一")+1)+1</f>
         <v>43220</v>
@@ -8039,7 +8048,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8052,7 +8061,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(周开始日期="一")+1)+8</f>
         <v>43227</v>
@@ -8088,7 +8097,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8101,7 +8110,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(周开始日期="一")+1)+15</f>
         <v>43234</v>
@@ -8137,7 +8146,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="16"/>
@@ -8150,7 +8159,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(周开始日期="一")+1)+22</f>
         <v>43241</v>
@@ -8186,7 +8195,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16"/>
       <c r="C11" s="4"/>
       <c r="D11" s="16"/>
@@ -8199,7 +8208,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(周开始日期="一")+1)+29</f>
         <v>43248</v>
@@ -8235,7 +8244,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -8248,7 +8257,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,5,1)-WEEKDAY(DATE(CalendarYear,5,1),(周开始日期="一")+1)+36</f>
         <v>43255</v>
@@ -8278,7 +8287,7 @@
         <v>43261</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -8308,18 +8317,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的五月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0500-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的五月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0500-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0500-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0500-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0500-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0500-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0500-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="六月!A1" tooltip="转到下月的导航链接" display="六月 -&gt;"/>
-    <hyperlink ref="C1" location="四月!A1" tooltip="转到上月的导航链接" display="&lt;- 四月"/>
+    <hyperlink ref="D1" location="六月!A1" tooltip="转到下月的导航链接" display="六月 -&gt;" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C1" location="四月!A1" tooltip="转到上月的导航链接" display="&lt;- 四月" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8328,7 +8337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
@@ -8339,14 +8348,14 @@
       <selection activeCell="J12" sqref="J12:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
     <col min="2" max="8" width="15.5" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B1" s="11">
         <f ca="1">CalendarYear</f>
         <v>2018</v>
@@ -8362,7 +8371,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="9"/>
     </row>
-    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
@@ -8371,7 +8380,7 @@
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="str">
         <f>周开始日期</f>
         <v>一</v>
@@ -8407,7 +8416,7 @@
       <c r="L3" s="47"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="14">
         <f t="array" aca="1" ref="B4:H4" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+1</f>
         <v>43248</v>
@@ -8443,7 +8452,7 @@
       <c r="L4" s="40"/>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8456,7 +8465,7 @@
       <c r="L5" s="43"/>
       <c r="M5" s="44"/>
     </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="14">
         <f t="array" aca="1" ref="B6:H6" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+8</f>
         <v>43255</v>
@@ -8492,7 +8501,7 @@
       <c r="L6" s="40"/>
       <c r="M6" s="41"/>
     </row>
-    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8505,7 +8514,7 @@
       <c r="L7" s="43"/>
       <c r="M7" s="44"/>
     </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="14">
         <f t="array" aca="1" ref="B8:H8" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+15</f>
         <v>43262</v>
@@ -8541,7 +8550,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="41"/>
     </row>
-    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -8554,7 +8563,7 @@
       <c r="L9" s="43"/>
       <c r="M9" s="44"/>
     </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="14">
         <f t="array" aca="1" ref="B10:H10" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+22</f>
         <v>43269</v>
@@ -8590,7 +8599,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="41"/>
     </row>
-    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -8603,7 +8612,7 @@
       <c r="L11" s="43"/>
       <c r="M11" s="44"/>
     </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="14">
         <f t="array" aca="1" ref="B12:H12" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+29</f>
         <v>43276</v>
@@ -8639,7 +8648,7 @@
       <c r="L12" s="40"/>
       <c r="M12" s="41"/>
     </row>
-    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -8652,7 +8661,7 @@
       <c r="L13" s="43"/>
       <c r="M13" s="44"/>
     </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="14">
         <f t="array" aca="1" ref="B14:H14" ca="1">星期日期和周+DATE(CalendarYear,6,1)-WEEKDAY(DATE(CalendarYear,6,1),(周开始日期="一")+1)+36</f>
         <v>43283</v>
@@ -8682,7 +8691,7 @@
         <v>43289</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -8712,18 +8721,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的六月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="对此工作表中的六月进行规划。转到上月和下月的导航链接分别位于 C1 和 D1 " sqref="A1" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到下月的导航链接" sqref="D1" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="转到上月的导航链接" sqref="C1" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="在列 B 到列 H 的第 5、7、9、11、13 和 15 行中输入每日备注" sqref="B5" xr:uid="{00000000-0002-0000-0600-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="第 4、6、8、10、12 和 14 行包括月份日期，含上月和下月日期（如适用）" sqref="B4" xr:uid="{00000000-0002-0000-0600-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="日历年由在“一月”工作表的 C2 中设置的年份自动确定" sqref="B1" xr:uid="{00000000-0002-0000-0600-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定一周的开始日期。若要更改工作日，请在“一月”工作表的 E2 中选择一周的新开始日期" sqref="B3" xr:uid="{00000000-0002-0000-0600-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="自动确定工作日" sqref="C3:H3" xr:uid="{00000000-0002-0000-0600-000007000000}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" location="七月!A1" tooltip="转到下月的导航链接" display="七月 -&gt;"/>
-    <hyperlink ref="C1" location="五月!A1" tooltip="转到上月的导航链接" display="&lt;- 五月"/>
+    <hyperlink ref="D1" location="七月!A1" tooltip="转到下月的导航链接" display="七月 -&gt;" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C1" location="五月!A1" tooltip="转到上月的导航链接" display="&lt;- 五月" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8732,29 +8741,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>97</v>
       </c>
@@ -8777,7 +8786,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25">
         <v>43282</v>
       </c>
@@ -8790,7 +8799,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>43283</v>
       </c>
@@ -8805,7 +8814,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>43284</v>
       </c>
@@ -8818,7 +8827,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>43285</v>
       </c>
@@ -8831,7 +8840,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>43286</v>
       </c>
@@ -8844,7 +8853,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>43287</v>
       </c>
@@ -8857,7 +8866,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25">
         <v>43288</v>
       </c>
@@ -8872,7 +8881,7 @@
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="25">
         <v>43289</v>
       </c>
@@ -8891,7 +8900,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>43290</v>
       </c>
@@ -8906,7 +8915,7 @@
       </c>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>43291</v>
       </c>
@@ -8921,7 +8930,7 @@
       </c>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>43292</v>
       </c>
@@ -8938,7 +8947,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>43293</v>
       </c>
@@ -8953,7 +8962,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>43294</v>
       </c>
@@ -8966,7 +8975,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25">
         <v>43295</v>
       </c>
@@ -8979,7 +8988,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25">
         <v>43296</v>
       </c>
@@ -8992,7 +9001,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>43297</v>
       </c>
@@ -9002,23 +9011,31 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>43298</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>43299</v>
       </c>
@@ -9031,7 +9048,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>43300</v>
       </c>
@@ -9044,7 +9061,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>43301</v>
       </c>
@@ -9057,7 +9074,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25">
         <v>43302</v>
       </c>
@@ -9070,7 +9087,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25">
         <v>43303</v>
       </c>
@@ -9083,7 +9100,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>43304</v>
       </c>
@@ -9096,7 +9113,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>43305</v>
       </c>
@@ -9109,7 +9126,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
         <v>43306</v>
       </c>
@@ -9122,7 +9139,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
         <v>43307</v>
       </c>
@@ -9135,7 +9152,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>43308</v>
       </c>
@@ -9148,7 +9165,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="25">
         <v>43309</v>
       </c>
@@ -9161,7 +9178,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="21" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25">
         <v>43310</v>
       </c>
@@ -9174,7 +9191,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
         <v>43311</v>
       </c>
@@ -9187,7 +9204,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>43312</v>
       </c>
@@ -9203,7 +9220,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9213,7 +9230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
@@ -9225,17 +9242,17 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
         <v>104</v>
       </c>
@@ -9258,7 +9275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20">
         <v>43313</v>
       </c>
@@ -9271,7 +9288,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20">
         <v>43314</v>
       </c>
@@ -9284,7 +9301,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20">
         <v>43315</v>
       </c>
@@ -9297,7 +9314,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25">
         <v>43316</v>
       </c>
@@ -9310,7 +9327,7 @@
       <c r="F5" s="23"/>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="25">
         <v>43317</v>
       </c>
@@ -9323,7 +9340,7 @@
       <c r="F6" s="23"/>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>43318</v>
       </c>
@@ -9336,7 +9353,7 @@
       <c r="F7" s="18"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>43319</v>
       </c>
@@ -9349,7 +9366,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>43320</v>
       </c>
@@ -9362,7 +9379,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>43321</v>
       </c>
@@ -9375,7 +9392,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>43322</v>
       </c>
@@ -9388,7 +9405,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25">
         <v>43323</v>
       </c>
@@ -9401,7 +9418,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25">
         <v>43324</v>
       </c>
@@ -9414,7 +9431,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>43325</v>
       </c>
@@ -9427,7 +9444,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>43326</v>
       </c>
@@ -9440,7 +9457,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>43327</v>
       </c>
@@ -9453,7 +9470,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>43328</v>
       </c>
@@ -9466,7 +9483,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>43329</v>
       </c>
@@ -9479,7 +9496,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25">
         <v>43330</v>
       </c>
@@ -9492,7 +9509,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25">
         <v>43331</v>
       </c>
@@ -9505,7 +9522,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>43332</v>
       </c>
@@ -9518,7 +9535,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
         <v>43333</v>
       </c>
@@ -9531,7 +9548,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
         <v>43334</v>
       </c>
@@ -9544,7 +9561,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
         <v>43335</v>
       </c>
@@ -9557,7 +9574,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
         <v>43336</v>
       </c>
@@ -9570,7 +9587,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="25">
         <v>43337</v>
       </c>
@@ -9583,7 +9600,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25">
         <v>43338</v>
       </c>
@@ -9596,7 +9613,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="22"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20">
         <v>43339</v>
       </c>
@@ -9609,7 +9626,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20">
         <v>43340</v>
       </c>
@@ -9622,7 +9639,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
         <v>43341</v>
       </c>
@@ -9635,7 +9652,7 @@
       <c r="F30" s="18"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
         <v>43342</v>
       </c>
@@ -9648,7 +9665,7 @@
       <c r="F31" s="18"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
         <v>43343</v>
       </c>
@@ -9664,7 +9681,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD8948-DEE9-4475-9C29-38CA1B409618}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4360584C-D0E2-467A-B28D-934615667B85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="122">
   <si>
     <t>战略目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户分析整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,6 +476,14 @@
   </si>
   <si>
     <t>sogou，Chrome，virtualenv、virtualenvwrapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分析P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分析P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,31 +1043,31 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1552,28 +1556,28 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="32"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1592,25 +1596,25 @@
         <v>9</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="32"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="33"/>
       <c r="Q3" s="34"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="32"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="33"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1626,54 +1630,54 @@
         <v>16</v>
       </c>
       <c r="G4" s="34"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="33"/>
       <c r="Q4" s="34"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30" t="s">
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30" t="s">
+      <c r="V4" s="31"/>
+      <c r="W4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="32"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="33"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" s="34"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="32"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="34"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="32"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="33"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1691,27 +1695,27 @@
       <c r="G6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="32"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="34"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="32"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="33"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1730,25 +1734,25 @@
         <v>7</v>
       </c>
       <c r="G7" s="34"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="32"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="33"/>
       <c r="Q7" s="34"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="32"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="33"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1758,332 +1762,332 @@
         <v>20</v>
       </c>
       <c r="G8" s="34"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="32"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="33"/>
       <c r="Q8" s="34"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="32"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="33"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" s="34"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="32"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="33"/>
       <c r="Q9" s="34"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="32"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="33"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G10" s="34"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="32"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="33"/>
       <c r="Q10" s="34"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="32"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="33"/>
     </row>
     <row r="11" spans="1:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="33"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="G12" s="38"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="37"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="32"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" s="34"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="32"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="33"/>
       <c r="Q13" s="34"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="32"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="33"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G14" s="34"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="32"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="33"/>
       <c r="Q14" s="34"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="32"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="33"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15" s="34"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="32"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="33"/>
       <c r="Q15" s="34"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="32"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="33"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="G16" s="34"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="32"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="33"/>
       <c r="Q16" s="34"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="32"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="33"/>
     </row>
     <row r="17" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" s="34"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="32"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="33"/>
       <c r="Q17" s="34"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="32"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="33"/>
     </row>
     <row r="18" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G18" s="34"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="32"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="33"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="32"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="33"/>
     </row>
     <row r="19" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="34"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="32"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="33"/>
       <c r="Q19" s="34"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="32"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="33"/>
     </row>
     <row r="20" spans="6:27" x14ac:dyDescent="0.3">
       <c r="G20" s="34"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="32"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="33"/>
       <c r="Q20" s="34"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="32"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="33"/>
     </row>
     <row r="21" spans="6:27" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="33"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
     </row>
     <row r="22" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F22" s="2"/>
@@ -2132,6 +2136,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="U18:V19"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="Y18:Z19"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
+    <mergeCell ref="Q20:R21"/>
+    <mergeCell ref="S20:T21"/>
+    <mergeCell ref="U20:V21"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="K18:L19"/>
+    <mergeCell ref="Q16:R17"/>
+    <mergeCell ref="Q18:R19"/>
+    <mergeCell ref="S18:T19"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="S16:T17"/>
+    <mergeCell ref="U16:V17"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="S12:T13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="S8:T9"/>
+    <mergeCell ref="U8:V9"/>
+    <mergeCell ref="W8:X9"/>
+    <mergeCell ref="Y8:Z9"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="S10:T11"/>
+    <mergeCell ref="I8:J9"/>
+    <mergeCell ref="K8:L9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:P9"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="S6:T7"/>
+    <mergeCell ref="U6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Y6:Z7"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="M4:N5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P7"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="G14:H15"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I14:J15"/>
+    <mergeCell ref="K14:L15"/>
+    <mergeCell ref="M14:N15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="M18:N19"/>
+    <mergeCell ref="O18:P19"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="K16:L17"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P17"/>
     <mergeCell ref="S2:T3"/>
     <mergeCell ref="U2:V3"/>
     <mergeCell ref="W2:X3"/>
@@ -2148,90 +2236,6 @@
     <mergeCell ref="O2:P3"/>
     <mergeCell ref="Q2:R3"/>
     <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="I14:J15"/>
-    <mergeCell ref="K14:L15"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="M18:N19"/>
-    <mergeCell ref="O18:P19"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="K16:L17"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P17"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="G14:H15"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="M4:N5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K6:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P7"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="S6:T7"/>
-    <mergeCell ref="U6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Y6:Z7"/>
-    <mergeCell ref="S8:T9"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W8:X9"/>
-    <mergeCell ref="Y8:Z9"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="S10:T11"/>
-    <mergeCell ref="I8:J9"/>
-    <mergeCell ref="K8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:P9"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="S12:T13"/>
-    <mergeCell ref="U12:V13"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="Q16:R17"/>
-    <mergeCell ref="Q18:R19"/>
-    <mergeCell ref="S18:T19"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="S16:T17"/>
-    <mergeCell ref="U16:V17"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="U18:V19"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="W18:X19"/>
-    <mergeCell ref="Y18:Z19"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="S20:T21"/>
-    <mergeCell ref="U20:V21"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="K18:L19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8750,7 +8754,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8780,7 +8784,7 @@
         <v>90</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>87</v>
@@ -8955,7 +8959,7 @@
         <v>81</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -9024,10 +9028,10 @@
         <v>77</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
@@ -9042,7 +9046,9 @@
       <c r="B19" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BE5E227D-8A1A-484D-8BF4-BEC217CC3213}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A8B2190B-BDD9-4796-8414-7E0428934ABA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="年度计划" sheetId="25" r:id="rId1"/>
+    <sheet name="总计划" sheetId="25" r:id="rId1"/>
     <sheet name="1月" sheetId="6" r:id="rId2"/>
     <sheet name="2月" sheetId="7" r:id="rId3"/>
     <sheet name="3月" sheetId="8" r:id="rId4"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="126">
   <si>
     <t>工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,31 +419,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据挖掘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解谈判基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据产品经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电商产品经理</t>
+    <t>2018年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目全流程</t>
+    <t>python，开发基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>python</t>
+    <t>产品基础、数据产品经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据分析</t>
+    <t>2017年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据挖掘</t>
+    <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据分析</t>
+    <t>数据分析阶段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析阶段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析阶段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《商务经济统计学》;《R in action》 ;《深入浅出数据分析》;复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《数据挖掘导论》、《利用python进行数据分析》、scikit-learn；复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《深入浅出SQL》、《网站分析》；复习阶段二内容；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《深入浅出数据分析》《深入浅出统计学》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +510,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,8 +671,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,6 +730,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +944,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -917,6 +1009,29 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1358,61 +1473,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B390D00-AB1E-4A3C-853E-FD68C790CF8B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="12.58203125" customWidth="1"/>
+    <col min="1" max="1" width="11.9140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" customWidth="1"/>
+    <col min="4" max="9" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3309,12 +3489,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -3345,10 +3525,10 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -3358,10 +3538,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -3392,10 +3572,10 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -3405,10 +3585,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -3439,10 +3619,10 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -3452,10 +3632,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -3486,10 +3666,10 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -3499,10 +3679,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -3533,10 +3713,10 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -3546,10 +3726,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="13"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -3580,10 +3760,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -3593,10 +3773,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3712,12 +3892,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -3748,10 +3928,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -3761,10 +3941,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -3795,10 +3975,10 @@
         <f ca="1"/>
         <v>43324</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -3808,10 +3988,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -3842,10 +4022,10 @@
         <f ca="1"/>
         <v>43331</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -3855,10 +4035,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -3889,10 +4069,10 @@
         <f ca="1"/>
         <v>43338</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -3902,10 +4082,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -3936,10 +4116,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -3949,10 +4129,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -3983,10 +4163,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -3996,10 +4176,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4115,12 +4295,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -4151,10 +4331,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -4164,10 +4344,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -4198,10 +4378,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -4211,10 +4391,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -4245,10 +4425,10 @@
         <f ca="1"/>
         <v>43359</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -4258,10 +4438,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -4292,10 +4472,10 @@
         <f ca="1"/>
         <v>43366</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -4305,10 +4485,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -4339,10 +4519,10 @@
         <f ca="1"/>
         <v>43373</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -4352,10 +4532,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -4386,10 +4566,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -4399,10 +4579,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4518,12 +4698,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -4554,10 +4734,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -4567,10 +4747,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -4601,10 +4781,10 @@
         <f ca="1"/>
         <v>43387</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -4614,10 +4794,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -4648,10 +4828,10 @@
         <f ca="1"/>
         <v>43394</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -4661,10 +4841,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -4695,10 +4875,10 @@
         <f ca="1"/>
         <v>43401</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -4708,10 +4888,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -4742,10 +4922,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -4755,10 +4935,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -4789,10 +4969,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -4802,10 +4982,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4921,12 +5101,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -4957,10 +5137,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -4970,10 +5150,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -5004,10 +5184,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -5017,10 +5197,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -5051,10 +5231,10 @@
         <f ca="1"/>
         <v>43422</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -5064,10 +5244,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -5098,10 +5278,10 @@
         <f ca="1"/>
         <v>43429</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -5111,10 +5291,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -5145,10 +5325,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -5158,10 +5338,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -5192,10 +5372,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -5205,10 +5385,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5324,12 +5504,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -5360,10 +5540,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -5373,10 +5553,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -5407,10 +5587,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -5420,10 +5600,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -5454,10 +5634,10 @@
         <f ca="1"/>
         <v>43450</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -5467,10 +5647,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -5501,10 +5681,10 @@
         <f ca="1"/>
         <v>43457</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -5514,10 +5694,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -5548,10 +5728,10 @@
         <f ca="1"/>
         <v>43464</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -5561,10 +5741,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -5595,10 +5775,10 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -5608,10 +5788,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6773,12 +6953,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -6809,10 +6989,10 @@
         <f ca="1"/>
         <v>43191</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
@@ -6822,10 +7002,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="14"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -6856,10 +7036,10 @@
         <f ca="1"/>
         <v>43198</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -6869,10 +7049,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -6903,10 +7083,10 @@
         <f ca="1"/>
         <v>43205</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -6916,10 +7096,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -6950,12 +7130,12 @@
         <f ca="1"/>
         <v>43212</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -6965,10 +7145,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -6999,12 +7179,12 @@
         <f ca="1"/>
         <v>43219</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7016,10 +7196,10 @@
         <v>57</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -7050,10 +7230,10 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -7065,10 +7245,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7184,12 +7364,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -7220,12 +7400,12 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -7235,10 +7415,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -7269,12 +7449,12 @@
         <f ca="1"/>
         <v>43233</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -7284,10 +7464,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -7318,12 +7498,12 @@
         <f ca="1"/>
         <v>43240</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -7333,10 +7513,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -7367,12 +7547,12 @@
         <f ca="1"/>
         <v>43247</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -7382,10 +7562,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -7416,12 +7596,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7431,10 +7611,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -7523,7 +7703,7 @@
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:M13"/>
     </sheetView>
   </sheetViews>
@@ -7588,12 +7768,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -7624,12 +7804,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -7639,10 +7819,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="33"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -7673,12 +7853,12 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -7688,10 +7868,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -7722,12 +7902,12 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -7737,10 +7917,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -7771,12 +7951,12 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -7786,10 +7966,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="42"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -7820,12 +8000,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7835,10 +8015,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -7927,9 +8107,9 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8278,9 +8458,11 @@
         <v>61</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="21"/>
+        <v>105</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>125</v>
+      </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A8B2190B-BDD9-4796-8414-7E0428934ABA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{80F66E05-B426-44AC-9189-40230652192B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="25" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="129">
   <si>
     <t>工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,18 @@
   </si>
   <si>
     <t>《深入浅出数据分析》《深入浅出统计学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二项式定理、排列组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1473,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B390D00-AB1E-4A3C-853E-FD68C790CF8B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1585,6 +1597,16 @@
       </c>
       <c r="C11" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -8107,9 +8129,9 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8501,7 +8523,9 @@
         <v>65</v>
       </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="15"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{80F66E05-B426-44AC-9189-40230652192B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02BC5A47-9C23-4933-915F-347C773CD7DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="25" r:id="rId1"/>
-    <sheet name="1月" sheetId="6" r:id="rId2"/>
-    <sheet name="2月" sheetId="7" r:id="rId3"/>
-    <sheet name="3月" sheetId="8" r:id="rId4"/>
-    <sheet name="4月" sheetId="9" r:id="rId5"/>
-    <sheet name="5月" sheetId="10" r:id="rId6"/>
-    <sheet name="6月" sheetId="11" r:id="rId7"/>
-    <sheet name="7月 " sheetId="19" r:id="rId8"/>
-    <sheet name="8月" sheetId="20" r:id="rId9"/>
-    <sheet name="9月" sheetId="21" r:id="rId10"/>
-    <sheet name="10月 " sheetId="22" r:id="rId11"/>
-    <sheet name="11月" sheetId="23" r:id="rId12"/>
-    <sheet name="12月 " sheetId="24" r:id="rId13"/>
-    <sheet name="七月" sheetId="12" state="hidden" r:id="rId14"/>
-    <sheet name="八月" sheetId="13" state="hidden" r:id="rId15"/>
-    <sheet name="九月" sheetId="14" state="hidden" r:id="rId16"/>
-    <sheet name="十月" sheetId="15" state="hidden" r:id="rId17"/>
-    <sheet name="十一月" sheetId="16" state="hidden" r:id="rId18"/>
-    <sheet name="十二月" sheetId="17" state="hidden" r:id="rId19"/>
+    <sheet name="房租" sheetId="26" r:id="rId2"/>
+    <sheet name="1月" sheetId="6" r:id="rId3"/>
+    <sheet name="2月" sheetId="7" r:id="rId4"/>
+    <sheet name="3月" sheetId="8" r:id="rId5"/>
+    <sheet name="4月" sheetId="9" r:id="rId6"/>
+    <sheet name="5月" sheetId="10" r:id="rId7"/>
+    <sheet name="6月" sheetId="11" r:id="rId8"/>
+    <sheet name="7月 " sheetId="19" r:id="rId9"/>
+    <sheet name="8月" sheetId="20" r:id="rId10"/>
+    <sheet name="9月" sheetId="21" r:id="rId11"/>
+    <sheet name="10月 " sheetId="22" r:id="rId12"/>
+    <sheet name="11月" sheetId="23" r:id="rId13"/>
+    <sheet name="12月 " sheetId="24" r:id="rId14"/>
+    <sheet name="七月" sheetId="12" state="hidden" r:id="rId15"/>
+    <sheet name="八月" sheetId="13" state="hidden" r:id="rId16"/>
+    <sheet name="九月" sheetId="14" state="hidden" r:id="rId17"/>
+    <sheet name="十月" sheetId="15" state="hidden" r:id="rId18"/>
+    <sheet name="十一月" sheetId="16" state="hidden" r:id="rId19"/>
+    <sheet name="十二月" sheetId="17" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="CalendarYear">'1月'!$C$2</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="145">
   <si>
     <t>工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,18 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《商务经济统计学》;《R in action》 ;《深入浅出数据分析》;复习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《数据挖掘导论》、《利用python进行数据分析》、scikit-learn；复习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《深入浅出SQL》、《网站分析》；复习阶段二内容；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>《深入浅出数据分析》《深入浅出统计学》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,7 +500,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二项式定理、排列组合</t>
+    <r>
+      <t>《商务经济</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>统计学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>》;《R in action》 ;《深入浅出数据分析》;复习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>《数据挖掘导论》、《利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行数据分析》、scikit-learn；复习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>《深入浅出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>》、《网站分析》；复习阶段二内容；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用水/吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电/度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总房租/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9月30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +656,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,8 +847,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +893,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -926,6 +1080,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -956,7 +1239,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1038,6 +1321,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1220,6 +1516,1532 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>八阵图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>房租!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>水费/元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-5700-4D50-B478-91B23351081B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>房租!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5月31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6月30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7月31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8月31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 9月30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10月31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11月30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12月31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1月31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2月28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>房租!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5700-4D50-B478-91B23351081B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>房租!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电费/元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>房租!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5月31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6月30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7月31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8月31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 9月30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10月31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11月30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12月31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1月31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2月28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>房租!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5700-4D50-B478-91B23351081B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="841948408"/>
+        <c:axId val="841949048"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>房租!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>总房租/元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>房租!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5月31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6月30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7月31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8月31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 9月30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10月31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11月30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12月31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1月31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2月28</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>房租!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>946.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5700-4D50-B478-91B23351081B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="820107384"/>
+        <c:axId val="820106104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="841948408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841949048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="841949048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841948408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="820106104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820107384"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="820107384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="820106104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>531161</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>135592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318F00B5-6F91-403F-ABBF-39A1D51FFBD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1491,7 +3313,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1523,13 +3345,13 @@
       <c r="C2" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="49" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1543,9 +3365,9 @@
       <c r="C3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
@@ -1580,7 +3402,7 @@
         <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1588,7 +3410,7 @@
         <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1596,17 +3418,17 @@
         <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1621,6 +3443,467 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>43313</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>43314</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>43315</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>43316</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
+        <v>43317</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>43318</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>43319</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>43320</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>43321</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>43322</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
+        <v>43323</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23">
+        <v>43324</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>43325</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>43326</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>43327</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>43328</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>43329</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23">
+        <v>43330</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23">
+        <v>43331</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>43332</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
+        <v>43333</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
+        <v>43334</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
+        <v>43335</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
+        <v>43336</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23">
+        <v>43337</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23">
+        <v>43338</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
+        <v>43339</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18">
+        <v>43340</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
+        <v>43341</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
+        <v>43342</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
+        <v>43343</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
@@ -2068,7 +4351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
@@ -2078,12 +4361,12 @@
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="42.08203125" customWidth="1"/>
@@ -2529,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
@@ -2539,12 +4822,12 @@
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="42.08203125" customWidth="1"/>
@@ -2977,7 +5260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -2987,12 +5270,12 @@
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.08203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
     <col min="2" max="2" width="5.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="42.08203125" customWidth="1"/>
@@ -3438,7 +5721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -3511,12 +5794,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -3547,10 +5830,10 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -3560,10 +5843,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -3594,10 +5877,10 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -3607,10 +5890,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -3641,10 +5924,10 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -3654,10 +5937,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -3688,10 +5971,10 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -3701,10 +5984,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -3735,10 +6018,10 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -3748,10 +6031,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="13"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -3782,10 +6065,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -3795,10 +6078,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3841,7 +6124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -3914,12 +6197,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -3950,10 +6233,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -3963,10 +6246,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -3997,10 +6280,10 @@
         <f ca="1"/>
         <v>43324</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -4010,10 +6293,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -4044,10 +6327,10 @@
         <f ca="1"/>
         <v>43331</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -4057,10 +6340,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -4091,10 +6374,10 @@
         <f ca="1"/>
         <v>43338</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -4104,10 +6387,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -4138,10 +6421,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -4151,10 +6434,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -4185,10 +6468,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -4198,10 +6481,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4244,7 +6527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
@@ -4317,12 +6600,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -4353,10 +6636,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -4366,10 +6649,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -4400,10 +6683,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -4413,10 +6696,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -4447,10 +6730,10 @@
         <f ca="1"/>
         <v>43359</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -4460,10 +6743,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -4494,10 +6777,10 @@
         <f ca="1"/>
         <v>43366</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -4507,10 +6790,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -4541,10 +6824,10 @@
         <f ca="1"/>
         <v>43373</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -4554,10 +6837,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -4588,10 +6871,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -4601,10 +6884,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4647,7 +6930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -4720,12 +7003,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -4756,10 +7039,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -4769,10 +7052,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -4803,10 +7086,10 @@
         <f ca="1"/>
         <v>43387</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -4816,10 +7099,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -4850,10 +7133,10 @@
         <f ca="1"/>
         <v>43394</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -4863,10 +7146,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -4897,10 +7180,10 @@
         <f ca="1"/>
         <v>43401</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -4910,10 +7193,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -4944,10 +7227,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -4957,10 +7240,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -4991,10 +7274,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -5004,10 +7287,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5050,7 +7333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -5123,12 +7406,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -5159,10 +7442,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -5172,10 +7455,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -5206,10 +7489,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -5219,10 +7502,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -5253,10 +7536,10 @@
         <f ca="1"/>
         <v>43422</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -5266,10 +7549,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -5300,10 +7583,10 @@
         <f ca="1"/>
         <v>43429</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -5313,10 +7596,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -5347,10 +7630,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -5360,10 +7643,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -5394,10 +7677,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -5407,10 +7690,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5453,7 +7736,314 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64872CE8-CCE0-4D7D-891E-B3C9652FEC5A}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="39"/>
+    <col min="2" max="2" width="8.6640625" style="40"/>
+    <col min="3" max="6" width="6.58203125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="41"/>
+    <col min="8" max="16384" width="8.6640625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="40">
+        <v>800</v>
+      </c>
+      <c r="C2" s="40">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40">
+        <f>4*C2</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="40">
+        <v>20</v>
+      </c>
+      <c r="F2" s="40">
+        <f>1.5*E2</f>
+        <v>30</v>
+      </c>
+      <c r="G2" s="41">
+        <f>800+D2+F2</f>
+        <v>834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="40">
+        <v>800</v>
+      </c>
+      <c r="C3" s="40">
+        <v>4</v>
+      </c>
+      <c r="D3" s="40">
+        <f>4*C3</f>
+        <v>16</v>
+      </c>
+      <c r="E3" s="40">
+        <v>87</v>
+      </c>
+      <c r="F3" s="40">
+        <f t="shared" ref="F3:F11" si="0">1.5*E3</f>
+        <v>130.5</v>
+      </c>
+      <c r="G3" s="41">
+        <f t="shared" ref="G3" si="1">800+D3+F3</f>
+        <v>946.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="40">
+        <v>800</v>
+      </c>
+      <c r="C4" s="40">
+        <v>3</v>
+      </c>
+      <c r="D4" s="40">
+        <f>4*C4</f>
+        <v>12</v>
+      </c>
+      <c r="E4" s="40">
+        <v>108</v>
+      </c>
+      <c r="F4" s="40">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="G4" s="41">
+        <f>800+D4+F4</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="40">
+        <v>800</v>
+      </c>
+      <c r="C5" s="40">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40">
+        <f t="shared" ref="D5:D11" si="2">4*C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <f t="shared" ref="G5:G11" si="3">800+D5+F5</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="40">
+        <v>800</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="40">
+        <v>800</v>
+      </c>
+      <c r="C7" s="40">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="40">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="41">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="40">
+        <v>800</v>
+      </c>
+      <c r="C8" s="40">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="40">
+        <v>0</v>
+      </c>
+      <c r="F8" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="41">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="43">
+        <v>800</v>
+      </c>
+      <c r="C9" s="43">
+        <v>0</v>
+      </c>
+      <c r="D9" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0</v>
+      </c>
+      <c r="F9" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="46">
+        <v>800</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0</v>
+      </c>
+      <c r="D10" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="47">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="40">
+        <v>800</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <v>0</v>
+      </c>
+      <c r="F11" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="41">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -5526,12 +8116,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -5562,10 +8152,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -5575,10 +8165,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -5609,10 +8199,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -5622,10 +8212,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -5656,10 +8246,10 @@
         <f ca="1"/>
         <v>43450</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -5669,10 +8259,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -5703,10 +8293,10 @@
         <f ca="1"/>
         <v>43457</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -5716,10 +8306,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -5750,10 +8340,10 @@
         <f ca="1"/>
         <v>43464</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -5763,10 +8353,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -5797,10 +8387,10 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -5810,10 +8400,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="42"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5856,7 +8446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -6221,7 +8811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -6558,7 +9148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
@@ -6902,7 +9492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -6975,12 +9565,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -7011,10 +9601,10 @@
         <f ca="1"/>
         <v>43191</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
@@ -7024,10 +9614,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="14"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -7058,10 +9648,10 @@
         <f ca="1"/>
         <v>43198</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -7071,10 +9661,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -7105,10 +9695,10 @@
         <f ca="1"/>
         <v>43205</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -7118,10 +9708,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -7152,12 +9742,12 @@
         <f ca="1"/>
         <v>43212</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -7167,10 +9757,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -7201,12 +9791,12 @@
         <f ca="1"/>
         <v>43219</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7218,10 +9808,10 @@
         <v>57</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -7252,10 +9842,10 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -7267,10 +9857,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7313,7 +9903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -7386,12 +9976,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -7422,12 +10012,12 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -7437,10 +10027,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -7471,12 +10061,12 @@
         <f ca="1"/>
         <v>43233</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -7486,10 +10076,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -7520,12 +10110,12 @@
         <f ca="1"/>
         <v>43240</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -7535,10 +10125,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -7569,12 +10159,12 @@
         <f ca="1"/>
         <v>43247</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -7584,10 +10174,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -7618,12 +10208,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7633,10 +10223,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -7717,7 +10307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -7790,12 +10380,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="44" t="s">
+      <c r="J3" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -7826,12 +10416,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -7841,10 +10431,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="42"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="55"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -7875,12 +10465,12 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -7890,10 +10480,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="42"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -7924,12 +10514,12 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -7939,10 +10529,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -7973,12 +10563,12 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -7988,10 +10578,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -8022,12 +10612,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -8037,10 +10627,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -8121,17 +10711,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8483,7 +11073,7 @@
         <v>105</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -8523,9 +11113,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="15"/>
@@ -8589,7 +11177,9 @@
       <c r="B31" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="16"/>
+      <c r="C31" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -8618,465 +11208,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.08203125" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
-        <v>43313</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
-        <v>43314</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
-        <v>43315</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
-        <v>43316</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
-        <v>43317</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>43318</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>43319</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
-        <v>43320</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
-        <v>43321</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>43322</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>43323</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
-        <v>43324</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
-        <v>43325</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <v>43326</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
-        <v>43327</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>43328</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
-        <v>43329</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
-        <v>43330</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
-        <v>43331</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
-        <v>43332</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
-        <v>43333</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
-        <v>43334</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
-        <v>43335</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
-        <v>43336</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
-        <v>43337</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23">
-        <v>43338</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
-        <v>43339</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
-        <v>43340</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
-        <v>43341</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
-        <v>43342</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
-        <v>43343</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>"完成,待续,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,31 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{02BC5A47-9C23-4933-915F-347C773CD7DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69679D75-69C4-4C9E-AEDA-60D698526198}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="25" r:id="rId1"/>
-    <sheet name="房租" sheetId="26" r:id="rId2"/>
-    <sheet name="1月" sheetId="6" r:id="rId3"/>
-    <sheet name="2月" sheetId="7" r:id="rId4"/>
-    <sheet name="3月" sheetId="8" r:id="rId5"/>
-    <sheet name="4月" sheetId="9" r:id="rId6"/>
-    <sheet name="5月" sheetId="10" r:id="rId7"/>
-    <sheet name="6月" sheetId="11" r:id="rId8"/>
-    <sheet name="7月 " sheetId="19" r:id="rId9"/>
-    <sheet name="8月" sheetId="20" r:id="rId10"/>
-    <sheet name="9月" sheetId="21" r:id="rId11"/>
-    <sheet name="10月 " sheetId="22" r:id="rId12"/>
-    <sheet name="11月" sheetId="23" r:id="rId13"/>
-    <sheet name="12月 " sheetId="24" r:id="rId14"/>
-    <sheet name="七月" sheetId="12" state="hidden" r:id="rId15"/>
-    <sheet name="八月" sheetId="13" state="hidden" r:id="rId16"/>
-    <sheet name="九月" sheetId="14" state="hidden" r:id="rId17"/>
-    <sheet name="十月" sheetId="15" state="hidden" r:id="rId18"/>
-    <sheet name="十一月" sheetId="16" state="hidden" r:id="rId19"/>
-    <sheet name="十二月" sheetId="17" state="hidden" r:id="rId20"/>
+    <sheet name="资金流-表" sheetId="27" r:id="rId2"/>
+    <sheet name="资金流-图" sheetId="28" r:id="rId3"/>
+    <sheet name="1月" sheetId="6" r:id="rId4"/>
+    <sheet name="2月" sheetId="7" r:id="rId5"/>
+    <sheet name="3月" sheetId="8" r:id="rId6"/>
+    <sheet name="4月" sheetId="9" r:id="rId7"/>
+    <sheet name="5月" sheetId="10" r:id="rId8"/>
+    <sheet name="6月" sheetId="11" r:id="rId9"/>
+    <sheet name="7月 " sheetId="19" r:id="rId10"/>
+    <sheet name="8月" sheetId="20" r:id="rId11"/>
+    <sheet name="9月" sheetId="21" r:id="rId12"/>
+    <sheet name="10月 " sheetId="22" r:id="rId13"/>
+    <sheet name="11月" sheetId="23" r:id="rId14"/>
+    <sheet name="12月 " sheetId="24" r:id="rId15"/>
+    <sheet name="七月" sheetId="12" state="hidden" r:id="rId16"/>
+    <sheet name="八月" sheetId="13" state="hidden" r:id="rId17"/>
+    <sheet name="九月" sheetId="14" state="hidden" r:id="rId18"/>
+    <sheet name="十月" sheetId="15" state="hidden" r:id="rId19"/>
+    <sheet name="十一月" sheetId="16" state="hidden" r:id="rId20"/>
+    <sheet name="十二月" sheetId="17" state="hidden" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="CalendarYear">'1月'!$C$2</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="160">
   <si>
     <t>工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,10 +461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>python，开发基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品基础、数据产品经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,14 +486,6 @@
   </si>
   <si>
     <t>《深入浅出数据分析》《深入浅出统计学》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微积分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -581,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用水/吨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,51 +586,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总房租/元</t>
+    <t>统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5月31</t>
+    <t>《统计》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6月30</t>
+    <t>8月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7月31</t>
+    <t>9月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月31</t>
+    <t>10月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 9月30</t>
+    <t>11月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10月31</t>
+    <t>12月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11月30</t>
+    <t>到手工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12月31</t>
+    <t>2月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1月31</t>
+    <t>3月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2月28</t>
+    <t>4月15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计</t>
+    <t>5月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节+500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借出-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买电脑-5100，借出-4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月初资金（15号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月剩余（15号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续性概率分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《风骚律师》本月回归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +717,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,6 +916,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -901,12 +970,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1085,34 +1154,116 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -1121,7 +1272,18 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,43 +1292,46 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,38 +1340,150 @@
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1239,7 +1516,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1322,18 +1599,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1558,8 +1873,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>资金</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN"/>
-              <a:t>八阵图</a:t>
+              <a:t>流</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1607,15 +1926,15 @@
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>房租!$D$1</c:f>
+              <c:f>'资金流-表'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>水费/元</c:v>
+                  <c:v>到手工资</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1624,21 +1943,21 @@
             <a:gradFill rotWithShape="1">
               <a:gsLst>
                 <a:gs pos="0">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="103000"/>
                     <a:lumMod val="102000"/>
                     <a:tint val="94000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:satMod val="110000"/>
                     <a:lumMod val="100000"/>
                     <a:shade val="100000"/>
                   </a:schemeClr>
                 </a:gs>
                 <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
+                  <a:schemeClr val="accent2">
                     <a:lumMod val="99000"/>
                     <a:satMod val="120000"/>
                     <a:shade val="78000"/>
@@ -1659,16 +1978,6 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-5700-4D50-B478-91B23351081B}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1726,56 +2035,427 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>房租!$A$2:$A$11</c:f>
+              <c:f>'资金流-表'!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5月31</c:v>
+                  <c:v>2月15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6月30</c:v>
+                  <c:v>3月15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7月31</c:v>
+                  <c:v>4月15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8月31</c:v>
+                  <c:v>5月15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 9月30</c:v>
+                  <c:v>6月15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10月31</c:v>
+                  <c:v>7月15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11月30</c:v>
+                  <c:v>8月15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12月31</c:v>
+                  <c:v>9月15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1月31</c:v>
+                  <c:v>10月15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2月28</c:v>
+                  <c:v>11月15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12月15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>房租!$D$2:$D$11</c:f>
+              <c:f>'资金流-表'!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>3484.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>6307.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>6028.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5884.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7207.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6757.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FF1-4ED1-9042-9A78C33E14BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资金流-表'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>社保</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'资金流-表'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>346.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FF1-4ED1-9042-9A78C33E14BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资金流-表'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>个税</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'资金流-表'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="1">
+                  <c:v>195.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>164.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>245.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6FF1-4ED1-9042-9A78C33E14BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资金流-表'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>公积金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'资金流-表'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FF1-4ED1-9042-9A78C33E14BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="750272440"/>
+        <c:axId val="750272760"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资金流-表'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上月剩余（15号）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2月15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3月15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4月15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5月15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6月15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7月15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8月15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9月15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10月15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11月15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12月15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'资金流-表'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1786,33 +2466,607 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6FF1-4ED1-9042-9A78C33E14BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资金流-表'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>月初资金（15号）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2月15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3月15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4月15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5月15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6月15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7月15</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8月15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9月15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10月15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>11月15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12月15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'资金流-表'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3484.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6307.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6028.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5884.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7207.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6757.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5700-4D50-B478-91B23351081B}"/>
+              <c16:uniqueId val="{00000005-6FF1-4ED1-9042-9A78C33E14BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="8"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>房租!$F$1</c:f>
+              <c:f>'资金流-表'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>房租</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'资金流-表'!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>684.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>633.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>647.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1652.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6FF1-4ED1-9042-9A78C33E14BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="750272440"/>
+        <c:axId val="750272760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="750272440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750272760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="750272760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="750272440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>支出分析表</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资金流-表'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1917,84 +3171,257 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>房租!$A$2:$A$11</c:f>
+              <c:f>'资金流-表'!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5月31</c:v>
+                  <c:v>2月15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6月30</c:v>
+                  <c:v>3月15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7月31</c:v>
+                  <c:v>4月15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8月31</c:v>
+                  <c:v>5月15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 9月30</c:v>
+                  <c:v>6月15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10月31</c:v>
+                  <c:v>7月15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11月30</c:v>
+                  <c:v>8月15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12月31</c:v>
+                  <c:v>9月15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1月31</c:v>
+                  <c:v>10月15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2月28</c:v>
+                  <c:v>11月15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12月15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>房租!$E$2:$E$11</c:f>
+              <c:f>'资金流-表'!$M$2:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>130.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5700-4D50-B478-91B23351081B}"/>
+              <c16:uniqueId val="{00000001-20D8-4CCA-BC57-60B257D67937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'资金流-表'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>水费/元</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2月15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3月15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4月15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5月15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6月15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7月15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8月15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9月15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10月15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11月15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12月15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'资金流-表'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20D8-4CCA-BC57-60B257D67937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2019,11 +3446,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>房租!$G$1</c:f>
+              <c:f>'资金流-表'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>总房租/元</c:v>
+                  <c:v>房租</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2103,77 +3530,68 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>房租!$A$2:$A$11</c:f>
+              <c:f>'资金流-表'!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5月31</c:v>
+                  <c:v>2月15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6月30</c:v>
+                  <c:v>3月15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7月31</c:v>
+                  <c:v>4月15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8月31</c:v>
+                  <c:v>5月15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 9月30</c:v>
+                  <c:v>6月15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10月31</c:v>
+                  <c:v>7月15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11月30</c:v>
+                  <c:v>8月15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12月31</c:v>
+                  <c:v>9月15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1月31</c:v>
+                  <c:v>10月15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2月28</c:v>
+                  <c:v>11月15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12月15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>房租!$G$2:$G$11</c:f>
+              <c:f>'资金流-表'!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>834</c:v>
+                  <c:v>684.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>946.5</c:v>
+                  <c:v>633.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>974</c:v>
+                  <c:v>647.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>800</c:v>
+                  <c:v>1652.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>800</c:v>
+                  <c:v>974</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +3599,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5700-4D50-B478-91B23351081B}"/>
+              <c16:uniqueId val="{00000002-20D8-4CCA-BC57-60B257D67937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2371,7 +3789,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2449,6 +3867,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3001,27 +4459,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>531161</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>253991</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>135592</xdr:rowOff>
+      <xdr:rowOff>145141</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>616858</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9073</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318F00B5-6F91-403F-ABBF-39A1D51FFBD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23535AD9-7344-4181-8437-28D0258C6EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,6 +5007,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164931</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>306593</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A45F8EA-38B2-4F19-B74D-7DDE3F70B741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3307,13 +5316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B390D00-AB1E-4A3C-853E-FD68C790CF8B}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3326,10 +5332,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>114</v>
@@ -3343,15 +5349,15 @@
         <v>109</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="69" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3360,14 +5366,14 @@
         <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
@@ -3399,35 +5405,25 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3443,6 +5439,505 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>43282</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>43283</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>43284</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>43285</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>43286</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>43287</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <v>43288</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>43289</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>43290</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>43291</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>43292</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>43294</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23">
+        <v>43295</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23">
+        <v>43296</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>43297</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>43298</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
+        <v>43299</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
+        <v>43300</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>43301</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23">
+        <v>43302</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23">
+        <v>43303</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
+        <v>43304</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
+        <v>43305</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18">
+        <v>43306</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
+        <v>43307</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
+        <v>43308</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23">
+        <v>43309</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23">
+        <v>43310</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
+        <v>43311</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
+        <v>43312</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.34998626667073579"/>
@@ -3450,6 +5945,475 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>43313</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>43314</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>43315</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>43316</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="23">
+        <v>43317</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>43318</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>43319</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>43320</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>43321</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>43322</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
+        <v>43323</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23">
+        <v>43324</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>43325</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>43326</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>43327</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>43328</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>43329</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23">
+        <v>43330</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="23">
+        <v>43331</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>43332</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
+        <v>43333</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
+        <v>43334</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
+        <v>43335</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
+        <v>43336</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23">
+        <v>43337</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23">
+        <v>43338</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
+        <v>43339</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="18">
+        <v>43340</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="18">
+        <v>43341</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
+        <v>43342</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
+        <v>43343</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
@@ -3467,467 +6431,6 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
-        <v>43313</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
-        <v>43314</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
-        <v>43315</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
-        <v>43316</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
-        <v>43317</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>43318</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>43319</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
-        <v>43320</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
-        <v>43321</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>43322</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>43323</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
-        <v>43324</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
-        <v>43325</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <v>43326</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
-        <v>43327</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>43328</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
-        <v>43329</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
-        <v>43330</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
-        <v>43331</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
-        <v>43332</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
-        <v>43333</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
-        <v>43334</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
-        <v>43335</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
-        <v>43336</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
-        <v>43337</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23">
-        <v>43338</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
-        <v>43339</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
-        <v>43340</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
-        <v>43341</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
-        <v>43342</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
-        <v>43343</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0800-000000000000}">
-      <formula1>"完成,待续,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.08203125" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -3957,7 +6460,9 @@
         <v>62</v>
       </c>
       <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>159</v>
+      </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="20"/>
@@ -4351,7 +6856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
@@ -4359,9 +6864,9 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4571,7 +7076,7 @@
         <v>43387</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -4802,7 +7307,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>"完成,待续,未完成"</formula1>
     </dataValidation>
@@ -4812,7 +7317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
@@ -4821,8 +7326,8 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5032,7 +7537,7 @@
         <v>43418</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5260,7 +7765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -5269,8 +7774,8 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5480,7 +7985,7 @@
         <v>43448</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5721,7 +8226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -5794,12 +8299,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -5830,10 +8335,10 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -5843,10 +8348,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -5877,10 +8382,10 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -5890,10 +8395,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -5924,10 +8429,10 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -5937,10 +8442,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -5971,10 +8476,10 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -5984,10 +8489,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -6018,10 +8523,10 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -6031,10 +8536,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="13"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -6065,10 +8570,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -6078,10 +8583,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6124,7 +8629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -6197,12 +8702,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -6233,10 +8738,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -6246,10 +8751,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -6280,10 +8785,10 @@
         <f ca="1"/>
         <v>43324</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -6293,10 +8798,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -6327,10 +8832,10 @@
         <f ca="1"/>
         <v>43331</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -6340,10 +8845,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -6374,10 +8879,10 @@
         <f ca="1"/>
         <v>43338</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -6387,10 +8892,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -6421,10 +8926,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -6434,10 +8939,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -6468,10 +8973,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -6481,10 +8986,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6527,7 +9032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
@@ -6600,12 +9105,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -6636,10 +9141,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -6649,10 +9154,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -6683,10 +9188,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -6696,10 +9201,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -6730,10 +9235,10 @@
         <f ca="1"/>
         <v>43359</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -6743,10 +9248,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -6777,10 +9282,10 @@
         <f ca="1"/>
         <v>43366</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -6790,10 +9295,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -6824,10 +9329,10 @@
         <f ca="1"/>
         <v>43373</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -6837,10 +9342,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -6871,10 +9376,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -6884,10 +9389,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6930,7 +9435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -7003,12 +9508,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -7039,10 +9544,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -7052,10 +9557,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -7086,10 +9591,10 @@
         <f ca="1"/>
         <v>43387</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -7099,10 +9604,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -7133,10 +9638,10 @@
         <f ca="1"/>
         <v>43394</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -7146,10 +9651,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -7180,10 +9685,10 @@
         <f ca="1"/>
         <v>43401</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -7193,10 +9698,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -7227,10 +9732,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7240,10 +9745,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -7274,10 +9779,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -7287,10 +9792,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7333,7 +9838,454 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDEACEE-FA30-4728-A112-2CCCD5F01CBB}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="58" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="5.9140625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="37" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8.08203125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="37"/>
+    <col min="8" max="8" width="5.5" style="37" customWidth="1"/>
+    <col min="9" max="9" width="9.08203125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="40" customWidth="1"/>
+    <col min="11" max="13" width="4.6640625" style="38" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" style="43" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" style="42" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="47">
+        <v>0</v>
+      </c>
+      <c r="C2" s="48">
+        <v>346.7</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49">
+        <f t="shared" ref="F2:F6" si="0">C2+D2+E2</f>
+        <v>346.7</v>
+      </c>
+      <c r="G2" s="49">
+        <v>3484.91</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50">
+        <f t="shared" ref="I2:I7" si="1">G2+B2</f>
+        <v>3484.91</v>
+      </c>
+      <c r="J2" s="51">
+        <v>3</v>
+      </c>
+      <c r="K2" s="52">
+        <f t="shared" ref="K2:K3" si="2">J2*5</f>
+        <v>15</v>
+      </c>
+      <c r="L2" s="52">
+        <v>66.5</v>
+      </c>
+      <c r="M2" s="52">
+        <f t="shared" ref="M2:M3" si="3">L2*1.5</f>
+        <v>99.75</v>
+      </c>
+      <c r="N2" s="53">
+        <f>M2+K2+(1050+90)/2</f>
+        <v>684.75</v>
+      </c>
+      <c r="O2" s="67"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="45">
+        <v>0</v>
+      </c>
+      <c r="C3" s="41">
+        <v>346.7</v>
+      </c>
+      <c r="E3" s="37">
+        <v>195.33</v>
+      </c>
+      <c r="F3" s="37">
+        <f t="shared" si="0"/>
+        <v>542.03</v>
+      </c>
+      <c r="G3" s="37">
+        <v>6307.97</v>
+      </c>
+      <c r="I3" s="39">
+        <f t="shared" si="1"/>
+        <v>6307.97</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="K3" s="38">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="L3" s="38">
+        <v>37.5</v>
+      </c>
+      <c r="M3" s="38">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+      <c r="N3" s="43">
+        <f t="shared" ref="N3:N4" si="4">M3+K3+(1050+90)/2</f>
+        <v>633.75</v>
+      </c>
+      <c r="O3" s="66"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="45">
+        <v>0</v>
+      </c>
+      <c r="C4" s="41">
+        <v>346.7</v>
+      </c>
+      <c r="E4" s="37">
+        <v>164.24</v>
+      </c>
+      <c r="F4" s="37">
+        <f t="shared" si="0"/>
+        <v>510.94</v>
+      </c>
+      <c r="G4" s="37">
+        <v>6028.14</v>
+      </c>
+      <c r="I4" s="39">
+        <f t="shared" si="1"/>
+        <v>6028.14</v>
+      </c>
+      <c r="J4" s="40">
+        <v>2</v>
+      </c>
+      <c r="K4" s="38">
+        <f>J4*5</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="38">
+        <v>45</v>
+      </c>
+      <c r="M4" s="38">
+        <f>L4*1.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="N4" s="43">
+        <f t="shared" si="4"/>
+        <v>647.5</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="45">
+        <v>0</v>
+      </c>
+      <c r="C5" s="41">
+        <v>346.7</v>
+      </c>
+      <c r="D5" s="37">
+        <v>350</v>
+      </c>
+      <c r="E5" s="37">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="F5" s="37">
+        <f t="shared" si="0"/>
+        <v>845.03000000000009</v>
+      </c>
+      <c r="G5" s="37">
+        <v>5884.97</v>
+      </c>
+      <c r="I5" s="39">
+        <f t="shared" si="1"/>
+        <v>5884.97</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1</v>
+      </c>
+      <c r="K5" s="38">
+        <f>4*J5</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="38">
+        <v>20</v>
+      </c>
+      <c r="M5" s="38">
+        <f>1.5*L5</f>
+        <v>30</v>
+      </c>
+      <c r="N5" s="43">
+        <f>800+K5+M5+656</f>
+        <v>1490</v>
+      </c>
+      <c r="O5" s="66"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="45">
+        <v>0</v>
+      </c>
+      <c r="C6" s="41">
+        <v>346.7</v>
+      </c>
+      <c r="D6" s="37">
+        <v>350</v>
+      </c>
+      <c r="E6" s="37">
+        <v>295.33</v>
+      </c>
+      <c r="F6" s="37">
+        <f t="shared" si="0"/>
+        <v>992.03</v>
+      </c>
+      <c r="G6" s="37">
+        <v>7207.97</v>
+      </c>
+      <c r="H6" s="37">
+        <v>500</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="1"/>
+        <v>7207.97</v>
+      </c>
+      <c r="J6" s="40">
+        <v>4</v>
+      </c>
+      <c r="K6" s="38">
+        <f>4*J6</f>
+        <v>16</v>
+      </c>
+      <c r="L6" s="38">
+        <v>87</v>
+      </c>
+      <c r="M6" s="38">
+        <f t="shared" ref="M6:M7" si="5">1.5*L6</f>
+        <v>130.5</v>
+      </c>
+      <c r="N6" s="43">
+        <f>800+K6+M6+706</f>
+        <v>1652.5</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="45">
+        <v>0</v>
+      </c>
+      <c r="C7" s="41">
+        <v>346.7</v>
+      </c>
+      <c r="D7" s="37">
+        <v>350</v>
+      </c>
+      <c r="E7" s="37">
+        <v>245.33</v>
+      </c>
+      <c r="F7" s="37">
+        <f>C7+D7+E7</f>
+        <v>942.03000000000009</v>
+      </c>
+      <c r="G7" s="37">
+        <v>6757.97</v>
+      </c>
+      <c r="I7" s="39">
+        <f t="shared" si="1"/>
+        <v>6757.97</v>
+      </c>
+      <c r="J7" s="40">
+        <v>3</v>
+      </c>
+      <c r="K7" s="38">
+        <f>4*J7</f>
+        <v>12</v>
+      </c>
+      <c r="L7" s="38">
+        <v>108</v>
+      </c>
+      <c r="M7" s="38">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="N7" s="43">
+        <f>800+K7+M7</f>
+        <v>974</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="O8" s="66"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="66"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+    </row>
+    <row r="14" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -7406,12 +10358,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -7442,10 +10394,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -7455,10 +10407,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -7489,10 +10441,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -7502,10 +10454,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -7536,10 +10488,10 @@
         <f ca="1"/>
         <v>43422</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -7549,10 +10501,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -7583,10 +10535,10 @@
         <f ca="1"/>
         <v>43429</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -7596,10 +10548,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -7630,10 +10582,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -7643,10 +10595,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -7677,10 +10629,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -7690,10 +10642,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7736,314 +10688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64872CE8-CCE0-4D7D-891E-B3C9652FEC5A}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="39"/>
-    <col min="2" max="2" width="8.6640625" style="40"/>
-    <col min="3" max="6" width="6.58203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="41"/>
-    <col min="8" max="16384" width="8.6640625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="40">
-        <v>800</v>
-      </c>
-      <c r="C2" s="40">
-        <v>1</v>
-      </c>
-      <c r="D2" s="40">
-        <f>4*C2</f>
-        <v>4</v>
-      </c>
-      <c r="E2" s="40">
-        <v>20</v>
-      </c>
-      <c r="F2" s="40">
-        <f>1.5*E2</f>
-        <v>30</v>
-      </c>
-      <c r="G2" s="41">
-        <f>800+D2+F2</f>
-        <v>834</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="40">
-        <v>800</v>
-      </c>
-      <c r="C3" s="40">
-        <v>4</v>
-      </c>
-      <c r="D3" s="40">
-        <f>4*C3</f>
-        <v>16</v>
-      </c>
-      <c r="E3" s="40">
-        <v>87</v>
-      </c>
-      <c r="F3" s="40">
-        <f t="shared" ref="F3:F11" si="0">1.5*E3</f>
-        <v>130.5</v>
-      </c>
-      <c r="G3" s="41">
-        <f t="shared" ref="G3" si="1">800+D3+F3</f>
-        <v>946.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="40">
-        <v>800</v>
-      </c>
-      <c r="C4" s="40">
-        <v>3</v>
-      </c>
-      <c r="D4" s="40">
-        <f>4*C4</f>
-        <v>12</v>
-      </c>
-      <c r="E4" s="40">
-        <v>108</v>
-      </c>
-      <c r="F4" s="40">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="G4" s="41">
-        <f>800+D4+F4</f>
-        <v>974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="40">
-        <v>800</v>
-      </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40">
-        <f t="shared" ref="D5:D11" si="2">4*C5</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <f t="shared" ref="G5:G11" si="3">800+D5+F5</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="40">
-        <v>800</v>
-      </c>
-      <c r="C6" s="40">
-        <v>0</v>
-      </c>
-      <c r="D6" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0</v>
-      </c>
-      <c r="F6" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="40">
-        <v>800</v>
-      </c>
-      <c r="C7" s="40">
-        <v>0</v>
-      </c>
-      <c r="D7" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="40">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="40">
-        <v>800</v>
-      </c>
-      <c r="C8" s="40">
-        <v>0</v>
-      </c>
-      <c r="D8" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="40">
-        <v>0</v>
-      </c>
-      <c r="F8" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="43">
-        <v>800</v>
-      </c>
-      <c r="C9" s="43">
-        <v>0</v>
-      </c>
-      <c r="D9" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="43">
-        <v>0</v>
-      </c>
-      <c r="F9" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="46">
-        <v>800</v>
-      </c>
-      <c r="C10" s="46">
-        <v>0</v>
-      </c>
-      <c r="D10" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="46">
-        <v>0</v>
-      </c>
-      <c r="F10" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="47">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="40">
-        <v>800</v>
-      </c>
-      <c r="C11" s="40">
-        <v>0</v>
-      </c>
-      <c r="D11" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="40">
-        <v>0</v>
-      </c>
-      <c r="F11" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="41">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -8116,12 +10761,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -8152,10 +10797,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -8165,10 +10810,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -8199,10 +10844,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -8212,10 +10857,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -8246,10 +10891,10 @@
         <f ca="1"/>
         <v>43450</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -8259,10 +10904,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -8293,10 +10938,10 @@
         <f ca="1"/>
         <v>43457</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -8306,10 +10951,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -8340,10 +10985,10 @@
         <f ca="1"/>
         <v>43464</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -8353,10 +10998,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -8387,10 +11032,10 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="52"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="72"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -8400,10 +11045,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="55"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8447,6 +11092,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498F6E87-1593-4850-B4C8-2619E2D51362}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="35"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -8811,7 +11475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -9148,7 +11812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
@@ -9492,7 +12156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -9565,12 +12229,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -9601,10 +12265,10 @@
         <f ca="1"/>
         <v>43191</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
@@ -9614,10 +12278,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="14"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -9648,10 +12312,10 @@
         <f ca="1"/>
         <v>43198</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -9661,10 +12325,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -9695,10 +12359,10 @@
         <f ca="1"/>
         <v>43205</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -9708,10 +12372,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -9742,12 +12406,12 @@
         <f ca="1"/>
         <v>43212</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -9757,10 +12421,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -9791,12 +12455,12 @@
         <f ca="1"/>
         <v>43219</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9808,10 +12472,10 @@
         <v>57</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9842,10 +12506,10 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -9857,10 +12521,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9903,7 +12567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -9976,12 +12640,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -10012,12 +12676,12 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -10027,10 +12691,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -10061,12 +12725,12 @@
         <f ca="1"/>
         <v>43233</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -10076,10 +12740,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -10110,12 +12774,12 @@
         <f ca="1"/>
         <v>43240</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -10125,10 +12789,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -10159,12 +12823,12 @@
         <f ca="1"/>
         <v>43247</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -10174,10 +12838,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -10208,12 +12872,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -10223,10 +12887,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -10307,7 +12971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -10380,12 +13044,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="79"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -10416,12 +13080,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -10431,10 +13095,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -10465,12 +13129,12 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -10480,10 +13144,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="55"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -10514,12 +13178,12 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-      <c r="J8" s="50" t="s">
+      <c r="J8" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="52"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="72"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -10529,10 +13193,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -10563,12 +13227,12 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -10578,10 +13242,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="55"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -10612,12 +13276,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="J12" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -10627,10 +13291,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="75"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -10709,503 +13373,4 @@
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
-  </sheetPr>
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.08203125" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
-        <v>43282</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
-        <v>43283</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
-        <v>43284</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
-        <v>43285</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
-        <v>43286</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>43287</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
-        <v>43288</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
-        <v>43289</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
-        <v>43290</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>43291</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
-        <v>43292</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
-        <v>43293</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
-        <v>43294</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
-        <v>43295</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
-        <v>43296</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>43297</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
-        <v>43298</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
-        <v>43299</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
-        <v>43300</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
-        <v>43301</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
-        <v>43302</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
-        <v>43303</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
-        <v>43304</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
-        <v>43305</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
-        <v>43306</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
-        <v>43307</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
-        <v>43308</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23">
-        <v>43309</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23">
-        <v>43310</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
-        <v>43311</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
-        <v>43312</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"完成,待续,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{69679D75-69C4-4C9E-AEDA-60D698526198}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54C0F195-41DF-4EC3-B7AB-92D0E0A8612C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="25" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
   <si>
     <t>工作</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,6 +707,30 @@
   </si>
   <si>
     <t>《风骚律师》本月回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样和抽样分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《线代》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵加法、乘法、逆（高斯消元法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线代：张宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5319,7 +5343,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5446,9 +5470,9 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5944,10 +5968,10 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6059,9 +6083,7 @@
       <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
         <v>157</v>
       </c>
@@ -6077,7 +6099,9 @@
         <v>60</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="15"/>
@@ -6090,9 +6114,13 @@
         <v>65</v>
       </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6102,8 +6130,12 @@
       <c r="B10" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="15"/>
@@ -6154,10 +6186,16 @@
       <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6413,7 +6451,7 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
@@ -9843,7 +9881,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,32 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54C0F195-41DF-4EC3-B7AB-92D0E0A8612C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5848EE4-BC43-424A-81C2-4F14876D2C8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="总计划" sheetId="25" r:id="rId1"/>
-    <sheet name="资金流-表" sheetId="27" r:id="rId2"/>
-    <sheet name="资金流-图" sheetId="28" r:id="rId3"/>
-    <sheet name="1月" sheetId="6" r:id="rId4"/>
-    <sheet name="2月" sheetId="7" r:id="rId5"/>
-    <sheet name="3月" sheetId="8" r:id="rId6"/>
-    <sheet name="4月" sheetId="9" r:id="rId7"/>
-    <sheet name="5月" sheetId="10" r:id="rId8"/>
-    <sheet name="6月" sheetId="11" r:id="rId9"/>
-    <sheet name="7月 " sheetId="19" r:id="rId10"/>
-    <sheet name="8月" sheetId="20" r:id="rId11"/>
-    <sheet name="9月" sheetId="21" r:id="rId12"/>
-    <sheet name="10月 " sheetId="22" r:id="rId13"/>
-    <sheet name="11月" sheetId="23" r:id="rId14"/>
-    <sheet name="12月 " sheetId="24" r:id="rId15"/>
-    <sheet name="七月" sheetId="12" state="hidden" r:id="rId16"/>
-    <sheet name="八月" sheetId="13" state="hidden" r:id="rId17"/>
-    <sheet name="九月" sheetId="14" state="hidden" r:id="rId18"/>
-    <sheet name="十月" sheetId="15" state="hidden" r:id="rId19"/>
-    <sheet name="十一月" sheetId="16" state="hidden" r:id="rId20"/>
-    <sheet name="十二月" sheetId="17" state="hidden" r:id="rId21"/>
+    <sheet name="总计划" sheetId="29" r:id="rId1"/>
+    <sheet name="资金流" sheetId="27" r:id="rId2"/>
+    <sheet name="1月" sheetId="6" r:id="rId3"/>
+    <sheet name="2月" sheetId="7" r:id="rId4"/>
+    <sheet name="3月" sheetId="8" r:id="rId5"/>
+    <sheet name="4月" sheetId="9" r:id="rId6"/>
+    <sheet name="5月" sheetId="10" r:id="rId7"/>
+    <sheet name="6月" sheetId="11" r:id="rId8"/>
+    <sheet name="7月 " sheetId="19" r:id="rId9"/>
+    <sheet name="8月" sheetId="20" r:id="rId10"/>
+    <sheet name="9月" sheetId="21" r:id="rId11"/>
+    <sheet name="10月 " sheetId="22" r:id="rId12"/>
+    <sheet name="11月" sheetId="23" r:id="rId13"/>
+    <sheet name="12月 " sheetId="24" r:id="rId14"/>
+    <sheet name="七月" sheetId="12" state="hidden" r:id="rId15"/>
+    <sheet name="八月" sheetId="13" state="hidden" r:id="rId16"/>
+    <sheet name="九月" sheetId="14" state="hidden" r:id="rId17"/>
+    <sheet name="十月" sheetId="15" state="hidden" r:id="rId18"/>
+    <sheet name="十一月" sheetId="16" state="hidden" r:id="rId19"/>
+    <sheet name="十二月" sheetId="17" state="hidden" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="CalendarYear">'1月'!$C$2</definedName>
@@ -46,13 +45,598 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="166">
-  <si>
-    <t>工作</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="184">
+  <si>
+    <t>一月</t>
+  </si>
+  <si>
+    <t>二月 -&gt;</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>周开始日期：</t>
+  </si>
+  <si>
+    <t>输入年份：</t>
+  </si>
+  <si>
+    <t>通过在“周开始日期”单元格 E2 中选择“日”或“一”，可将星期日或星期一作为日历的开始日期</t>
+  </si>
+  <si>
+    <t>二月</t>
+  </si>
+  <si>
+    <t>三月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 一月</t>
+  </si>
+  <si>
+    <t>三月</t>
+  </si>
+  <si>
+    <t>四月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 二月</t>
+  </si>
+  <si>
+    <t>四月</t>
+  </si>
+  <si>
+    <t>五月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 三月</t>
+  </si>
+  <si>
+    <t>五月</t>
+  </si>
+  <si>
+    <t>六月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 四月</t>
+  </si>
+  <si>
+    <t>六月</t>
+  </si>
+  <si>
+    <t>七月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 五月</t>
+  </si>
+  <si>
+    <t>七月</t>
+  </si>
+  <si>
+    <t>八月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 六月</t>
+  </si>
+  <si>
+    <t>八月</t>
+  </si>
+  <si>
+    <t>九月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 七月</t>
+  </si>
+  <si>
+    <t>九月</t>
+  </si>
+  <si>
+    <t>十月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 八月</t>
+  </si>
+  <si>
+    <t>十月</t>
+  </si>
+  <si>
+    <t>十一月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 九月</t>
+  </si>
+  <si>
+    <t>十一月</t>
+  </si>
+  <si>
+    <t>十二月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 十月</t>
+  </si>
+  <si>
+    <t>十二月</t>
+  </si>
+  <si>
+    <t>一月 -&gt;</t>
+  </si>
+  <si>
+    <t>&lt;- 十一月</t>
+  </si>
+  <si>
+    <t>办健身卡，体重56.5kg</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检体重57kg</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>周计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谈判</t>
+    <t>1）完成“设备系统2.0”；2）尽量重新开始锻炼；3）读一本书；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）熟悉HIS；2）移动查房；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一起看了个电影，看完好累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读《优势谈判》、《谈判是什么》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓磊《产品经理课程》知识消化；看《电商产品经理宝典》；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买礼物，去深圳泡妹子；产品知识进阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习axure；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划电商建设方案（后台）；开始学习商业模式；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axure强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品经理P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品经理P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认识薇薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“三节课”产品运营P1；“产品经理P2”；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理产品工作方法论：《三节课P1、P2》、《启示录》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>分点突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>《三节课》P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理产品经理工作阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待续</t>
+  </si>
+  <si>
+    <t>用户分析、需求挖掘、产品调研、功能/流程、原型/PRD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机配环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sogou，Chrome，virtualenv、virtualenvwrapper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分析P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户分析P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《深入浅出数据分析》《深入浅出统计学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用水/吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电/度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《统计》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到手工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节+500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借出-3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买电脑-5100，借出-4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共扣除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续性概率分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跑步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《风骚律师》本月回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区间估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样和抽样分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《线代》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵加法、乘法、逆（高斯消元法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社保累积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金累积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15号初始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15号剩余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2、python(np、pd、mpl、sklearn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3、sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据分析：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3、寻找商机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4、创业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1、学习（——2020年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1、《web analysis 2.0》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读书：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2、《数据挖掘导论》、《数据挖掘》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3、《深入浅出数据分析》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发、产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,677 +644,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>健身</t>
+    <t>AI产品经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一月</t>
-  </si>
-  <si>
-    <t>二月 -&gt;</t>
-  </si>
-  <si>
-    <t>一</t>
-  </si>
-  <si>
-    <t>周开始日期：</t>
-  </si>
-  <si>
-    <t>输入年份：</t>
-  </si>
-  <si>
-    <t>通过在“周开始日期”单元格 E2 中选择“日”或“一”，可将星期日或星期一作为日历的开始日期</t>
-  </si>
-  <si>
-    <t>二月</t>
-  </si>
-  <si>
-    <t>三月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 一月</t>
-  </si>
-  <si>
-    <t>三月</t>
-  </si>
-  <si>
-    <t>四月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 二月</t>
-  </si>
-  <si>
-    <t>四月</t>
-  </si>
-  <si>
-    <t>五月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 三月</t>
-  </si>
-  <si>
-    <t>五月</t>
-  </si>
-  <si>
-    <t>六月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 四月</t>
-  </si>
-  <si>
-    <t>六月</t>
-  </si>
-  <si>
-    <t>七月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 五月</t>
-  </si>
-  <si>
-    <t>七月</t>
-  </si>
-  <si>
-    <t>八月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 六月</t>
-  </si>
-  <si>
-    <t>八月</t>
-  </si>
-  <si>
-    <t>九月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 七月</t>
-  </si>
-  <si>
-    <t>九月</t>
-  </si>
-  <si>
-    <t>十月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 八月</t>
-  </si>
-  <si>
-    <t>十月</t>
-  </si>
-  <si>
-    <t>十一月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 九月</t>
-  </si>
-  <si>
-    <t>十一月</t>
-  </si>
-  <si>
-    <t>十二月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 十月</t>
-  </si>
-  <si>
-    <t>十二月</t>
-  </si>
-  <si>
-    <t>一月 -&gt;</t>
-  </si>
-  <si>
-    <t>&lt;- 十一月</t>
-  </si>
-  <si>
-    <t>办健身卡，体重56.5kg</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>体检体重57kg</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>周计划</t>
+    <t>算法与应用结合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1）完成“设备系统2.0”；2）尽量重新开始锻炼；3）读一本书；</t>
+    <t>总计划：（找机会投资）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1）熟悉HIS；2）移动查房；</t>
+    <t xml:space="preserve">    2、Tensorflow：Google深度学习框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一起看了个电影，看完好累</t>
+    <t xml:space="preserve">    3、Keras：基于TensorFlow构建的深度学习框架）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读《优势谈判》、《谈判是什么》</t>
+    <t>机器学习算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晓磊《产品经理课程》知识消化；看《电商产品经理宝典》；</t>
+    <t>数学基础、python、sql</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买礼物，去深圳泡妹子；产品知识进阶</t>
+    <t xml:space="preserve">    1、理论基础（微积分、线代、统计）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复习axure；</t>
+    <t>2018 ~ 24</t>
+  </si>
+  <si>
+    <t>2019 ~ 25</t>
+  </si>
+  <si>
+    <t>2020 ~ 26</t>
+  </si>
+  <si>
+    <t>2021 ~ 27</t>
+  </si>
+  <si>
+    <t>2022 ~ 28</t>
+  </si>
+  <si>
+    <t>2023 ~ 29</t>
+  </si>
+  <si>
+    <t>2024 ~ 30</t>
+  </si>
+  <si>
+    <t>2017 ~ 23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规划电商建设方案（后台）；开始学习商业模式；</t>
+    <t xml:space="preserve">    2、进入决策层（2020——？）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Axure强化</t>
+    <t xml:space="preserve">    1、微积分、线代、统计、凸优化、N大机器学习算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“三节课”产品经理P1</t>
+    <t>线性代数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“三节课”产品经理P1</t>
+    <t>计划9天完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>认识薇薇</t>
+    <t>高数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>“三节课”产品运营P1；“产品经理P2”；</t>
+    <t>快速过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整理产品工作方法论：《三节课P1、P2》、《启示录》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>分点突破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>《三节课》P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整理产品经理工作阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待续</t>
-  </si>
-  <si>
-    <t>用户分析、需求挖掘、产品调研、功能/流程、原型/PRD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟机配环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sogou，Chrome，virtualenv、virtualenvwrapper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户分析P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户分析P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据挖掘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工智能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解谈判基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据产品经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品基础、数据产品经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析阶段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析阶段2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据分析阶段3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《深入浅出数据分析》《深入浅出统计学》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>《商务经济</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>统计学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>》;《R in action》 ;《深入浅出数据分析》;复习</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>《数据挖掘导论》、《利用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>python</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>进行数据分析》、scikit-learn；复习</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>《深入浅出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>》、《网站分析》；复习阶段二内容；</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用水/吨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水费/元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用电/度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电费/元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《统计》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到手工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公积金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个税</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>python</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>端午节+500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借出-3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买电脑-5100，借出-4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总共扣除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月初资金（15号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上月剩余（15号）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续性概率分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《风骚律师》本月回归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区间估计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽样和抽样分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《线代》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵加法、乘法、逆（高斯消元法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线代：张宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础篇</t>
+    <t>双11买平板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,7 +736,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,15 +898,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0" tint="-0.14999847407452621"/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -920,6 +908,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -927,22 +916,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="18"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -982,12 +963,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -998,8 +973,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -1510,6 +1491,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="0"/>
+      </top>
+      <bottom style="double">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color theme="0"/>
+      </top>
+      <bottom style="double">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1540,7 +1711,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1606,78 +1777,126 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1954,7 +2173,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$G$1</c:f>
+              <c:f>资金流!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2059,7 +2278,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:f>资金流!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2100,7 +2319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$G$2:$G$12</c:f>
+              <c:f>资金流!$I$2:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2122,12 +2341,15 @@
                 <c:pt idx="5">
                   <c:v>6757.97</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>6835.69</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FF1-4ED1-9042-9A78C33E14BA}"/>
+              <c16:uniqueId val="{00000000-A7C4-4940-BB04-29F1BA483D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2136,7 +2358,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$C$1</c:f>
+              <c:f>资金流!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2186,7 +2408,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$C$2:$C$12</c:f>
+              <c:f>资金流!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2208,12 +2430,15 @@
                 <c:pt idx="5">
                   <c:v>346.7</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>380.34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6FF1-4ED1-9042-9A78C33E14BA}"/>
+              <c16:uniqueId val="{00000001-A7C4-4940-BB04-29F1BA483D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2222,7 +2447,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$E$1</c:f>
+              <c:f>资金流!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2272,7 +2497,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$E$2:$E$12</c:f>
+              <c:f>资金流!$G$2:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2291,12 +2516,15 @@
                 <c:pt idx="5">
                   <c:v>245.33</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>253.97</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6FF1-4ED1-9042-9A78C33E14BA}"/>
+              <c16:uniqueId val="{00000002-A7C4-4940-BB04-29F1BA483D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2305,7 +2533,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$D$1</c:f>
+              <c:f>资金流!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2355,7 +2583,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$D$2:$D$12</c:f>
+              <c:f>资金流!$E$2:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2368,12 +2596,15 @@
                 <c:pt idx="5">
                   <c:v>350</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6FF1-4ED1-9042-9A78C33E14BA}"/>
+              <c16:uniqueId val="{00000003-A7C4-4940-BB04-29F1BA483D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2398,11 +2629,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$B$1</c:f>
+              <c:f>资金流!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>上月剩余（15号）</c:v>
+                  <c:v>15号剩余</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2410,7 +2641,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2425,9 +2656,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:f>资金流!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2468,7 +2754,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$B$2:$B$12</c:f>
+              <c:f>资金流!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2489,6 +2775,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,7 +2785,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6FF1-4ED1-9042-9A78C33E14BA}"/>
+              <c16:uniqueId val="{00000004-A7C4-4940-BB04-29F1BA483D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2505,11 +2794,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$I$1</c:f>
+              <c:f>资金流!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>月初资金（15号）</c:v>
+                  <c:v>15号初始</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,7 +2878,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:f>资金流!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2630,7 +2919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$I$2:$I$12</c:f>
+              <c:f>资金流!$J$2:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2651,6 +2940,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6757.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7835.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,7 +2950,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6FF1-4ED1-9042-9A78C33E14BA}"/>
+              <c16:uniqueId val="{00000005-A7C4-4940-BB04-29F1BA483D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2667,7 +2959,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$N$1</c:f>
+              <c:f>资金流!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2696,64 +2988,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$N$2:$N$12</c:f>
+              <c:f>资金流!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2781,7 +3018,148 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6FF1-4ED1-9042-9A78C33E14BA}"/>
+              <c16:uniqueId val="{00000006-A7C4-4940-BB04-29F1BA483D1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>资金流!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>社保累积</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>资金流!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>693.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1040.0999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1386.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1733.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2080.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2460.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A7C4-4940-BB04-29F1BA483D1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>资金流!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>公积金累积</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>资金流!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A7C4-4940-BB04-29F1BA483D1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3090,7 +3468,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$M$1</c:f>
+              <c:f>资金流!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3195,7 +3573,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:f>资金流!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3236,7 +3614,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$M$2:$M$12</c:f>
+              <c:f>资金流!$N$2:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3263,7 +3641,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-20D8-4CCA-BC57-60B257D67937}"/>
+              <c16:uniqueId val="{00000000-8009-4BA4-9BB7-89C768520B53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3272,7 +3650,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$K$1</c:f>
+              <c:f>资金流!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3377,7 +3755,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:f>资金流!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3418,7 +3796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$K$2:$K$12</c:f>
+              <c:f>资金流!$L$2:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3445,7 +3823,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20D8-4CCA-BC57-60B257D67937}"/>
+              <c16:uniqueId val="{00000001-8009-4BA4-9BB7-89C768520B53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3470,7 +3848,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'资金流-表'!$N$1</c:f>
+              <c:f>资金流!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3554,7 +3932,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'资金流-表'!$A$2:$A$12</c:f>
+              <c:f>资金流!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3595,7 +3973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'资金流-表'!$N$2:$N$12</c:f>
+              <c:f>资金流!$O$2:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3623,7 +4001,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-20D8-4CCA-BC57-60B257D67937}"/>
+              <c16:uniqueId val="{00000002-8009-4BA4-9BB7-89C768520B53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5001,22 +5379,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>253991</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>145141</xdr:rowOff>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>616858</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9073</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2586</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23535AD9-7344-4181-8437-28D0258C6EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB71D821-A2FF-4690-80B7-6166002668EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5038,23 +5416,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>164931</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>145141</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>18207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>306593</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7279</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133661</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A45F8EA-38B2-4F19-B74D-7DDE3F70B741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AF1E8E-F180-4FD9-93A9-A578CBCFD509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5339,123 +5717,692 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B390D00-AB1E-4A3C-853E-FD68C790CF8B}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C79DB5-DB89-4682-8758-4B7CCBF271E2}">
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" customWidth="1"/>
-    <col min="4" max="9" width="30.58203125" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="61" customWidth="1"/>
+    <col min="4" max="4" width="43.4140625" style="66" customWidth="1"/>
+    <col min="5" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="1" spans="1:10" s="64" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="63"/>
+    </row>
+    <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="62"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="62"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="62"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="62"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="62"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="62"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="62"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="62"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="62"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="62"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="62"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="62"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="62"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="62"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="78"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="62"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="78"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="78"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="70"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="78"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="78"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="78"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+  <mergeCells count="81">
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5463,16 +6410,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
+    <tabColor theme="1" tint="0.34998626667073579"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5487,50 +6434,50 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="E1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>99</v>
-      </c>
       <c r="G1" s="24" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
-        <v>43282</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="18">
+        <v>43313</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
-        <v>43283</v>
+        <v>43314</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -5538,10 +6485,10 @@
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
-        <v>43284</v>
+        <v>43315</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -5550,146 +6497,142 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
-        <v>43285</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="23">
+        <v>43316</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
-        <v>43286</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="23">
+        <v>43317</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
-        <v>43287</v>
+        <v>43318</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
-        <v>43288</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
-        <v>43289</v>
-      </c>
-      <c r="B9" s="22" t="s">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="18">
+        <v>43319</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18">
+        <v>43320</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="20"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
-        <v>43290</v>
+        <v>43321</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>97</v>
-      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
-        <v>43291</v>
+        <v>43322</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="27"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
-        <v>43292</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="15"/>
+      <c r="A12" s="23">
+        <v>43323</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
-        <v>43293</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="23">
+        <v>43324</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
-        <v>43294</v>
+        <v>43325</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5697,100 +6640,94 @@
       <c r="F14" s="16"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
-        <v>43295</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
-        <v>43296</v>
-      </c>
-      <c r="B16" s="22" t="s">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>43326</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>43327</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
-        <v>43297</v>
+        <v>43328</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
-        <v>43298</v>
+        <v>43329</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>101</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
-        <v>43299</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="23">
+        <v>43330</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
-        <v>43300</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="23">
+        <v>43331</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
-        <v>43301</v>
+        <v>43332</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5798,44 +6735,38 @@
       <c r="F21" s="16"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
-        <v>43302</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
-        <v>43303</v>
-      </c>
-      <c r="B23" s="22" t="s">
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18">
+        <v>43333</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18">
+        <v>43334</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
-        <v>43304</v>
+        <v>43335</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5845,10 +6776,10 @@
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
-        <v>43305</v>
+        <v>43336</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5857,37 +6788,43 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
-        <v>43306</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="23">
+        <v>43337</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
-        <v>43307</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="23">
+        <v>43338</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
-        <v>43308</v>
+        <v>43339</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5895,497 +6832,12 @@
       <c r="F28" s="16"/>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23">
-        <v>43309</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23">
-        <v>43310</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
-        <v>43311</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
-        <v>43312</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"完成,待续,未完成"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor theme="1" tint="0.34998626667073579"/>
-  </sheetPr>
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="42.08203125" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
-        <v>43313</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
-        <v>43314</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
-        <v>43315</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
-        <v>43316</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
-        <v>43317</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>43318</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>43319</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
-        <v>43320</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
-        <v>43321</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>43322</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>43323</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
-        <v>43324</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
-        <v>43325</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <v>43326</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
-        <v>43327</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>43328</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
-        <v>43329</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
-        <v>43330</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
-        <v>43331</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
-        <v>43332</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
-        <v>43333</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
-        <v>43334</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
-        <v>43335</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
-        <v>43336</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
-        <v>43337</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23">
-        <v>43338</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
-        <v>43339</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-    </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>43340</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -6398,7 +6850,7 @@
         <v>43341</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -6411,7 +6863,7 @@
         <v>43342</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -6424,7 +6876,7 @@
         <v>43343</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -6444,7 +6896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.249977111117893"/>
@@ -6469,25 +6921,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>88</v>
-      </c>
       <c r="G1" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6495,11 +6947,11 @@
         <v>43344</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -6510,7 +6962,7 @@
         <v>43345</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -6523,7 +6975,7 @@
         <v>43346</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -6536,7 +6988,7 @@
         <v>43347</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -6549,7 +7001,7 @@
         <v>43348</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6562,7 +7014,7 @@
         <v>43349</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -6575,7 +7027,7 @@
         <v>43350</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -6588,7 +7040,7 @@
         <v>43351</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -6601,7 +7053,7 @@
         <v>43352</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -6614,7 +7066,7 @@
         <v>43353</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6627,7 +7079,7 @@
         <v>43354</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -6640,7 +7092,7 @@
         <v>43355</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6653,7 +7105,7 @@
         <v>43356</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -6666,7 +7118,7 @@
         <v>43357</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6679,7 +7131,7 @@
         <v>43358</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -6692,7 +7144,7 @@
         <v>43359</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -6705,7 +7157,7 @@
         <v>43360</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -6718,7 +7170,7 @@
         <v>43361</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -6731,7 +7183,7 @@
         <v>43362</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -6744,7 +7196,7 @@
         <v>43363</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -6757,7 +7209,7 @@
         <v>43364</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -6770,7 +7222,7 @@
         <v>43365</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -6783,7 +7235,7 @@
         <v>43366</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -6796,7 +7248,7 @@
         <v>43367</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -6809,7 +7261,7 @@
         <v>43368</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -6822,7 +7274,7 @@
         <v>43369</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -6835,7 +7287,7 @@
         <v>43370</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -6848,7 +7300,7 @@
         <v>43371</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -6861,7 +7313,7 @@
         <v>43372</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -6874,7 +7326,7 @@
         <v>43373</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -6894,7 +7346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
@@ -6919,25 +7371,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="E1" s="24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6945,7 +7397,7 @@
         <v>43374</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -6958,7 +7410,7 @@
         <v>43375</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6971,7 +7423,7 @@
         <v>43376</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -6984,7 +7436,7 @@
         <v>43377</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -6997,7 +7449,7 @@
         <v>43378</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7010,7 +7462,7 @@
         <v>43379</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -7023,7 +7475,7 @@
         <v>43380</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -7036,7 +7488,7 @@
         <v>43381</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -7049,7 +7501,7 @@
         <v>43382</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -7062,7 +7514,7 @@
         <v>43383</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7075,7 +7527,7 @@
         <v>43384</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -7088,7 +7540,7 @@
         <v>43385</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -7101,7 +7553,7 @@
         <v>43386</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -7114,7 +7566,7 @@
         <v>43387</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -7127,7 +7579,7 @@
         <v>43388</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7140,7 +7592,7 @@
         <v>43389</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -7153,7 +7605,7 @@
         <v>43390</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7166,7 +7618,7 @@
         <v>43391</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -7179,7 +7631,7 @@
         <v>43392</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -7192,7 +7644,7 @@
         <v>43393</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -7205,7 +7657,7 @@
         <v>43394</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -7218,7 +7670,7 @@
         <v>43395</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -7231,7 +7683,7 @@
         <v>43396</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -7244,7 +7696,7 @@
         <v>43397</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -7257,7 +7709,7 @@
         <v>43398</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -7270,7 +7722,7 @@
         <v>43399</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -7283,7 +7735,7 @@
         <v>43400</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -7296,7 +7748,7 @@
         <v>43401</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -7309,7 +7761,7 @@
         <v>43402</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -7322,7 +7774,7 @@
         <v>43403</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -7335,7 +7787,7 @@
         <v>43404</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -7355,7 +7807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="1" tint="4.9989318521683403E-2"/>
@@ -7380,25 +7832,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7406,7 +7858,7 @@
         <v>43405</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -7419,7 +7871,7 @@
         <v>43406</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -7432,7 +7884,7 @@
         <v>43407</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -7445,7 +7897,7 @@
         <v>43408</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
@@ -7458,7 +7910,7 @@
         <v>43409</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7471,7 +7923,7 @@
         <v>43410</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -7484,7 +7936,7 @@
         <v>43411</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -7497,7 +7949,7 @@
         <v>43412</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -7510,7 +7962,7 @@
         <v>43413</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -7523,7 +7975,7 @@
         <v>43414</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -7536,7 +7988,7 @@
         <v>43415</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -7549,7 +8001,7 @@
         <v>43416</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -7562,7 +8014,7 @@
         <v>43417</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7575,7 +8027,7 @@
         <v>43418</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -7588,7 +8040,7 @@
         <v>43419</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7601,7 +8053,7 @@
         <v>43420</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -7614,7 +8066,7 @@
         <v>43421</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -7627,7 +8079,7 @@
         <v>43422</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -7640,7 +8092,7 @@
         <v>43423</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -7653,7 +8105,7 @@
         <v>43424</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -7666,7 +8118,7 @@
         <v>43425</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -7679,7 +8131,7 @@
         <v>43426</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -7692,7 +8144,7 @@
         <v>43427</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -7705,7 +8157,7 @@
         <v>43428</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -7718,7 +8170,7 @@
         <v>43429</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -7731,7 +8183,7 @@
         <v>43430</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -7744,7 +8196,7 @@
         <v>43431</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -7757,7 +8209,7 @@
         <v>43432</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -7770,7 +8222,7 @@
         <v>43433</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -7783,7 +8235,7 @@
         <v>43434</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -7803,7 +8255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -7828,25 +8280,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7854,7 +8306,7 @@
         <v>43435</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -7867,7 +8319,7 @@
         <v>43436</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
@@ -7880,7 +8332,7 @@
         <v>43437</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -7893,7 +8345,7 @@
         <v>43438</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -7906,7 +8358,7 @@
         <v>43439</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7919,7 +8371,7 @@
         <v>43440</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -7932,7 +8384,7 @@
         <v>43441</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -7945,7 +8397,7 @@
         <v>43442</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -7958,7 +8410,7 @@
         <v>43443</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -7971,7 +8423,7 @@
         <v>43444</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7984,7 +8436,7 @@
         <v>43445</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -7997,7 +8449,7 @@
         <v>43446</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -8010,7 +8462,7 @@
         <v>43447</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -8023,7 +8475,7 @@
         <v>43448</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -8036,7 +8488,7 @@
         <v>43449</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -8049,7 +8501,7 @@
         <v>43450</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -8062,7 +8514,7 @@
         <v>43451</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -8075,7 +8527,7 @@
         <v>43452</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -8088,7 +8540,7 @@
         <v>43453</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -8101,7 +8553,7 @@
         <v>43454</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -8114,7 +8566,7 @@
         <v>43455</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -8127,7 +8579,7 @@
         <v>43456</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -8140,7 +8592,7 @@
         <v>43457</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -8153,7 +8605,7 @@
         <v>43458</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -8166,7 +8618,7 @@
         <v>43459</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -8179,7 +8631,7 @@
         <v>43460</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8192,7 +8644,7 @@
         <v>43461</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -8205,7 +8657,7 @@
         <v>43462</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -8218,7 +8670,7 @@
         <v>43463</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -8231,7 +8683,7 @@
         <v>43464</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -8244,7 +8696,7 @@
         <v>43465</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -8264,7 +8716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -8289,10 +8741,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -8301,7 +8753,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -8337,12 +8789,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -8373,10 +8825,10 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -8386,10 +8838,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -8420,10 +8872,10 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -8433,10 +8885,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -8467,10 +8919,10 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -8480,10 +8932,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -8514,10 +8966,10 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -8527,10 +8979,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -8561,10 +9013,10 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -8574,10 +9026,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="13"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -8608,10 +9060,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -8621,10 +9073,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8667,7 +9119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -8692,10 +9144,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -8704,7 +9156,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -8740,12 +9192,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -8776,10 +9228,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -8789,10 +9241,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -8823,10 +9275,10 @@
         <f ca="1"/>
         <v>43324</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -8836,10 +9288,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -8870,10 +9322,10 @@
         <f ca="1"/>
         <v>43331</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -8883,10 +9335,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -8917,10 +9369,10 @@
         <f ca="1"/>
         <v>43338</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -8930,10 +9382,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -8964,10 +9416,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -8977,10 +9429,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9011,10 +9463,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -9024,10 +9476,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9070,7 +9522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.499984740745262"/>
@@ -9095,10 +9547,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -9107,7 +9559,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9143,12 +9595,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -9179,10 +9631,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -9192,10 +9644,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -9226,10 +9678,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -9239,10 +9691,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -9273,10 +9725,10 @@
         <f ca="1"/>
         <v>43359</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -9286,10 +9738,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -9320,10 +9772,10 @@
         <f ca="1"/>
         <v>43366</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -9333,10 +9785,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -9367,10 +9819,10 @@
         <f ca="1"/>
         <v>43373</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9380,10 +9832,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9414,10 +9866,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -9427,10 +9879,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9473,7 +9925,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -9498,10 +9950,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -9510,7 +9962,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -9546,12 +9998,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -9582,10 +10034,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -9595,10 +10047,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -9629,10 +10081,10 @@
         <f ca="1"/>
         <v>43387</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -9642,10 +10094,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -9676,10 +10128,10 @@
         <f ca="1"/>
         <v>43394</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -9689,10 +10141,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -9723,10 +10175,10 @@
         <f ca="1"/>
         <v>43401</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -9736,10 +10188,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -9770,10 +10222,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9783,10 +10235,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9817,10 +10269,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -9830,10 +10282,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9876,454 +10328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDEACEE-FA30-4728-A112-2CCCD5F01CBB}">
-  <dimension ref="A1:O35"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.1640625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="5.9140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="37" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="8.08203125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="37"/>
-    <col min="8" max="8" width="5.5" style="37" customWidth="1"/>
-    <col min="9" max="9" width="9.08203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="40" customWidth="1"/>
-    <col min="11" max="13" width="4.6640625" style="38" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" style="43" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" style="42" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>128</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="O1" s="62" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="47">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48">
-        <v>346.7</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49">
-        <f t="shared" ref="F2:F6" si="0">C2+D2+E2</f>
-        <v>346.7</v>
-      </c>
-      <c r="G2" s="49">
-        <v>3484.91</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50">
-        <f t="shared" ref="I2:I7" si="1">G2+B2</f>
-        <v>3484.91</v>
-      </c>
-      <c r="J2" s="51">
-        <v>3</v>
-      </c>
-      <c r="K2" s="52">
-        <f t="shared" ref="K2:K3" si="2">J2*5</f>
-        <v>15</v>
-      </c>
-      <c r="L2" s="52">
-        <v>66.5</v>
-      </c>
-      <c r="M2" s="52">
-        <f t="shared" ref="M2:M3" si="3">L2*1.5</f>
-        <v>99.75</v>
-      </c>
-      <c r="N2" s="53">
-        <f>M2+K2+(1050+90)/2</f>
-        <v>684.75</v>
-      </c>
-      <c r="O2" s="67"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="45">
-        <v>0</v>
-      </c>
-      <c r="C3" s="41">
-        <v>346.7</v>
-      </c>
-      <c r="E3" s="37">
-        <v>195.33</v>
-      </c>
-      <c r="F3" s="37">
-        <f t="shared" si="0"/>
-        <v>542.03</v>
-      </c>
-      <c r="G3" s="37">
-        <v>6307.97</v>
-      </c>
-      <c r="I3" s="39">
-        <f t="shared" si="1"/>
-        <v>6307.97</v>
-      </c>
-      <c r="J3" s="40">
-        <v>1.5</v>
-      </c>
-      <c r="K3" s="38">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="L3" s="38">
-        <v>37.5</v>
-      </c>
-      <c r="M3" s="38">
-        <f t="shared" si="3"/>
-        <v>56.25</v>
-      </c>
-      <c r="N3" s="43">
-        <f t="shared" ref="N3:N4" si="4">M3+K3+(1050+90)/2</f>
-        <v>633.75</v>
-      </c>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="45">
-        <v>0</v>
-      </c>
-      <c r="C4" s="41">
-        <v>346.7</v>
-      </c>
-      <c r="E4" s="37">
-        <v>164.24</v>
-      </c>
-      <c r="F4" s="37">
-        <f t="shared" si="0"/>
-        <v>510.94</v>
-      </c>
-      <c r="G4" s="37">
-        <v>6028.14</v>
-      </c>
-      <c r="I4" s="39">
-        <f t="shared" si="1"/>
-        <v>6028.14</v>
-      </c>
-      <c r="J4" s="40">
-        <v>2</v>
-      </c>
-      <c r="K4" s="38">
-        <f>J4*5</f>
-        <v>10</v>
-      </c>
-      <c r="L4" s="38">
-        <v>45</v>
-      </c>
-      <c r="M4" s="38">
-        <f>L4*1.5</f>
-        <v>67.5</v>
-      </c>
-      <c r="N4" s="43">
-        <f t="shared" si="4"/>
-        <v>647.5</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="45">
-        <v>0</v>
-      </c>
-      <c r="C5" s="41">
-        <v>346.7</v>
-      </c>
-      <c r="D5" s="37">
-        <v>350</v>
-      </c>
-      <c r="E5" s="37">
-        <v>148.33000000000001</v>
-      </c>
-      <c r="F5" s="37">
-        <f t="shared" si="0"/>
-        <v>845.03000000000009</v>
-      </c>
-      <c r="G5" s="37">
-        <v>5884.97</v>
-      </c>
-      <c r="I5" s="39">
-        <f t="shared" si="1"/>
-        <v>5884.97</v>
-      </c>
-      <c r="J5" s="40">
-        <v>1</v>
-      </c>
-      <c r="K5" s="38">
-        <f>4*J5</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="38">
-        <v>20</v>
-      </c>
-      <c r="M5" s="38">
-        <f>1.5*L5</f>
-        <v>30</v>
-      </c>
-      <c r="N5" s="43">
-        <f>800+K5+M5+656</f>
-        <v>1490</v>
-      </c>
-      <c r="O5" s="66"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="45">
-        <v>0</v>
-      </c>
-      <c r="C6" s="41">
-        <v>346.7</v>
-      </c>
-      <c r="D6" s="37">
-        <v>350</v>
-      </c>
-      <c r="E6" s="37">
-        <v>295.33</v>
-      </c>
-      <c r="F6" s="37">
-        <f t="shared" si="0"/>
-        <v>992.03</v>
-      </c>
-      <c r="G6" s="37">
-        <v>7207.97</v>
-      </c>
-      <c r="H6" s="37">
-        <v>500</v>
-      </c>
-      <c r="I6" s="39">
-        <f t="shared" si="1"/>
-        <v>7207.97</v>
-      </c>
-      <c r="J6" s="40">
-        <v>4</v>
-      </c>
-      <c r="K6" s="38">
-        <f>4*J6</f>
-        <v>16</v>
-      </c>
-      <c r="L6" s="38">
-        <v>87</v>
-      </c>
-      <c r="M6" s="38">
-        <f t="shared" ref="M6:M7" si="5">1.5*L6</f>
-        <v>130.5</v>
-      </c>
-      <c r="N6" s="43">
-        <f>800+K6+M6+706</f>
-        <v>1652.5</v>
-      </c>
-      <c r="O6" s="66" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="45">
-        <v>0</v>
-      </c>
-      <c r="C7" s="41">
-        <v>346.7</v>
-      </c>
-      <c r="D7" s="37">
-        <v>350</v>
-      </c>
-      <c r="E7" s="37">
-        <v>245.33</v>
-      </c>
-      <c r="F7" s="37">
-        <f>C7+D7+E7</f>
-        <v>942.03000000000009</v>
-      </c>
-      <c r="G7" s="37">
-        <v>6757.97</v>
-      </c>
-      <c r="I7" s="39">
-        <f t="shared" si="1"/>
-        <v>6757.97</v>
-      </c>
-      <c r="J7" s="40">
-        <v>3</v>
-      </c>
-      <c r="K7" s="38">
-        <f>4*J7</f>
-        <v>12</v>
-      </c>
-      <c r="L7" s="38">
-        <v>108</v>
-      </c>
-      <c r="M7" s="38">
-        <f t="shared" si="5"/>
-        <v>162</v>
-      </c>
-      <c r="N7" s="43">
-        <f>800+K7+M7</f>
-        <v>974</v>
-      </c>
-      <c r="O7" s="66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="O8" s="66"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="1:15" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-    </row>
-    <row r="14" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:15" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="54"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -10348,10 +10353,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -10360,7 +10365,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10396,12 +10401,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -10432,10 +10437,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -10445,10 +10450,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -10479,10 +10484,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -10492,10 +10497,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -10526,10 +10531,10 @@
         <f ca="1"/>
         <v>43422</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -10539,10 +10544,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -10573,10 +10578,10 @@
         <f ca="1"/>
         <v>43429</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -10586,10 +10591,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -10620,10 +10625,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -10633,10 +10638,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -10667,10 +10672,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -10680,10 +10685,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10726,7 +10731,534 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDEACEE-FA30-4728-A112-2CCCD5F01CBB}">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="58" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="38" customWidth="1"/>
+    <col min="3" max="4" width="5.9140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="30" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="30" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.08203125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="30"/>
+    <col min="10" max="10" width="9.08203125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" style="33" customWidth="1"/>
+    <col min="12" max="14" width="4.6640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="36" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="8.6640625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="29" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="40">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41">
+        <v>346.7</v>
+      </c>
+      <c r="D2" s="41">
+        <f>C2</f>
+        <v>346.7</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <v>0</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42">
+        <f t="shared" ref="H2:H8" si="0">C2+E2+G2</f>
+        <v>346.7</v>
+      </c>
+      <c r="I2" s="42">
+        <v>3484.91</v>
+      </c>
+      <c r="J2" s="43">
+        <f t="shared" ref="J2:J8" si="1">I2+B2</f>
+        <v>3484.91</v>
+      </c>
+      <c r="K2" s="44">
+        <v>3</v>
+      </c>
+      <c r="L2" s="45">
+        <f t="shared" ref="L2:L3" si="2">K2*5</f>
+        <v>15</v>
+      </c>
+      <c r="M2" s="45">
+        <v>66.5</v>
+      </c>
+      <c r="N2" s="45">
+        <f t="shared" ref="N2:N3" si="3">M2*1.5</f>
+        <v>99.75</v>
+      </c>
+      <c r="O2" s="46">
+        <f>N2+L2+(1050+90)/2</f>
+        <v>684.75</v>
+      </c>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="38">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>346.7</v>
+      </c>
+      <c r="D3" s="34">
+        <f>C3+D2</f>
+        <v>693.4</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>195.33</v>
+      </c>
+      <c r="H3" s="30">
+        <f t="shared" si="0"/>
+        <v>542.03</v>
+      </c>
+      <c r="I3" s="30">
+        <v>6307.97</v>
+      </c>
+      <c r="J3" s="32">
+        <f t="shared" si="1"/>
+        <v>6307.97</v>
+      </c>
+      <c r="K3" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="L3" s="31">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="M3" s="31">
+        <v>37.5</v>
+      </c>
+      <c r="N3" s="31">
+        <f t="shared" si="3"/>
+        <v>56.25</v>
+      </c>
+      <c r="O3" s="36">
+        <f t="shared" ref="O3:O4" si="4">N3+L3+(1050+90)/2</f>
+        <v>633.75</v>
+      </c>
+      <c r="P3" s="59"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34">
+        <v>346.7</v>
+      </c>
+      <c r="D4" s="34">
+        <f t="shared" ref="D4:D8" si="5">C4+D3</f>
+        <v>1040.0999999999999</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>164.24</v>
+      </c>
+      <c r="H4" s="30">
+        <f t="shared" si="0"/>
+        <v>510.94</v>
+      </c>
+      <c r="I4" s="30">
+        <v>6028.14</v>
+      </c>
+      <c r="J4" s="32">
+        <f t="shared" si="1"/>
+        <v>6028.14</v>
+      </c>
+      <c r="K4" s="33">
+        <v>2</v>
+      </c>
+      <c r="L4" s="31">
+        <f>K4*5</f>
+        <v>10</v>
+      </c>
+      <c r="M4" s="31">
+        <v>45</v>
+      </c>
+      <c r="N4" s="31">
+        <f>M4*1.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="O4" s="36">
+        <f t="shared" si="4"/>
+        <v>647.5</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34">
+        <v>346.7</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" si="5"/>
+        <v>1386.8</v>
+      </c>
+      <c r="E5" s="30">
+        <v>350</v>
+      </c>
+      <c r="F5" s="30">
+        <f>E5+F4</f>
+        <v>350</v>
+      </c>
+      <c r="G5" s="30">
+        <v>148.33000000000001</v>
+      </c>
+      <c r="H5" s="30">
+        <f t="shared" si="0"/>
+        <v>845.03000000000009</v>
+      </c>
+      <c r="I5" s="30">
+        <v>5884.97</v>
+      </c>
+      <c r="J5" s="32">
+        <f t="shared" si="1"/>
+        <v>5884.97</v>
+      </c>
+      <c r="K5" s="33">
+        <v>1</v>
+      </c>
+      <c r="L5" s="31">
+        <f>4*K5</f>
+        <v>4</v>
+      </c>
+      <c r="M5" s="31">
+        <v>20</v>
+      </c>
+      <c r="N5" s="31">
+        <f>1.5*M5</f>
+        <v>30</v>
+      </c>
+      <c r="O5" s="36">
+        <f>800+L5+N5+656</f>
+        <v>1490</v>
+      </c>
+      <c r="P5" s="59"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34">
+        <v>346.7</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="5"/>
+        <v>1733.5</v>
+      </c>
+      <c r="E6" s="30">
+        <v>350</v>
+      </c>
+      <c r="F6" s="30">
+        <f t="shared" ref="F6:F8" si="6">E6+F5</f>
+        <v>700</v>
+      </c>
+      <c r="G6" s="30">
+        <v>295.33</v>
+      </c>
+      <c r="H6" s="30">
+        <f t="shared" si="0"/>
+        <v>992.03</v>
+      </c>
+      <c r="I6" s="30">
+        <v>7207.97</v>
+      </c>
+      <c r="J6" s="32">
+        <f t="shared" si="1"/>
+        <v>7207.97</v>
+      </c>
+      <c r="K6" s="33">
+        <v>4</v>
+      </c>
+      <c r="L6" s="31">
+        <f>4*K6</f>
+        <v>16</v>
+      </c>
+      <c r="M6" s="31">
+        <v>87</v>
+      </c>
+      <c r="N6" s="31">
+        <f t="shared" ref="N6:N7" si="7">1.5*M6</f>
+        <v>130.5</v>
+      </c>
+      <c r="O6" s="36">
+        <f>800+L6+N6+706</f>
+        <v>1652.5</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+      <c r="C7" s="34">
+        <v>346.7</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="5"/>
+        <v>2080.1999999999998</v>
+      </c>
+      <c r="E7" s="30">
+        <v>350</v>
+      </c>
+      <c r="F7" s="30">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="G7" s="30">
+        <v>245.33</v>
+      </c>
+      <c r="H7" s="30">
+        <f t="shared" si="0"/>
+        <v>942.03000000000009</v>
+      </c>
+      <c r="I7" s="30">
+        <v>6757.97</v>
+      </c>
+      <c r="J7" s="32">
+        <f t="shared" si="1"/>
+        <v>6757.97</v>
+      </c>
+      <c r="K7" s="33">
+        <v>3</v>
+      </c>
+      <c r="L7" s="31">
+        <f>4*K7</f>
+        <v>12</v>
+      </c>
+      <c r="M7" s="31">
+        <v>108</v>
+      </c>
+      <c r="N7" s="31">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="O7" s="36">
+        <f>800+L7+N7</f>
+        <v>974</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="30">
+        <v>380.34</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="5"/>
+        <v>2460.54</v>
+      </c>
+      <c r="E8" s="30">
+        <v>350</v>
+      </c>
+      <c r="F8" s="30">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="G8" s="30">
+        <v>253.97</v>
+      </c>
+      <c r="H8" s="30">
+        <f t="shared" si="0"/>
+        <v>984.31</v>
+      </c>
+      <c r="I8" s="30">
+        <v>6835.69</v>
+      </c>
+      <c r="J8" s="32">
+        <f t="shared" si="1"/>
+        <v>7835.69</v>
+      </c>
+      <c r="P8" s="59"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="59"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="59"/>
+    </row>
+    <row r="13" spans="1:16" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+    </row>
+    <row r="14" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
@@ -10751,10 +11283,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -10763,7 +11295,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -10799,12 +11331,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -10835,10 +11367,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -10848,10 +11380,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -10882,10 +11414,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -10895,10 +11427,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -10929,10 +11461,10 @@
         <f ca="1"/>
         <v>43450</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -10942,10 +11474,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -10976,10 +11508,10 @@
         <f ca="1"/>
         <v>43457</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -10989,10 +11521,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -11023,10 +11555,10 @@
         <f ca="1"/>
         <v>43464</v>
       </c>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -11036,10 +11568,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -11070,10 +11602,10 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="72"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -11083,10 +11615,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="75"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11130,25 +11662,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498F6E87-1593-4850-B4C8-2619E2D51362}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="8.6640625" style="35"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -11169,7 +11682,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -11180,17 +11693,17 @@
     </row>
     <row r="2" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="10">
         <f ca="1">YEAR(TODAY())</f>
         <v>2018</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
@@ -11199,7 +11712,7 @@
         <v>2018</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="7"/>
@@ -11207,7 +11720,7 @@
     </row>
     <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -11513,7 +12026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -11538,16 +12051,16 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" s="8"/>
     </row>
     <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -11850,7 +12363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
@@ -11875,10 +12388,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -11887,7 +12400,7 @@
     </row>
     <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12001,7 +12514,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12079,7 +12592,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="14"/>
@@ -12194,7 +12707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -12219,10 +12732,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -12231,7 +12744,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12267,12 +12780,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -12303,10 +12816,10 @@
         <f ca="1"/>
         <v>43191</v>
       </c>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
@@ -12316,10 +12829,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="14"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -12350,10 +12863,10 @@
         <f ca="1"/>
         <v>43198</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -12363,10 +12876,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -12397,10 +12910,10 @@
         <f ca="1"/>
         <v>43205</v>
       </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -12410,10 +12923,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -12444,12 +12957,12 @@
         <f ca="1"/>
         <v>43212</v>
       </c>
-      <c r="J10" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -12459,10 +12972,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -12493,12 +13006,12 @@
         <f ca="1"/>
         <v>43219</v>
       </c>
-      <c r="J12" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -12507,13 +13020,13 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -12544,14 +13057,14 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -12559,10 +13072,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12605,7 +13118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -12630,10 +13143,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -12642,7 +13155,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -12678,12 +13191,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -12714,12 +13227,12 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J4" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -12729,10 +13242,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -12763,12 +13276,12 @@
         <f ca="1"/>
         <v>43233</v>
       </c>
-      <c r="J6" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -12778,10 +13291,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -12812,12 +13325,12 @@
         <f ca="1"/>
         <v>43240</v>
       </c>
-      <c r="J8" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -12827,10 +13340,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -12861,12 +13374,12 @@
         <f ca="1"/>
         <v>43247</v>
       </c>
-      <c r="J10" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -12876,10 +13389,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -12910,12 +13423,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J12" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -12925,10 +13438,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -13009,7 +13522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -13034,10 +13547,10 @@
         <v>2018</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -13046,7 +13559,7 @@
     </row>
     <row r="2" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -13082,12 +13595,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="79"/>
+      <c r="J3" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -13118,12 +13631,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J4" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
+      <c r="J4" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -13133,10 +13646,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="75"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -13167,12 +13680,12 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-      <c r="J6" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="88"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -13182,10 +13695,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="75"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="91"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -13216,12 +13729,12 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-      <c r="J8" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="72"/>
+      <c r="J8" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="88"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -13231,10 +13744,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="75"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -13265,12 +13778,12 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-      <c r="J10" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="72"/>
+      <c r="J10" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -13280,10 +13793,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="75"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -13314,12 +13827,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J12" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="72"/>
+      <c r="J12" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -13329,10 +13842,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="91"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -13411,4 +13924,503 @@
   <pageMargins left="0.09" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="42.08203125" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23">
+        <v>43282</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
+        <v>43283</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
+        <v>43284</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
+        <v>43285</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>43286</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>43287</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <v>43288</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>43289</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18">
+        <v>43290</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="18">
+        <v>43291</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="18">
+        <v>43292</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="18">
+        <v>43293</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>43294</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23">
+        <v>43295</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23">
+        <v>43296</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>43297</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>43298</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
+        <v>43299</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18">
+        <v>43300</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="18">
+        <v>43301</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="23">
+        <v>43302</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23">
+        <v>43303</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18">
+        <v>43304</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18">
+        <v>43305</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18">
+        <v>43306</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18">
+        <v>43307</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18">
+        <v>43308</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23">
+        <v>43309</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" s="19" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="23">
+        <v>43310</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18">
+        <v>43311</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="18">
+        <v>43312</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F32" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>"完成,待续,未完成"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5848EE4-BC43-424A-81C2-4F14876D2C8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4A16904-5A0D-440D-8061-EDFC1607EC91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="190">
   <si>
     <t>一月</t>
   </si>
@@ -321,54 +321,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>二级事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二级事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二级事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整理产品经理工作阶段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -528,10 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《风骚律师》本月回归</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区间估计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,23 +701,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双11平板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>线性代数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划9天完成</t>
+    <t>一级任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高数</t>
+    <t>二级任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快速过</t>
+    <t>吴恩达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双11买平板</t>
+    <t>4、5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2、3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯度下降知识点总结：αdJ(x1)/dx；7、8、 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线代做题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +1000,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1711,7 +1747,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1847,37 +1883,47 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1892,10 +1938,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1927,6 +1982,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2065,6 +2123,20 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF2A69A2"/>
+      <color rgb="FF2C6EAA"/>
+      <color rgb="FF327CC0"/>
+      <color rgb="FF3381C7"/>
+      <color rgb="FF3F89CD"/>
+      <color rgb="FF63A0D7"/>
+      <color rgb="FF76ABDC"/>
+      <color rgb="FF88B6E0"/>
+      <color rgb="FF9BC2E5"/>
+      <color rgb="FFCEE1F2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2641,7 +2713,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3142,16 +3214,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>350</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>700</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1400</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3415,7 +3487,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>支出分析表</a:t>
+              <a:t>房租支出表</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
@@ -5718,10 +5790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C79DB5-DB89-4682-8758-4B7CCBF271E2}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5735,614 +5810,637 @@
   <sheetData>
     <row r="1" spans="1:10" s="64" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+        <v>157</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+        <v>165</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+        <v>164</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
+        <v>169</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+        <v>170</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+        <v>171</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+        <v>172</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
       <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+        <v>173</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="69" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="86"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="86"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
+      <c r="A14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="76"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="72" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="A16" s="86"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
       <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
       <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="76"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="71" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="62"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="86"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="69" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="62"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="62"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="62"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
       <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="62"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
       <c r="J27" s="62"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
     </row>
     <row r="30" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="78"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="78"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="78"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
     </row>
     <row r="45" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A10:D10"/>
@@ -6359,50 +6457,27 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E41:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6412,14 +6487,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
-    <tabColor theme="1" tint="0.34998626667073579"/>
+    <tabColor rgb="FF3381C7"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6433,456 +6508,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="70" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="75">
         <v>43313</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="75">
         <v>43314</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="75">
         <v>43315</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="71">
         <v>43316</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23">
+      <c r="A6" s="71">
         <v>43317</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="75">
+        <v>43318</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="75">
+        <v>43319</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="75">
+        <v>43320</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
-        <v>43318</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="75">
+        <v>43321</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="75">
+        <v>43322</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="71">
+        <v>43323</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="71">
+        <v>43324</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="75">
+        <v>43325</v>
+      </c>
+      <c r="B14" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
-        <v>43319</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="75">
+        <v>43326</v>
+      </c>
+      <c r="B15" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
-        <v>43320</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="75">
+        <v>43327</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="75">
+        <v>43328</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="75">
+        <v>43329</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="71">
+        <v>43330</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="71">
+        <v>43331</v>
+      </c>
+      <c r="B20" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="75">
+        <v>43332</v>
+      </c>
+      <c r="B21" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="75">
+        <v>43333</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="75">
+        <v>43334</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="75">
+        <v>43335</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="75">
+        <v>43336</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="71">
+        <v>43337</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
-        <v>43321</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="71">
+        <v>43338</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="74"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="75">
+        <v>43339</v>
+      </c>
+      <c r="B28" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="78"/>
+    </row>
+    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="75">
+        <v>43340</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="107">
+        <v>6</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="78"/>
+    </row>
+    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="75">
+        <v>43341</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="78"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="75">
+        <v>43342</v>
+      </c>
+      <c r="B31" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
-        <v>43322</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
+    </row>
+    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="75">
+        <v>43343</v>
+      </c>
+      <c r="B32" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
-        <v>43323</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="23">
-        <v>43324</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
-        <v>43325</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
-        <v>43326</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
-        <v>43327</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
-        <v>43328</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
-        <v>43329</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
-        <v>43330</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="23">
-        <v>43331</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
-        <v>43332</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
-        <v>43333</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
-        <v>43334</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
-        <v>43335</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
-        <v>43336</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
-        <v>43337</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23">
-        <v>43338</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
-        <v>43339</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
-        <v>43340</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
-        <v>43341</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
-        <v>43342</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
-        <v>43343</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6899,14 +6992,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
-    <tabColor theme="1" tint="0.249977111117893"/>
+    <tabColor rgb="FF327CC0"/>
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6920,419 +7013,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="A2" s="71">
         <v>43344</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="71">
         <v>43345</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="75">
         <v>43346</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="75">
         <v>43347</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="75">
         <v>43348</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="75">
         <v>43349</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="75">
         <v>43350</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
+      <c r="A9" s="71">
         <v>43351</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="71">
         <v>43352</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="75">
         <v>43353</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="75">
         <v>43354</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="75">
         <v>43355</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="75">
         <v>43356</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="A15" s="75">
         <v>43357</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="71">
         <v>43358</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="71">
         <v>43359</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="75">
         <v>43360</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="75">
         <v>43361</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="75">
         <v>43362</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="75">
         <v>43363</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="75">
         <v>43364</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+      <c r="A23" s="71">
         <v>43365</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
+      <c r="A24" s="71">
         <v>43366</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="75">
         <v>43367</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="75">
         <v>43368</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="75">
         <v>43369</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="75">
         <v>43370</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="75">
         <v>43371</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23">
+      <c r="A30" s="71">
         <v>43372</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23">
+      <c r="A31" s="71">
         <v>43373</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7349,14 +7440,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
-    <tabColor theme="1" tint="0.14999847407452621"/>
+    <tabColor rgb="FF2C6EAA"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7370,430 +7461,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="75">
         <v>43374</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="75">
         <v>43375</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="75">
         <v>43376</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="75">
         <v>43377</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="75">
         <v>43378</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
+      <c r="A7" s="71">
         <v>43379</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23">
+      <c r="A8" s="71">
         <v>43380</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="75">
         <v>43381</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="A10" s="75">
         <v>43382</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="75">
         <v>43383</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="75">
         <v>43384</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="75">
         <v>43385</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23">
+      <c r="A14" s="71">
         <v>43386</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="23">
+      <c r="A15" s="71">
         <v>43387</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
+      <c r="A16" s="75">
         <v>43388</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="A17" s="75">
         <v>43389</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="75">
         <v>43390</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="75">
         <v>43391</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="75">
         <v>43392</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="23">
+      <c r="A21" s="71">
         <v>43393</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="23">
+      <c r="A22" s="71">
         <v>43394</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
+      <c r="A23" s="75">
         <v>43395</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
+      <c r="A24" s="75">
         <v>43396</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="75">
         <v>43397</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="75">
         <v>43398</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="75">
         <v>43399</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23">
+      <c r="A28" s="71">
         <v>43400</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="20"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="23">
+      <c r="A29" s="71">
         <v>43401</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="20"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
+      <c r="A30" s="75">
         <v>43402</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
+      <c r="A31" s="75">
         <v>43403</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
+      <c r="A32" s="75">
         <v>43404</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7810,14 +7901,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
-    <tabColor theme="1" tint="4.9989318521683403E-2"/>
+    <tabColor rgb="FF2A69A2"/>
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D30" sqref="D30"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7831,417 +7922,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18">
+      <c r="A2" s="75">
         <v>43405</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18">
+      <c r="A3" s="75">
         <v>43406</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23">
+      <c r="A4" s="71">
         <v>43407</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23">
+      <c r="A5" s="71">
         <v>43408</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="20"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="75">
         <v>43409</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="75">
         <v>43410</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="75">
         <v>43411</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18">
+      <c r="A9" s="75">
         <v>43412</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="18">
+      <c r="A10" s="75">
         <v>43413</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="23">
+      <c r="A11" s="71">
         <v>43414</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="74"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23">
+      <c r="A12" s="71">
         <v>43415</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="75">
         <v>43416</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="75">
         <v>43417</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="A15" s="75">
         <v>43418</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18">
+      <c r="A16" s="75">
         <v>43419</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18">
+      <c r="A17" s="75">
         <v>43420</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="15"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="78"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23">
+      <c r="A18" s="71">
         <v>43421</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="23">
+      <c r="A19" s="71">
         <v>43422</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="75">
         <v>43423</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="75">
         <v>43424</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="75">
         <v>43425</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18">
+      <c r="A23" s="75">
         <v>43426</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18">
+      <c r="A24" s="75">
         <v>43427</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="23">
+      <c r="A25" s="71">
         <v>43428</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
+      <c r="A26" s="71">
         <v>43429</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="75">
         <v>43430</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="75">
         <v>43431</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="75">
         <v>43432</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18">
+      <c r="A30" s="75">
         <v>43433</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18">
+      <c r="A31" s="75">
         <v>43434</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="15"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8258,13 +8349,13 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
-    <tabColor theme="1"/>
+    <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8279,430 +8370,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="70" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23">
+      <c r="A2" s="71">
         <v>43435</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
+      <c r="A3" s="71">
         <v>43436</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18">
+      <c r="A4" s="75">
         <v>43437</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18">
+      <c r="A5" s="75">
         <v>43438</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+      <c r="A6" s="75">
         <v>43439</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+      <c r="A7" s="75">
         <v>43440</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18">
+      <c r="A8" s="75">
         <v>43441</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23">
+      <c r="A9" s="71">
         <v>43442</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="23">
+      <c r="A10" s="71">
         <v>43443</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18">
+      <c r="A11" s="75">
         <v>43444</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="15"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18">
+      <c r="A12" s="75">
         <v>43445</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18">
+      <c r="A13" s="75">
         <v>43446</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18">
+      <c r="A14" s="75">
         <v>43447</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18">
+      <c r="A15" s="75">
         <v>43448</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="71">
         <v>43449</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="23">
+      <c r="A17" s="71">
         <v>43450</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18">
+      <c r="A18" s="75">
         <v>43451</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18">
+      <c r="A19" s="75">
         <v>43452</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18">
+      <c r="A20" s="75">
         <v>43453</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+      <c r="A21" s="75">
         <v>43454</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18">
+      <c r="A22" s="75">
         <v>43455</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23">
+      <c r="A23" s="71">
         <v>43456</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
+      <c r="A24" s="71">
         <v>43457</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18">
+      <c r="A25" s="75">
         <v>43458</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18">
+      <c r="A26" s="75">
         <v>43459</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18">
+      <c r="A27" s="75">
         <v>43460</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="78"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18">
+      <c r="A28" s="75">
         <v>43461</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18">
+      <c r="A29" s="75">
         <v>43462</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="15"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="23">
+      <c r="A30" s="71">
         <v>43463</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="20"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="23">
+      <c r="A31" s="71">
         <v>43464</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="20"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18">
+      <c r="A32" s="75">
         <v>43465</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8789,12 +8880,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -8825,10 +8916,10 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -8838,10 +8929,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -8872,10 +8963,10 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -8885,10 +8976,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -8919,10 +9010,10 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -8932,10 +9023,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -8966,10 +9057,10 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -8979,10 +9070,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -9013,10 +9104,10 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9026,10 +9117,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="13"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9060,10 +9151,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -9073,10 +9164,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9192,12 +9283,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -9228,10 +9319,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -9241,10 +9332,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -9275,10 +9366,10 @@
         <f ca="1"/>
         <v>43324</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -9288,10 +9379,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -9322,10 +9413,10 @@
         <f ca="1"/>
         <v>43331</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -9335,10 +9426,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -9369,10 +9460,10 @@
         <f ca="1"/>
         <v>43338</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -9382,10 +9473,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -9416,10 +9507,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9429,10 +9520,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9463,10 +9554,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -9476,10 +9567,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9595,12 +9686,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -9631,10 +9722,10 @@
         <f ca="1"/>
         <v>43345</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -9644,10 +9735,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -9678,10 +9769,10 @@
         <f ca="1"/>
         <v>43352</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -9691,10 +9782,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -9725,10 +9816,10 @@
         <f ca="1"/>
         <v>43359</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -9738,10 +9829,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -9772,10 +9863,10 @@
         <f ca="1"/>
         <v>43366</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -9785,10 +9876,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -9819,10 +9910,10 @@
         <f ca="1"/>
         <v>43373</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9832,10 +9923,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9866,10 +9957,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -9879,10 +9970,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9998,12 +10089,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -10034,10 +10125,10 @@
         <f ca="1"/>
         <v>43380</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -10047,10 +10138,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -10081,10 +10172,10 @@
         <f ca="1"/>
         <v>43387</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -10094,10 +10185,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -10128,10 +10219,10 @@
         <f ca="1"/>
         <v>43394</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -10141,10 +10232,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -10175,10 +10266,10 @@
         <f ca="1"/>
         <v>43401</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -10188,10 +10279,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -10222,10 +10313,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -10235,10 +10326,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -10269,10 +10360,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -10282,10 +10373,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10401,12 +10492,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -10437,10 +10528,10 @@
         <f ca="1"/>
         <v>43408</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -10450,10 +10541,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -10484,10 +10575,10 @@
         <f ca="1"/>
         <v>43415</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -10497,10 +10588,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -10531,10 +10622,10 @@
         <f ca="1"/>
         <v>43422</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -10544,10 +10635,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -10578,10 +10669,10 @@
         <f ca="1"/>
         <v>43429</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -10591,10 +10682,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -10625,10 +10716,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -10638,10 +10729,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -10672,10 +10763,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -10685,10 +10776,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10733,10 +10824,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDEACEE-FA30-4728-A112-2CCCD5F01CBB}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -10759,49 +10853,49 @@
   <sheetData>
     <row r="1" spans="1:16" s="29" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D1" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="51" t="s">
+      <c r="K1" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="54" t="s">
         <v>128</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="54" t="s">
-        <v>129</v>
       </c>
       <c r="P1" s="55" t="s">
         <v>65</v>
@@ -10809,7 +10903,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="40">
         <v>0</v>
@@ -10859,7 +10953,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="38">
         <v>0</v>
@@ -10910,7 +11004,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="38">
         <v>0</v>
@@ -10958,12 +11052,12 @@
         <v>647.5</v>
       </c>
       <c r="P4" s="59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="38">
         <v>0</v>
@@ -10979,8 +11073,8 @@
         <v>350</v>
       </c>
       <c r="F5" s="30">
-        <f>E5+F4</f>
-        <v>350</v>
+        <f>E5*2+F4</f>
+        <v>700</v>
       </c>
       <c r="G5" s="30">
         <v>148.33000000000001</v>
@@ -11018,7 +11112,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="38">
         <v>0</v>
@@ -11034,8 +11128,8 @@
         <v>350</v>
       </c>
       <c r="F6" s="30">
-        <f t="shared" ref="F6:F8" si="6">E6+F5</f>
-        <v>700</v>
+        <f t="shared" ref="F6:F8" si="6">E6*2+F5</f>
+        <v>1400</v>
       </c>
       <c r="G6" s="30">
         <v>295.33</v>
@@ -11070,12 +11164,12 @@
         <v>1652.5</v>
       </c>
       <c r="P6" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="38">
         <v>0</v>
@@ -11092,7 +11186,7 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" si="6"/>
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="G7" s="30">
         <v>245.33</v>
@@ -11127,12 +11221,12 @@
         <v>974</v>
       </c>
       <c r="P7" s="59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="38">
         <v>1000</v>
@@ -11149,7 +11243,7 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" si="6"/>
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="G8" s="30">
         <v>253.97</v>
@@ -11169,27 +11263,27 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P9" s="59"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P11" s="59"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="59"/>
     </row>
@@ -11331,12 +11425,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -11367,10 +11461,10 @@
         <f ca="1"/>
         <v>43436</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -11380,10 +11474,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -11414,10 +11508,10 @@
         <f ca="1"/>
         <v>43443</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -11427,10 +11521,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -11461,10 +11555,10 @@
         <f ca="1"/>
         <v>43450</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -11474,10 +11568,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -11508,10 +11602,10 @@
         <f ca="1"/>
         <v>43457</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -11521,10 +11615,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -11555,10 +11649,10 @@
         <f ca="1"/>
         <v>43464</v>
       </c>
-      <c r="J12" s="86"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -11568,10 +11662,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -11602,10 +11696,10 @@
         <f ca="1"/>
         <v>43471</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="99"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -11615,10 +11709,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11664,13 +11758,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor theme="0"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12029,13 +12123,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+    <tabColor rgb="FFCEE1F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12366,13 +12460,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.14999847407452621"/>
+    <tabColor rgb="FF9BC2E5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12710,13 +12804,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
+    <tabColor rgb="FF88B6E0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12780,12 +12874,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -12816,10 +12910,10 @@
         <f ca="1"/>
         <v>43191</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="14"/>
@@ -12829,10 +12923,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="14"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -12863,10 +12957,10 @@
         <f ca="1"/>
         <v>43198</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -12876,10 +12970,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -12910,10 +13004,10 @@
         <f ca="1"/>
         <v>43205</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -12923,10 +13017,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -12957,12 +13051,12 @@
         <f ca="1"/>
         <v>43212</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -12972,10 +13066,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -13006,12 +13100,12 @@
         <f ca="1"/>
         <v>43219</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -13023,10 +13117,10 @@
         <v>53</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -13057,10 +13151,10 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -13072,10 +13166,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13121,13 +13215,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.34998626667073579"/>
+    <tabColor rgb="FF76ABDC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:M5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13191,12 +13285,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -13227,12 +13321,12 @@
         <f ca="1"/>
         <v>43226</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -13242,10 +13336,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -13276,12 +13370,12 @@
         <f ca="1"/>
         <v>43233</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -13291,10 +13385,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -13325,12 +13419,12 @@
         <f ca="1"/>
         <v>43240</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -13340,10 +13434,10 @@
       <c r="F9" s="14"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -13374,12 +13468,12 @@
         <f ca="1"/>
         <v>43247</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
@@ -13389,10 +13483,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="14"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -13423,12 +13517,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -13438,10 +13532,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -13525,13 +13619,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
+    <tabColor rgb="FF63A0D7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:M13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13595,12 +13689,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="95"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -13631,12 +13725,12 @@
         <f ca="1"/>
         <v>43254</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -13646,10 +13740,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -13680,12 +13774,12 @@
         <f ca="1"/>
         <v>43261</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="99"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -13695,10 +13789,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -13729,12 +13823,12 @@
         <f ca="1"/>
         <v>43268</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="88"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -13744,10 +13838,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -13778,12 +13872,12 @@
         <f ca="1"/>
         <v>43275</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -13793,10 +13887,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -13827,12 +13921,12 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J12" s="86" t="s">
+      <c r="J12" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="99"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -13842,10 +13936,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -13929,14 +14023,14 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
-    <tabColor theme="1" tint="0.499984740745262"/>
+    <tabColor rgb="FF3F89CD"/>
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13966,7 +14060,7 @@
         <v>69</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G1" s="24" t="s">
         <v>66</v>
@@ -14078,11 +14172,11 @@
         <v>62</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="20"/>
     </row>
@@ -14097,7 +14191,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="15"/>
     </row>
@@ -14112,7 +14206,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="27"/>
     </row>
@@ -14125,7 +14219,7 @@
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
@@ -14141,7 +14235,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -14210,10 +14304,10 @@
         <v>56</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
@@ -14229,7 +14323,7 @@
         <v>61</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -14285,10 +14379,10 @@
         <v>57</v>
       </c>
       <c r="C23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -14393,7 +14487,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>

--- a/2018年度计划.xlsx
+++ b/2018年度计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D4A16904-5A0D-440D-8061-EDFC1607EC91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E031ABD1-70B0-4C41-948F-98507A315682}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10230" yWindow="0" windowWidth="22260" windowHeight="12650" tabRatio="848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="29" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="194">
   <si>
     <t>一月</t>
   </si>
@@ -568,22 +568,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后台开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                       </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    2、python(np、pd、mpl、sklearn)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,18 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    3、寻找商机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    4、创业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    1、学习（——2020年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    1、《web analysis 2.0》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -632,22 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI产品经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>算法与应用结合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计划：（找机会投资）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    2、Tensorflow：Google深度学习框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,14 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>机器学习算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学基础、python、sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    1、理论基础（微积分、线代、统计）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -693,10 +645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    2、进入决策层（2020——？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    1、微积分、线代、统计、凸优化、N大机器学习算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -717,10 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双11平板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线性代数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,10 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴恩达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4、5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,11 +685,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梯度下降知识点总结：αdJ(x1)/dx；7、8、 9</t>
+    <t>7、8、 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>线代做题</t>
+    <t>单变量线性回归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴恩达机器学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买平板-1040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人生规划：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 理论技术学习（——2020年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 真正有价值项目落地（2020——？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 寻找商机，创业（2024——?）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2 不能停止学习，但是要搞清楚重点，前两年重点学习；然后开始重点放在挖掘应用、项目落地、协调调动资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3 理论学习——应用挖掘，两者相互促进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优雅的分割线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目、理论、英语、考研(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1 寻找投资机会，实现指数增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《闪电侠》回归</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1530,15 +1546,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -1747,7 +1754,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1869,16 +1876,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1902,55 +1906,73 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1982,9 +2004,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3083,6 +3102,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1001.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3708,6 +3730,9 @@
                 <c:pt idx="5">
                   <c:v>162</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>169.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3890,6 +3915,9 @@
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4066,6 +4094,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1001.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5795,523 +5826,544 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="43.4140625" style="66" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="81" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="82" customWidth="1"/>
+    <col min="3" max="3" width="37.58203125" style="82" customWidth="1"/>
+    <col min="4" max="4" width="37.58203125" style="83" customWidth="1"/>
     <col min="5" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="64" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="68" t="s">
-        <v>142</v>
+      <c r="C1" s="80" t="s">
+        <v>186</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
       <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>157</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
+        <v>151</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B3" s="61" t="s">
         <v>141</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+        <v>188</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+        <v>190</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
+        <v>157</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
+        <v>158</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+        <v>159</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
       <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
+        <v>160</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
       <c r="J8" s="62"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
+        <v>161</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
+      <c r="A10" s="92" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
       <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="84" t="s">
+      <c r="A11" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="62"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="62"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="92" t="s">
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="62"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="62"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
       <c r="J14" s="62"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
+      <c r="A15" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
       <c r="J15" s="62"/>
     </row>
     <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
+      <c r="A16" s="90" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
       <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
+      <c r="A17" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
       <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
+      <c r="A18" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
       <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
       <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
       <c r="J20" s="62"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
       <c r="J21" s="62"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
       <c r="J22" s="62"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
       <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
       <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
       <c r="J25" s="62"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
       <c r="J26" s="62"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
       <c r="J27" s="62"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
     </row>
     <row r="30" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
     </row>
     <row r="32" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
     </row>
     <row r="34" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
     </row>
     <row r="35" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
     </row>
     <row r="36" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
     </row>
     <row r="37" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
     </row>
     <row r="38" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
       <c r="E38" s="84"/>
       <c r="F38" s="85"/>
       <c r="G38" s="85"/>
@@ -6319,10 +6371,10 @@
       <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="83"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87"/>
       <c r="E39" s="84"/>
       <c r="F39" s="85"/>
       <c r="G39" s="85"/>
@@ -6330,117 +6382,81 @@
       <c r="I39" s="85"/>
     </row>
     <row r="40" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="87"/>
     </row>
     <row r="41" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87"/>
     </row>
     <row r="42" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="87"/>
     </row>
     <row r="43" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="87"/>
     </row>
     <row r="44" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="87"/>
     </row>
     <row r="45" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="E29:I29"/>
+  <mergeCells count="75">
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E33:I33"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="E18:I18"/>
     <mergeCell ref="E19:I19"/>
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="E21:I21"/>
     <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
     <mergeCell ref="E15:I15"/>
     <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A10:D10"/>
@@ -6462,22 +6478,22 @@
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E35:I35"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="E38:I38"/>
     <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="E39:I39"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6491,10 +6507,10 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6508,474 +6524,474 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>43313</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75">
+      <c r="A3" s="74">
         <v>43314</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>43315</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71">
+      <c r="A5" s="70">
         <v>43316</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="71">
+      <c r="A6" s="70">
         <v>43317</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75">
+      <c r="A7" s="74">
         <v>43318</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>43319</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75">
+      <c r="A9" s="74">
         <v>43320</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77" t="s">
+      <c r="C9" s="76"/>
+      <c r="D9" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77" t="s">
+      <c r="E9" s="76"/>
+      <c r="F9" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75">
+      <c r="A10" s="74">
         <v>43321</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75">
+      <c r="A11" s="74">
         <v>43322</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71">
+      <c r="A12" s="70">
         <v>43323</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71">
+      <c r="A13" s="70">
         <v>43324</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="75">
+      <c r="A14" s="74">
         <v>43325</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75">
+      <c r="A15" s="74">
         <v>43326</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="75">
+      <c r="A16" s="74">
         <v>43327</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75">
+      <c r="A17" s="74">
         <v>43328</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>43329</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71">
+      <c r="A19" s="70">
         <v>43330</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71">
+      <c r="A20" s="70">
         <v>43331</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+      <c r="C20" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75">
+      <c r="A21" s="74">
         <v>43332</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="75">
+      <c r="A22" s="74">
         <v>43333</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75">
+      <c r="A23" s="74">
         <v>43334</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="75">
+      <c r="A24" s="74">
         <v>43335</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75">
+      <c r="A25" s="74">
         <v>43336</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="70">
         <v>43337</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73" t="s">
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="74"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="71">
+      <c r="A27" s="70">
         <v>43338</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73" t="s">
+      <c r="C27" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="74"/>
+      <c r="G27" s="73"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="75">
+      <c r="A28" s="74">
         <v>43339</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="75">
+      <c r="A29" s="74">
         <v>43340</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="107">
+      <c r="C29" s="76"/>
+      <c r="D29" s="79">
         <v>6</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77" t="s">
+      <c r="E29" s="76"/>
+      <c r="F29" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="78"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="75">
+      <c r="A30" s="74">
         <v>43341</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77" t="s">
+      <c r="C30" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="78"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="75">
+      <c r="A31" s="74">
         <v>43342</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="75">
+      <c r="A32" s="74">
         <v>43343</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6997,9 +7013,9 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7013,417 +7029,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="70" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="70" t="s">
+      <c r="C1" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71">
+      <c r="A2" s="70">
         <v>43344</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71">
+      <c r="A3" s="70">
         <v>43345</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>43346</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75">
+      <c r="A5" s="74">
         <v>43347</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>43348</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75">
+      <c r="A7" s="74">
         <v>43349</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>43350</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71">
+      <c r="A9" s="70">
         <v>43351</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71">
+      <c r="A10" s="70">
         <v>43352</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75">
+      <c r="A11" s="74">
         <v>43353</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75">
+      <c r="A12" s="74">
         <v>43354</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75">
+      <c r="A13" s="74">
         <v>43355</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="75">
+      <c r="A14" s="74">
         <v>43356</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75">
+      <c r="A15" s="74">
         <v>43357</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71">
+      <c r="A16" s="70">
         <v>43358</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="71">
+      <c r="A17" s="70">
         <v>43359</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>43360</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75">
+      <c r="A19" s="74">
         <v>43361</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>43362</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75">
+      <c r="A21" s="74">
         <v>43363</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="75">
+      <c r="A22" s="74">
         <v>43364</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71">
+      <c r="A23" s="70">
         <v>43365</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="71">
+      <c r="A24" s="70">
         <v>43366</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75">
+      <c r="A25" s="74">
         <v>43367</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="75">
+      <c r="A26" s="74">
         <v>43368</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="75">
+      <c r="A27" s="74">
         <v>43369</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="75">
+      <c r="A28" s="74">
         <v>43370</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="75">
+      <c r="A29" s="74">
         <v>43371</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71">
+      <c r="A30" s="70">
         <v>43372</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71">
+      <c r="A31" s="70">
         <v>43373</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7445,9 +7461,9 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7461,430 +7477,432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>43374</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75">
+      <c r="A3" s="74">
         <v>43375</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>43376</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75">
+      <c r="A5" s="74">
         <v>43377</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>43378</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="71">
+      <c r="A7" s="70">
         <v>43379</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71">
+      <c r="A8" s="70">
         <v>43380</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75">
+      <c r="A9" s="74">
         <v>43381</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75">
+      <c r="A10" s="74">
         <v>43382</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75">
+      <c r="A11" s="74">
         <v>43383</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75">
+      <c r="A12" s="74">
         <v>43384</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75">
+      <c r="A13" s="74">
         <v>43385</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71">
+      <c r="A14" s="70">
         <v>43386</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71">
+      <c r="A15" s="70">
         <v>43387</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="75">
+      <c r="A16" s="74">
         <v>43388</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75">
+      <c r="A17" s="74">
         <v>43389</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>43390</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75">
+      <c r="A19" s="74">
         <v>43391</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>43392</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="71">
+      <c r="A21" s="70">
         <v>43393</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="71">
+      <c r="A22" s="70">
         <v>43394</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75">
+      <c r="A23" s="74">
         <v>43395</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="75">
+      <c r="A24" s="74">
         <v>43396</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75">
+      <c r="A25" s="74">
         <v>43397</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="75">
+      <c r="A26" s="74">
         <v>43398</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="75">
+      <c r="A27" s="74">
         <v>43399</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="71">
+      <c r="A28" s="70">
         <v>43400</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="71">
+      <c r="A29" s="70">
         <v>43401</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="75">
+      <c r="A30" s="74">
         <v>43402</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="75">
+      <c r="A31" s="74">
         <v>43403</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="75">
+      <c r="A32" s="74">
         <v>43404</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7908,7 +7926,7 @@
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E13" sqref="E13"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7922,417 +7940,417 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>43405</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75">
+      <c r="A3" s="74">
         <v>43406</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="78"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71">
+      <c r="A4" s="70">
         <v>43407</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="71">
+      <c r="A5" s="70">
         <v>43408</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>43409</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75">
+      <c r="A7" s="74">
         <v>43410</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>43411</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="75">
+      <c r="A9" s="74">
         <v>43412</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="75">
+      <c r="A10" s="74">
         <v>43413</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71">
+      <c r="A11" s="70">
         <v>43414</v>
       </c>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71">
+      <c r="A12" s="70">
         <v>43415</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75">
+      <c r="A13" s="74">
         <v>43416</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="75">
+      <c r="A14" s="74">
         <v>43417</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75">
+      <c r="A15" s="74">
         <v>43418</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="75">
+      <c r="A16" s="74">
         <v>43419</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75">
+      <c r="A17" s="74">
         <v>43420</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="71">
+      <c r="A18" s="70">
         <v>43421</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="71">
+      <c r="A19" s="70">
         <v>43422</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>43423</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75">
+      <c r="A21" s="74">
         <v>43424</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="75">
+      <c r="A22" s="74">
         <v>43425</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="75">
+      <c r="A23" s="74">
         <v>43426</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="75">
+      <c r="A24" s="74">
         <v>43427</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71">
+      <c r="A25" s="70">
         <v>43428</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71">
+      <c r="A26" s="70">
         <v>43429</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="75">
+      <c r="A27" s="74">
         <v>43430</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="75">
+      <c r="A28" s="74">
         <v>43431</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="75">
+      <c r="A29" s="74">
         <v>43432</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="75">
+      <c r="A30" s="74">
         <v>43433</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="75">
+      <c r="A31" s="74">
         <v>43434</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="78"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8370,430 +8388,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="69" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71">
+      <c r="A2" s="70">
         <v>43435</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="71">
+      <c r="A3" s="70">
         <v>43436</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>43437</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75">
+      <c r="A5" s="74">
         <v>43438</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>43439</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75">
+      <c r="A7" s="74">
         <v>43440</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>43441</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
     </row>
     <row r="9" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="71">
+      <c r="A9" s="70">
         <v>43442</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71">
+      <c r="A10" s="70">
         <v>43443</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="75">
+      <c r="A11" s="74">
         <v>43444</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="75">
+      <c r="A12" s="74">
         <v>43445</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
     </row>
     <row r="13" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="75">
+      <c r="A13" s="74">
         <v>43446</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="75">
+      <c r="A14" s="74">
         <v>43447</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="75">
+      <c r="A15" s="74">
         <v>43448</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71">
+      <c r="A16" s="70">
         <v>43449</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="71">
+      <c r="A17" s="70">
         <v>43450</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>43451</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75">
+      <c r="A19" s="74">
         <v>43452</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>43453</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75">
+      <c r="A21" s="74">
         <v>43454</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="75">
+      <c r="A22" s="74">
         <v>43455</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="71">
+      <c r="A23" s="70">
         <v>43456</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="71">
+      <c r="A24" s="70">
         <v>43457</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="75">
+      <c r="A25" s="74">
         <v>43458</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="75">
+      <c r="A26" s="74">
         <v>43459</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="75">
+      <c r="A27" s="74">
         <v>43460</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="75">
+      <c r="A28" s="74">
         <v>43461</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="78"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="77"/>
     </row>
     <row r="29" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="75">
+      <c r="A29" s="74">
         <v>43462</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="78"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="71">
+      <c r="A30" s="70">
         <v>43463</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71">
+      <c r="A31" s="70">
         <v>43464</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="75">
+      <c r="A32" s="74">
         <v>43465</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8880,12 +8898,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>日</v>
       </c>
-      <c r="J3" s="104" t="s">
+      <c r="J3" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
@@ -8916,10 +8934,10 @@
         <f ca="1"/>
         <v>43282</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104"/>
     </row>
     <row r="5" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -8929,10 +8947,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="102"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
@@ -8963,10 +8981,10 @@
         <f ca="1"/>
         <v>43289</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="99"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
     </row>
     <row r="7" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -8976,10 +8994,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="102"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
@@ -9010,10 +9028,10 @@
         <f ca="1"/>
         <v>43296</v>
       </c>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="99"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
     </row>
     <row r="9" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -9023,10 +9041,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="102"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
+      <c r="M9" s="107"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
@@ -9057,10 +9075,10 @@
         <f ca="1"/>
         <v>43303</v>
       </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="104"/>
     </row>
     <row r="11" spans="2:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
@@ -9070,10 +9088,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="102"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
@@ -9104,10 +9122,10 @@
         <f ca="1"/>
         <v>43310</v>
       </c>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="104"/>
     </row>
     <row r="13" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
@@ -9117,10 +9135,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="13"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
     </row>
     <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="12">
@@ -9151,10 +9169,10 @@
         <f ca="1"/>
         <v>43317</v>
       </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="99"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="104"/>
     </row>
     <row r="15" spans="2:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
@@ -9164,10 +9182,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="102"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -